--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hoermann\GitHub\dev-baernreither-app\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="785">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -1003,9 +1003,6 @@
     <t>Varianten</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>AbrahamowiczDawid</t>
   </si>
   <si>
@@ -1843,9 +1840,6 @@
     <t xml:space="preserve">Karl Sigmund </t>
   </si>
   <si>
-    <t>&lt;persName key="HohenwartKarl" ref="https://d-nb.info/gnd/11855283X"&gt;</t>
-  </si>
-  <si>
     <t>Bismarck</t>
   </si>
   <si>
@@ -1882,9 +1876,6 @@
     <t>BeckMaxWladimir</t>
   </si>
   <si>
-    <t>&lt;persName key="BeckMaxWladimir" ref="https://d-nb.info/gnd/118654373"&gt;</t>
-  </si>
-  <si>
     <t>Bacquehem</t>
   </si>
   <si>
@@ -1897,9 +1888,6 @@
     <t>Olivier</t>
   </si>
   <si>
-    <t>&lt;persName key="BacquehemOlivier" ref="https://d-nb.info/gnd/143865420"&gt;</t>
-  </si>
-  <si>
     <t>Baernreither</t>
   </si>
   <si>
@@ -1912,9 +1900,6 @@
     <t>BaernreitherJosephMaria</t>
   </si>
   <si>
-    <t>&lt;persName key="BaernreitherJosephMaria" ref="https://d-nb.info/gnd/118505858"&gt;</t>
-  </si>
-  <si>
     <t>Badeni</t>
   </si>
   <si>
@@ -1927,9 +1912,6 @@
     <t>BadeniKasimir</t>
   </si>
   <si>
-    <t>&lt;persName key="BadeniKasimir" ref="https://d-nb.info/gnd/118651625"&gt;</t>
-  </si>
-  <si>
     <t>BylandtRheidtArthur</t>
   </si>
   <si>
@@ -2012,399 +1994,6 @@
   </si>
   <si>
     <t>BanffyDezso</t>
-  </si>
-  <si>
-    <t>&lt;persName key="AbrahamowiczDawid" ref="https://d-nb.info/gnd/143832883"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="AdlerVictor" ref="https://d-nb.info/gnd/118647075"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="AmrusMilan" ref="https://d-nb.info/gnd/143840010"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="AndrassyGyula" ref="https://d-nb.info/gnd/118502875"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ApponyiAlbert" ref="https://d-nb.info/gnd/118645501"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BismarckOtto" ref="https://d-nb.info/gnd/11851136X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BonaparteLouiseNapoleon" ref="https://d-nb.info/gnd/118586416"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BuelowMaria" ref="https://d-nb.info/gnd/116133783"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BuelowBernhard" ref="https://d-nb.info/gnd/118517023"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BuquoyFerdinand" ref="https://d-nb.info/gnd/1056847239"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="BylandtRheidtArthur" ref="https://d-nb.info/gnd/1049718305"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="CallGuido" ref="https://d-nb.info/gnd/136187226"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="CapriviLeo" ref="https://d-nb.info/gnd/11851900X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ChiariKarl" ref="/d-nb.info/gnd/116504765"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ChlumeckyJohann" ref="https://d-nb.info/gnd/116505907"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Clam-MartinicHeinrich" ref="https://d-nb.info/gnd/118676245"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="CoudenhoveKarl" ref="https://d-nb.info/gnd/143806920"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="CzerninOttokar" ref="https://d-nb.info/gnd/118677659"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DammHans" ref="https://d-nb.info/gnd/1056935251"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DaszynskiIgnacy" ref="https://d-nb.info/gnd/118934481"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DemeliusErnst" ref="https://d-nb.info/gnd/141880414"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DerschattaJulius" ref="https://d-nb.info/gnd/136192165"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DeymFriedrich" ref="https://d-nb.info/gnd/116095660"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DietlWenzel"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="DzieduszyckiWojciech" ref="https://d-nb.info/gnd/119285320"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="EhrenfelsBernhard" ref="https://d-nb.info/gnd/132868369"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ErlerEduard" ref="https://d-nb.info/gnd/1066387540"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="FalkenhaynJulius" ref="https://d-nb.info/gnd/135963850"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="FejervaryGeza" ref="https://d-nb.info/gnd/130147729"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="FranckeErnst" ref="https://d-nb.info/gnd/116697407"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GautschPaul" ref="https://d-nb.info/gnd/137078080"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GertscherAdalbert" ref="https://d-nb.info/gnd/117543586"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GessmannAlbert" ref="https://d-nb.info/gnd/124326250"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GoluchowskiAgenor" ref="https://d-nb.info/gnd/1011172178"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GrabmayrKarl" ref="https://d-nb.info/gnd/11869684X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GroßGustav" ref="https://d-nb.info/gnd/134055136"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="GyoergyAndreas" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KaiserFranzJosef" ref="https://d-nb.info/gnd/118535013"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HelmerGilbert" ref="https://d-nb.info/gnd/118548921"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HeroldJosef" ref="https://d-nb.info/gnd/1011806606"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HertzkaTivadar" ref="https://d-nb.info/gnd/118825186"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HieronymiKaroly" ref="https://d-nb.info/gnd/1011856727"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HofmannFranz" ref="https://d-nb.info/gnd/1209783282"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KaiserWilhelmII." ref="https://d-nb.info/gnd/118632892"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HohenloheKonrad" ref="https://d-nb.info/gnd/137601816"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HolloLajos" ref="https://d-nb.info/gnd/1012033074"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="JelacicJosip" ref="https://d-nb.info/gnd/118776088"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="JesserFranz" ref="https://d-nb.info/gnd/118722999"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="JusthGyula" ref="https://d-nb.info/gnd/1012930025"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KathreinTheodor" ref="https://d-nb.info/gnd/11903235X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KaufmannPaul" ref="https://d-nb.info/gnd/116074965"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KhevenhüllerAlfred" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KielmanseggErich" ref="https://d-nb.info/gnd/107511584"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KienmannEmerich" ref="https://d-nb.info/gnd/1136597980"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KoerberErnest" ref="https://d-nb.info/gnd/118713434"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KolowratLeopold" ref="https://d-nb.info/gnd/129225088"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KoppGeorg" ref="https://d-nb.info/gnd/118714031"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KornfeldSigmund" ref="https://d-nb.info/gnd/136423078"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KoselMansuet" ref="https://d-nb.info/gnd/130214094"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KossuthFerenc" ref="https://d-nb.info/gnd/138888744"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KossuthLajos" ref="https://d-nb.info/gnd/118565702"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KramarKarel" ref="https://d-nb.info/gnd/122305116"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KristoffyJozsef" ref="https://d-nb.info/gnd/124554865"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KuenburgGandolph" ref="https://d-nb.info/gnd/1017823952"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="KuernbergerFerdinand" ref="https://d-nb.info/gnd/118567764"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LanyiBertalan" ref="https://d-nb.info/gnd/1018262903"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LarischHeinrich" ref="https://d-nb.info/gnd/136310915"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LarischJohann" ref="https://d-nb.info/gnd/1116288745"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LecherOtto" ref="https://d-nb.info/gnd/141657472"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LiechtensteinAlois" ref="https://d-nb.info/gnd/120125838"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LiechtensteinEduard" ref="https://d-nb.info/gnd/118838814"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LindauRudolf" ref="https://d-nb.info/gnd/117014613"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LobkowitzGeorg" ref="https://d-nb.info/gnd/117074128"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LobkowitzFerdinand" ref="https://d-nb.info/gnd/117143952"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LoeckerJulius" ref="https://d-nb.info/gnd/137851227"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LudwigstorffAnton" ref="https://d-nb.info/gnd/132995271"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="LuegerKarl" ref="https://d-nb.info/gnd/118729578"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="MarchetGustav" ref="https://d-nb.info/gnd/129095648"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="MelineFelix" ref="https://d-nb.info/gnd/117560707"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="NostitzErwein" ref="https://d-nb.info/gnd/13012589X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PacakBedrich" ref="https://d-nb.info/gnd/1024898318"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PejacevicTivadar" ref="https://d-nb.info/gnd/1025703324"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PergeltAnton" ref="https://d-nb.info/gnd/102579642X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PernerstorferEngelbert" ref="https://d-nb.info/gnd/119148331"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PeschkaFranz" ref="https://d-nb.info/gnd/127901221"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PestalozzaHugo" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PhilippovichEugen" ref="https://d-nb.info/gnd/116176199"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PradeHeinrich" ref="https://d-nb.info/gnd/127915672"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="PrasekKarel" ref="https://d-nb.info/gnd/1026693365"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="RandaAntonin" ref="https://d-nb.info/gnd/116328185"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="RemusatCharles" ref="https://d-nb.info/gnd/119441284"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="RoesslerMauriz" ref="https://d-nb.info/gnd/1028553323"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="RohanAlain" ref="https://d-nb.info/gnd/139262210"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="RuberIgnaz" ref="https://d-nb.info/gnd/1028692110"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchaeffleAlbert" ref="https://d-nb.info/gnd/11860628X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchalkAnton" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchmollerGustav" ref="https://d-nb.info/gnd/116863854"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchoenbornFriedrich" ref="https://d-nb.info/gnd/116863854"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchoenererGeorg" ref="https://d-nb.info/gnd/118610163"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchwartzenauErwin" ref="https://d-nb.info/gnd/1033476587"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchwarzenbergKarl" ref="https://d-nb.info/gnd/1021821535"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SchwegelJoseph" ref="https://d-nb.info/gnd/130652784"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SieghartRudolf" ref="https://d-nb.info/gnd/117364452"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Silva-TaroucaErnst" ref="https://d-nb.info/gnd/127064842"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SingerWilhelm" ref="https://d-nb.info/gnd/117402834"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SkeneAlfred" ref="https://d-nb.info/gnd/133135829"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="StarcevicAnte" ref="https://d-nb.info/gnd/119559013"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SteinFranko" ref="https://d-nb.info/gnd/129277169"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SteinbachEmil" ref="https://d-nb.info/gnd/129263958"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="StrossmayerJosip" ref="https://d-nb.info/gnd/118799185"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="StürgkhKarl" ref="https://d-nb.info/gnd/117677957"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SzellKalman" ref="https://d-nb.info/gnd/1084341417"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SzilagyiArthur" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="SzterenyiJozsef" ref="https://d-nb.info/gnd/126999007"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="TaaffeEduard" ref="https://d-nb.info/gnd/118620428"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="TerlagoRobert" ref="https://d-nb.info/gnd/117273228"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ThunFranz" ref="https://d-nb.info/gnd/117626651"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ThunOswald" ref="https://d-nb.info/gnd/108021190X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="TiszaIstvan" ref="https://d-nb.info/gnd/118998897"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="TollingerJohann" ref="https://d-nb.info/gnd/1081488964"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="TrauttmansdorffKarl" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="UrbanKarl" ref="https://d-nb.info/gnd/1148771107"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="VeigelsbergLeo" ref="https://d-nb.info/gnd/117360430"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="VesziJozsef" ref="https://d-nb.info/gnd/1172479844"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="VetterMoritz" ref="https://d-nb.info/gnd/110638972"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="VoeroesLaszlo" ref="https://d-nb.info/gnd/116588352X"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="WekerleSandor" ref="https://d-nb.info/gnd/119128691"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="WindischgraetzAlfred" ref="https://d-nb.info/gnd/1019805544"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="WolfKarl" ref="https://d-nb.info/gnd/1013678079"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ZacekJan" ref="https://d-nb.info/gnd/1267714182"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="ZichyAladar" ref="https://d-nb.info/gnd/171366980"&gt;</t>
   </si>
   <si>
     <t>Böhm-Bawerk</t>
@@ -2457,15 +2046,9 @@
     <t>BachAlexander</t>
   </si>
   <si>
-    <t>&lt;persName key="BachAlexander" ref="https://d-nb.info/gnd/118651455"&gt;</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/14386680X</t>
   </si>
   <si>
-    <t>&lt;persName key="BanffyDezso" ref="https://d-nb.info/gnd/14386680X"&gt;</t>
-  </si>
-  <si>
     <t>Ritter</t>
   </si>
   <si>
@@ -2475,12 +2058,6 @@
     <t>BažantJohann</t>
   </si>
   <si>
-    <t>&lt;persName key="BarodetClaudeDesire" ref="https://d-nb.info/gnd/1014051665"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Bezeredy" ref=""&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">1862-1890 Ministerpräsident des Königreichs Preußen, 1871-1890 Reichskanzler des Deutschen Reichs </t>
   </si>
   <si>
@@ -2502,9 +2079,6 @@
     <t>BruckKarlLudwig</t>
   </si>
   <si>
-    <t>&lt;persName key="BruckKarlLudwig" ref="https://d-nb.info/gnd/118857401"&gt;</t>
-  </si>
-  <si>
     <t>Cziráky</t>
   </si>
   <si>
@@ -2517,15 +2091,6 @@
     <t>CzirakyBela</t>
   </si>
   <si>
-    <t>&lt;persName key="CzirakyBela" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="FabriciusViktor" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Georg" ref=""&gt;</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/119035030</t>
   </si>
   <si>
@@ -2541,9 +2106,6 @@
     <t>KaiserFranz</t>
   </si>
   <si>
-    <t>&lt;persName key="KaiserFranz" ref="https://d-nb.info/gnd/118534955"&gt;</t>
-  </si>
-  <si>
     <t>1888-1918 Deutscher Kaiser und König von Preußen</t>
   </si>
   <si>
@@ -2556,30 +2118,9 @@
     <t>Mladota</t>
   </si>
   <si>
-    <t>&lt;persName key="MladotaNepomuk" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Palmer" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Petrzikowsky" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Pohl" ref=""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="HartelWilhelm" ref="https://d-nb.info/gnd/119035030"&gt;</t>
-  </si>
-  <si>
     <t>HartelWilhelm</t>
   </si>
   <si>
-    <t>&lt;persName key="BažantJohann" ref="https://d-nb.info/gnd/1157617565"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;persName key="Boehm-BawerkEugen" ref="https://d-nb.info/gnd/118660691"&gt;</t>
-  </si>
-  <si>
     <t>Boehm-BawerkEugen</t>
   </si>
   <si>
@@ -2589,9 +2130,6 @@
     <t>https://d-nb.info/gnd/120148269</t>
   </si>
   <si>
-    <t>&lt;persName key="Steinwender" ref="https://d-nb.info/gnd/120148269"&gt;</t>
-  </si>
-  <si>
     <t>SteinwenderOtto</t>
   </si>
   <si>
@@ -2665,9 +2203,6 @@
   </si>
   <si>
     <t xml:space="preserve">Max Egon </t>
-  </si>
-  <si>
-    <t>&lt;persName key="FuerstenbergMaxEgon" ref="https://d-nb.info/gnd/116847034"&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">1886-1918 MöHH (Verfassungspartei) u. 1907-1918 Vizepräs. öHH, ab 1897 MpreußHH, 1901-1907 MböhmLt  </t>
@@ -2955,9 +2490,6 @@
     <t>Kaljajew</t>
   </si>
   <si>
-    <t>&lt;persName key="KaljajewIwan" ref="https://d-nb.info/gnd/120011468"&gt;</t>
-  </si>
-  <si>
     <t>Iwan Platonowitsch</t>
   </si>
   <si>
@@ -2973,7 +2505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3276,10 +2808,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -3557,38 +3089,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -3655,10 +3155,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Nachname" dataDxfId="9"/>
-    <tableColumn id="11" name="Spalte1" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:I157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <tableColumns count="9">
+    <tableColumn id="1" name="Nachname" dataDxfId="8"/>
     <tableColumn id="2" name="Namenszusatz" dataDxfId="7"/>
     <tableColumn id="3" name="Vorname" dataDxfId="6"/>
     <tableColumn id="4" name="Geburtsjahr" dataDxfId="5"/>
@@ -3935,59 +3434,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3997,4538 +3492,4072 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="2">
+        <v>1839</v>
+      </c>
       <c r="E3" s="2">
-        <v>1839</v>
-      </c>
-      <c r="F3" s="2">
         <v>1926</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>651</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2">
+        <v>1852</v>
+      </c>
       <c r="E4" s="2">
-        <v>1852</v>
-      </c>
-      <c r="F4" s="2">
         <v>1918</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>652</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2">
+        <v>1848</v>
+      </c>
       <c r="E5" s="2">
-        <v>1848</v>
-      </c>
-      <c r="F5" s="2">
         <v>1919</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>653</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="2">
+        <v>1860</v>
+      </c>
       <c r="E6" s="2">
-        <v>1860</v>
-      </c>
-      <c r="F6" s="2">
         <v>1929</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>595</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>593</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1846</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1933</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1813</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1893</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G8" t="s">
+        <v>652</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1847</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1917</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G9" t="s">
+        <v>605</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1846</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1909</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G10" t="s">
+        <v>614</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1925</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1911</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1846</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1933</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>320</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1813</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1893</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="H8" t="s">
-        <v>789</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B9" t="s">
-        <v>611</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1847</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1917</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="H9" t="s">
-        <v>608</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1846</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1909</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H10" t="s">
-        <v>619</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1845</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1925</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>844</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>793</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1843</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1823</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1906</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1831</v>
+      </c>
+      <c r="E14" s="7">
         <v>1911</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="F14" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1854</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1943</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1823</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1906</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>786</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>830</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1831</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1911</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>843</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1854</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1943</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="H15" t="s">
-        <v>604</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>798</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1815</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1898</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G17" t="s">
         <v>594</v>
       </c>
-      <c r="B17" t="s">
-        <v>655</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1815</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1898</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="H17" t="s">
-        <v>596</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B18" t="s">
-        <v>831</v>
+        <v>644</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="D18" s="2">
+        <v>1851</v>
+      </c>
       <c r="E18" s="2">
-        <v>1851</v>
-      </c>
-      <c r="F18" s="2">
         <v>1914</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F18" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B19" t="s">
-        <v>656</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>625</v>
+        <v>579</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1808</v>
       </c>
       <c r="E19" s="2">
-        <v>1808</v>
-      </c>
-      <c r="F19" s="2">
         <v>1873</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B20" t="s">
-        <v>806</v>
+        <v>647</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>803</v>
+        <v>662</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1798</v>
       </c>
       <c r="E20" s="2">
-        <v>1798</v>
-      </c>
-      <c r="F20" s="2">
         <v>1860</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>657</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D21" s="2">
+        <v>1848</v>
+      </c>
       <c r="E21" s="2">
-        <v>1848</v>
-      </c>
-      <c r="F21" s="2">
         <v>1929</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
-        <v>321</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>658</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D22" s="2">
+        <v>1849</v>
+      </c>
       <c r="E22" s="2">
-        <v>1849</v>
-      </c>
-      <c r="F22" s="2">
         <v>1929</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
-        <v>322</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D23" s="2">
+        <v>1856</v>
+      </c>
       <c r="E23" s="2">
-        <v>1856</v>
-      </c>
-      <c r="F23" s="2">
         <v>1909</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
-        <v>323</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>660</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D24" s="2">
+        <v>1854</v>
+      </c>
       <c r="E24" s="2">
-        <v>1854</v>
-      </c>
-      <c r="F24" s="2">
         <v>1915</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="H24" t="s">
-        <v>324</v>
+      <c r="F24" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G24" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="J24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>661</v>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D25" s="3">
+        <v>1849</v>
+      </c>
       <c r="E25" s="3">
-        <v>1849</v>
-      </c>
-      <c r="F25" s="3">
         <v>1927</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="H25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>662</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D26" s="2">
+        <v>1831</v>
+      </c>
       <c r="E26" s="2">
-        <v>1831</v>
-      </c>
-      <c r="F26" s="2">
         <v>1899</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>663</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D27" s="2">
+        <v>1849</v>
+      </c>
       <c r="E27" s="2">
-        <v>1849</v>
-      </c>
-      <c r="F27" s="2">
         <v>1912</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="H27" t="s">
-        <v>327</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G27" t="s">
+        <v>326</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>664</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D28" s="2">
+        <v>1834</v>
+      </c>
       <c r="E28" s="2">
-        <v>1834</v>
-      </c>
-      <c r="F28" s="2">
         <v>1924</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="H28" t="s">
-        <v>328</v>
+      <c r="F28" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G28" t="s">
+        <v>327</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>665</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="D29" s="2">
+        <v>1863</v>
+      </c>
       <c r="E29" s="2">
-        <v>1863</v>
-      </c>
-      <c r="F29" s="2">
         <v>1932</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="H29" t="s">
-        <v>329</v>
+      <c r="F29" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G29" t="s">
+        <v>328</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>666</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D30" s="2">
+        <v>1855</v>
+      </c>
       <c r="E30" s="2">
-        <v>1855</v>
-      </c>
-      <c r="F30" s="2">
         <v>1913</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="H30" t="s">
-        <v>330</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1872</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1932</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1852</v>
+      </c>
+      <c r="E32" s="35">
+        <v>1911</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1872</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1932</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="H31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>807</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>808</v>
-      </c>
-      <c r="E32" s="35">
-        <v>1852</v>
-      </c>
-      <c r="F32" s="35">
-        <v>1911</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>810</v>
-      </c>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="H32" s="35" t="s">
+        <v>668</v>
+      </c>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>668</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D33" s="2">
+        <v>1860</v>
+      </c>
       <c r="E33" s="2">
-        <v>1860</v>
-      </c>
-      <c r="F33" s="2">
         <v>1917</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="H33" t="s">
-        <v>332</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D34" s="2">
+        <v>1866</v>
+      </c>
       <c r="E34" s="2">
-        <v>1866</v>
-      </c>
-      <c r="F34" s="2">
         <v>1936</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H34" t="s">
-        <v>333</v>
+      <c r="G34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J34" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>670</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D35" s="2">
+        <v>1859</v>
+      </c>
       <c r="E35" s="2">
-        <v>1859</v>
-      </c>
-      <c r="F35" s="2">
         <v>1904</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H35" t="s">
-        <v>334</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G35" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>671</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D36" s="2">
+        <v>1852</v>
+      </c>
       <c r="E36" s="2">
-        <v>1852</v>
-      </c>
-      <c r="F36" s="2">
         <v>1924</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="H36" t="s">
-        <v>335</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F36" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>672</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="D37" s="2">
+        <v>1866</v>
+      </c>
       <c r="E37" s="2">
-        <v>1866</v>
-      </c>
-      <c r="F37" s="2">
         <v>1929</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H37" t="s">
-        <v>336</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>335</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>673</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
+        <v>632</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
         <v>1907</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F38" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>674</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="D39" s="2">
+        <v>1848</v>
+      </c>
       <c r="E39" s="2">
-        <v>1848</v>
-      </c>
-      <c r="F39" s="2">
         <v>1909</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="H39" t="s">
-        <v>337</v>
+      <c r="F39" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G39" t="s">
+        <v>336</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>675</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D40" s="2">
+        <v>1864</v>
+      </c>
       <c r="E40" s="2">
-        <v>1864</v>
-      </c>
-      <c r="F40" s="2">
         <v>1940</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="H40" t="s">
-        <v>338</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>676</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D41" s="2">
+        <v>1861</v>
+      </c>
       <c r="E41" s="2">
-        <v>1861</v>
-      </c>
-      <c r="F41" s="2">
         <v>1949</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="H41" t="s">
-        <v>339</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G41" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
-        <v>623</v>
-      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>677</v>
+      <c r="B43" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="D43" s="13">
+        <v>1829</v>
+      </c>
       <c r="E43" s="13">
-        <v>1829</v>
-      </c>
-      <c r="F43" s="13">
         <v>1899</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="H43" t="s">
-        <v>340</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F43" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="G43" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>678</v>
+      <c r="B44" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="D44" s="13">
+        <v>1833</v>
+      </c>
       <c r="E44" s="13">
-        <v>1833</v>
-      </c>
-      <c r="F44" s="13">
         <v>1914</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H44" t="s">
-        <v>341</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>340</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>679</v>
+      <c r="B45" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="D45" s="13">
+        <v>1852</v>
+      </c>
       <c r="E45" s="13">
-        <v>1852</v>
-      </c>
-      <c r="F45" s="13">
         <v>1921</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="J45" s="11" t="s">
+      <c r="G45" t="s">
+        <v>341</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>861</v>
+      <c r="B46" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>860</v>
+        <v>706</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1863</v>
       </c>
       <c r="E46" s="15">
-        <v>1863</v>
-      </c>
-      <c r="F46" s="15">
         <v>1941</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="H46" t="s">
-        <v>344</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="F46" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G46" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>680</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="D47" s="2">
+        <v>1851</v>
+      </c>
       <c r="E47" s="2">
-        <v>1851</v>
-      </c>
-      <c r="F47" s="2">
         <v>1918</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="H47" t="s">
-        <v>345</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G47" t="s">
+        <v>344</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>681</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H49" t="s">
-        <v>346</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>682</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D50" s="2">
+        <v>1852</v>
+      </c>
       <c r="E50" s="2">
-        <v>1852</v>
-      </c>
-      <c r="F50" s="2">
         <v>1920</v>
       </c>
-      <c r="G50" s="44" t="s">
-        <v>864</v>
-      </c>
-      <c r="H50" t="s">
-        <v>629</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F50" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="G50" t="s">
+        <v>623</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>683</v>
+        <v>172</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="D51" s="2">
+        <v>1849</v>
+      </c>
       <c r="E51" s="2">
-        <v>1849</v>
-      </c>
-      <c r="F51" s="2">
         <v>1921</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="H51" t="s">
-        <v>347</v>
+      <c r="F51" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G51" t="s">
+        <v>346</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J51" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D52" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D52" s="2">
+        <v>1848</v>
+      </c>
       <c r="E52" s="2">
-        <v>1848</v>
-      </c>
-      <c r="F52" s="2">
         <v>1923</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="H52" t="s">
-        <v>348</v>
+      <c r="F52" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G52" t="s">
+        <v>347</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J52" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>685</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D53" s="2">
+        <v>1856</v>
+      </c>
       <c r="E53" s="2">
-        <v>1856</v>
-      </c>
-      <c r="F53" s="2">
         <v>1935</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="H53" t="s">
-        <v>349</v>
+      <c r="F53" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G53" t="s">
+        <v>348</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J53" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>686</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1848</v>
       </c>
       <c r="E54" s="2">
-        <v>1848</v>
-      </c>
-      <c r="F54" s="2">
         <v>1927</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+      <c r="H54" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>815</v>
+        <v>513</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1768</v>
       </c>
       <c r="E55" s="2">
-        <v>1768</v>
-      </c>
-      <c r="F55" s="2">
         <v>1835</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>817</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F55" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1930</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1916</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E56" s="2">
-        <v>1930</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1916</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>517</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>782</v>
+        <v>645</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>828</v>
+        <v>715</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D57" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="D57" s="2">
+        <v>1839</v>
+      </c>
       <c r="E57" s="2">
-        <v>1839</v>
-      </c>
-      <c r="F57" s="2">
         <v>1907</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F57" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>688</v>
+        <v>628</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1864</v>
       </c>
       <c r="E58" s="2">
-        <v>1864</v>
-      </c>
-      <c r="F58" s="2">
         <v>1944</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="H58" t="s">
-        <v>635</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F58" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G58" t="s">
+        <v>629</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>689</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D59" s="2">
+        <v>1850</v>
+      </c>
       <c r="E59" s="2">
-        <v>1850</v>
-      </c>
-      <c r="F59" s="2">
         <v>1908</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="H59" t="s">
-        <v>351</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F59" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="G59" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>690</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D60" s="2">
+        <v>1845</v>
+      </c>
       <c r="E60" s="2">
-        <v>1845</v>
-      </c>
-      <c r="F60" s="2">
         <v>1924</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H60" t="s">
-        <v>352</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>691</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1836</v>
       </c>
       <c r="E61" s="2">
-        <v>1836</v>
-      </c>
-      <c r="F61" s="2">
         <v>1911</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H61" t="s">
-        <v>353</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="D62" s="2">
+        <v>1849</v>
+      </c>
       <c r="E62" s="2">
-        <v>1849</v>
-      </c>
-      <c r="F62" s="2">
         <v>1907</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="H62" t="s">
-        <v>355</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G62" t="s">
+        <v>354</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1824</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1899</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G63" t="s">
         <v>589</v>
       </c>
-      <c r="B63" t="s">
-        <v>593</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1824</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1899</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1941</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G64" t="s">
         <v>598</v>
       </c>
-      <c r="B64" t="s">
-        <v>693</v>
-      </c>
-      <c r="C64" s="38" t="s">
+      <c r="H64" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1859</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1941</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="H64" t="s">
-        <v>600</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>694</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="D65" s="2">
+        <v>1863</v>
+      </c>
       <c r="E65" s="2">
-        <v>1863</v>
-      </c>
-      <c r="F65" s="2">
         <v>1918</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="H65" t="s">
-        <v>356</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F65" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G65" t="s">
+        <v>355</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1918</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" t="s">
         <v>357</v>
       </c>
-      <c r="E66" s="2">
-        <v>1859</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1918</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" t="s">
-        <v>358</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="H66" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>696</v>
+      <c r="B67" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="13" t="s">
         <v>122</v>
       </c>
+      <c r="D67" s="13">
+        <v>1801</v>
+      </c>
       <c r="E67" s="13">
-        <v>1801</v>
-      </c>
-      <c r="F67" s="13">
         <v>1859</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="H67" t="s">
-        <v>359</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="J67" s="18" t="s">
+      <c r="F67" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="G67" t="s">
+        <v>358</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="I67" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13" t="s">
         <v>115</v>
       </c>
+      <c r="D68" s="13">
+        <v>1869</v>
+      </c>
       <c r="E68" s="13">
-        <v>1869</v>
-      </c>
-      <c r="F68" s="13">
         <v>1954</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="H68" t="s">
-        <v>360</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F68" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="G68" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="D69" s="15">
+        <v>1850</v>
+      </c>
       <c r="E69" s="15">
+        <v>1917</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="D70" s="46">
+        <v>1877</v>
+      </c>
+      <c r="E70" s="46">
+        <v>1905</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>782</v>
+      </c>
+      <c r="G70" t="s">
+        <v>783</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>784</v>
+      </c>
+      <c r="I70" s="46"/>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1842</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1916</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G71" t="s">
+        <v>573</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1856</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1945</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1852</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1911</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1847</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1923</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G74" t="s">
+        <v>575</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1854</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1912</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G75" t="s">
+        <v>576</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D76" s="2">
         <v>1850</v>
       </c>
-      <c r="F69" s="15">
-        <v>1917</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H69" t="s">
-        <v>361</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="J69" s="16"/>
-    </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A70" s="46" t="s">
-        <v>935</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46" t="s">
-        <v>937</v>
-      </c>
-      <c r="E70" s="46">
-        <v>1877</v>
-      </c>
-      <c r="F70" s="46">
-        <v>1905</v>
-      </c>
-      <c r="G70" s="46" t="s">
-        <v>938</v>
-      </c>
-      <c r="H70" t="s">
-        <v>939</v>
-      </c>
-      <c r="I70" s="46" t="s">
-        <v>940</v>
-      </c>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1842</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1916</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="H71" t="s">
-        <v>574</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1856</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1945</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H72" t="s">
-        <v>575</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="E76" s="2">
+        <v>1919</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="C77" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D77" s="2">
         <v>1852</v>
       </c>
-      <c r="F73" s="2">
-        <v>1911</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1847</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1923</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="H74" t="s">
-        <v>576</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1854</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1912</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="E77" s="2">
+        <v>1910</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G77" t="s">
         <v>577</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1850</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1919</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E77" s="2">
-        <v>1852</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1910</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="B78" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1837</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1914</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G78" t="s">
         <v>578</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1837</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1914</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="H78" t="s">
-        <v>579</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>707</v>
+      <c r="B79" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="13" t="s">
         <v>130</v>
       </c>
+      <c r="D79" s="13">
+        <v>1852</v>
+      </c>
       <c r="E79" s="13">
-        <v>1852</v>
-      </c>
-      <c r="F79" s="13">
         <v>1909</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H79" t="s">
-        <v>362</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>708</v>
+      <c r="B80" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="D80" s="13">
+        <v>1856</v>
+      </c>
       <c r="E80" s="13">
-        <v>1856</v>
-      </c>
-      <c r="F80" s="13">
         <v>1919</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="F80" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H80" t="s">
-        <v>363</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="D81" s="13">
+        <v>1841</v>
+      </c>
       <c r="E81" s="13">
-        <v>1841</v>
-      </c>
-      <c r="F81" s="13">
         <v>1914</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="F81" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H81" t="s">
-        <v>364</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>363</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
         <v>138</v>
       </c>
+      <c r="D82" s="13">
+        <v>1802</v>
+      </c>
       <c r="E82" s="13">
-        <v>1802</v>
-      </c>
-      <c r="F82" s="13">
         <v>1894</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="F82" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>364</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>711</v>
+      <c r="B83" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="D83" s="13">
+        <v>1860</v>
+      </c>
       <c r="E83" s="13">
-        <v>1860</v>
-      </c>
-      <c r="F83" s="13">
         <v>1937</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="H83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F83" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="G83" t="s">
+        <v>365</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>712</v>
+      <c r="B84" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="13" t="s">
         <v>286</v>
       </c>
+      <c r="D84" s="13">
+        <v>1857</v>
+      </c>
       <c r="E84" s="13">
-        <v>1857</v>
-      </c>
-      <c r="F84" s="13">
         <v>1928</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="F84" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H84" t="s">
-        <v>368</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>367</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>713</v>
+      <c r="B85" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="13" t="s">
         <v>147</v>
       </c>
+      <c r="D85" s="13">
+        <v>1841</v>
+      </c>
       <c r="E85" s="13">
-        <v>1841</v>
-      </c>
-      <c r="F85" s="13">
         <v>1921</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="H85" t="s">
-        <v>367</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F85" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="G85" t="s">
+        <v>366</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15" t="s">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="D86" s="15">
+        <v>1821</v>
+      </c>
       <c r="E86" s="15">
-        <v>1821</v>
-      </c>
-      <c r="F86" s="15">
         <v>1879</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="F86" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H86" t="s">
-        <v>369</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="J86" s="16"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>715</v>
+      <c r="B87" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1851</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1921</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G87" t="s">
         <v>370</v>
       </c>
-      <c r="E87" s="10">
-        <v>1851</v>
-      </c>
-      <c r="F87" s="10">
-        <v>1921</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" t="s">
-        <v>371</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="J87" s="18" t="s">
+      <c r="H87" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="I87" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>716</v>
+      <c r="B88" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="D88" s="13">
+        <v>1850</v>
+      </c>
       <c r="E88" s="13">
-        <v>1850</v>
-      </c>
-      <c r="F88" s="13">
         <v>1918</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="H88" t="s">
-        <v>372</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F88" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="G88" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>717</v>
+      <c r="B89" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="13" t="s">
         <v>156</v>
       </c>
+      <c r="D89" s="13">
+        <v>1872</v>
+      </c>
       <c r="E89" s="13">
-        <v>1872</v>
-      </c>
-      <c r="F89" s="13">
         <v>1962</v>
       </c>
-      <c r="G89" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="H89" t="s">
-        <v>373</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F89" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="G89" t="s">
+        <v>372</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>718</v>
+      <c r="B90" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="D90" s="13">
+        <v>1861</v>
+      </c>
       <c r="E90" s="13">
-        <v>1861</v>
-      </c>
-      <c r="F90" s="13">
         <v>1939</v>
       </c>
-      <c r="G90" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="H90" t="s">
-        <v>374</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F90" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G90" t="s">
+        <v>373</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>719</v>
+      <c r="B91" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D91" s="13" t="s">
         <v>161</v>
       </c>
+      <c r="D91" s="13">
+        <v>1846</v>
+      </c>
       <c r="E91" s="13">
-        <v>1846</v>
-      </c>
-      <c r="F91" s="13">
         <v>1920</v>
       </c>
-      <c r="G91" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="H91" t="s">
-        <v>375</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F91" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G91" t="s">
+        <v>374</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>720</v>
+      <c r="B92" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="D92" s="13">
+        <v>1872</v>
+      </c>
       <c r="E92" s="13">
-        <v>1872</v>
-      </c>
-      <c r="F92" s="13">
         <v>1951</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="F92" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H92" t="s">
-        <v>376</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>375</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>721</v>
+      <c r="B93" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="13" t="s">
         <v>164</v>
       </c>
+      <c r="D93" s="13">
+        <v>1829</v>
+      </c>
       <c r="E93" s="13">
-        <v>1829</v>
-      </c>
-      <c r="F93" s="13">
         <v>1910</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H93" t="s">
-        <v>377</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="J93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>376</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>722</v>
+      <c r="B94" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="13" t="s">
         <v>168</v>
       </c>
+      <c r="D94" s="13">
+        <v>1835</v>
+      </c>
       <c r="E94" s="13">
-        <v>1835</v>
-      </c>
-      <c r="F94" s="13">
         <v>1908</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="H94" t="s">
-        <v>378</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="J94" s="11" t="s">
+      <c r="F94" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G94" t="s">
+        <v>377</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>723</v>
+      <c r="B95" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D95" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="D95" s="13">
+        <v>1850</v>
+      </c>
       <c r="E95" s="13">
-        <v>1850</v>
-      </c>
-      <c r="F95" s="13">
         <v>1926</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="H95" t="s">
-        <v>379</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="J95" s="11"/>
-    </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F95" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="G95" t="s">
+        <v>378</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>724</v>
+      <c r="B96" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="D96" s="13">
+        <v>1860</v>
+      </c>
       <c r="E96" s="13">
-        <v>1860</v>
-      </c>
-      <c r="F96" s="13">
         <v>1945</v>
       </c>
-      <c r="G96" s="13" t="s">
-        <v>892</v>
-      </c>
-      <c r="H96" t="s">
-        <v>380</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="J96" s="11"/>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F96" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="G96" t="s">
+        <v>379</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>725</v>
+      <c r="B97" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D97" s="13" t="s">
         <v>173</v>
       </c>
+      <c r="D97" s="13">
+        <v>1845</v>
+      </c>
       <c r="E97" s="13">
-        <v>1845</v>
-      </c>
-      <c r="F97" s="13">
         <v>1929</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="H97" t="s">
-        <v>381</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="J97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F97" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="G97" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>726</v>
+      <c r="B98" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="D98" s="15">
+        <v>1844</v>
+      </c>
       <c r="E98" s="15">
-        <v>1844</v>
-      </c>
-      <c r="F98" s="15">
         <v>1910</v>
       </c>
-      <c r="G98" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="H98" t="s">
-        <v>382</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="J98" s="16"/>
-    </row>
-    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="F98" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="G98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>727</v>
+      <c r="B99" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
+      <c r="D99" s="13">
+        <v>1846</v>
+      </c>
       <c r="E99" s="13">
-        <v>1846</v>
-      </c>
-      <c r="F99" s="13">
         <v>1916</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="H99" t="s">
-        <v>383</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F99" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G99" t="s">
+        <v>382</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13" t="s">
         <v>177</v>
       </c>
+      <c r="D100" s="13">
+        <v>1838</v>
+      </c>
       <c r="E100" s="13">
-        <v>1838</v>
-      </c>
-      <c r="F100" s="13">
         <v>1925</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="F100" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H100" t="s">
-        <v>384</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>383</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>824</v>
+        <v>677</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15">
         <v>1916</v>
       </c>
+      <c r="F101" s="15"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="J101" s="16"/>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="H101" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>729</v>
+      <c r="B102" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="15" t="s">
         <v>181</v>
       </c>
+      <c r="D102" s="15">
+        <v>1863</v>
+      </c>
       <c r="E102" s="15">
-        <v>1863</v>
-      </c>
-      <c r="F102" s="15">
         <v>1931</v>
       </c>
-      <c r="G102" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="H102" t="s">
-        <v>385</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="J102" s="16"/>
-    </row>
-    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F102" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="G102" t="s">
+        <v>384</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>730</v>
+      <c r="B103" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="13" t="s">
         <v>183</v>
       </c>
+      <c r="D103" s="13">
+        <v>1846</v>
+      </c>
       <c r="E103" s="13">
-        <v>1846</v>
-      </c>
-      <c r="F103" s="13">
         <v>1914</v>
       </c>
-      <c r="G103" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="H103" t="s">
-        <v>386</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F103" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" t="s">
+        <v>385</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>825</v>
-      </c>
+      <c r="B104" s="39"/>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="20" t="s">
+      <c r="H104" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="J104" s="40"/>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="I104" s="40"/>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>731</v>
+      <c r="B105" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D105" s="20" t="s">
         <v>187</v>
       </c>
+      <c r="D105" s="20">
+        <v>1855</v>
+      </c>
       <c r="E105" s="20">
-        <v>1855</v>
-      </c>
-      <c r="F105" s="20">
         <v>1928</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="F105" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s">
+        <v>386</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="I105" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="I105" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="J105" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>732</v>
+      <c r="B106" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="13" t="s">
         <v>173</v>
       </c>
+      <c r="D106" s="13">
+        <v>1853</v>
+      </c>
       <c r="E106" s="13">
-        <v>1853</v>
-      </c>
-      <c r="F106" s="13">
         <v>1910</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="H106" t="s">
-        <v>389</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="J106" s="11"/>
-    </row>
-    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F106" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="G106" t="s">
+        <v>388</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13" t="s">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13" t="s">
         <v>191</v>
       </c>
+      <c r="D107" s="13">
+        <v>1850</v>
+      </c>
       <c r="E107" s="13">
-        <v>1850</v>
-      </c>
-      <c r="F107" s="13">
         <v>1918</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="H107" t="s">
-        <v>390</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="J107" s="11"/>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F107" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="G107" t="s">
+        <v>389</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13" t="s">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13" t="s">
         <v>115</v>
       </c>
+      <c r="D108" s="13">
+        <v>1856</v>
+      </c>
       <c r="E108" s="13">
-        <v>1856</v>
-      </c>
-      <c r="F108" s="13">
         <v>1908</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="H108" t="s">
-        <v>391</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="J108" s="11"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F108" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G108" t="s">
+        <v>390</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>735</v>
+      <c r="B109" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D109" s="13" t="s">
         <v>195</v>
       </c>
+      <c r="D109" s="13">
+        <v>1847</v>
+      </c>
       <c r="E109" s="13">
-        <v>1847</v>
-      </c>
-      <c r="F109" s="13">
         <v>1907</v>
       </c>
+      <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="J109" s="11"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H109" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C110" s="13" t="s">
+      <c r="B110" s="13" t="s">
         <v>197</v>
       </c>
+      <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13" t="s">
+      <c r="H110" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J110" s="11"/>
-    </row>
-    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>736</v>
+      <c r="B111" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="13" t="s">
         <v>200</v>
       </c>
+      <c r="D111" s="13">
+        <v>1858</v>
+      </c>
       <c r="E111" s="13">
-        <v>1858</v>
-      </c>
-      <c r="F111" s="13">
         <v>1917</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="H111" t="s">
-        <v>392</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J111" s="11" t="s">
+      <c r="F111" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="G111" t="s">
+        <v>391</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C112" s="13" t="s">
+      <c r="B112" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13" t="s">
+      <c r="H112" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="J112" s="11"/>
-    </row>
-    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13" t="s">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="D113" s="13">
+        <v>1853</v>
+      </c>
       <c r="E113" s="13">
-        <v>1853</v>
-      </c>
-      <c r="F113" s="13">
         <v>1927</v>
       </c>
-      <c r="G113" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="H113" t="s">
-        <v>393</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="J113" s="11"/>
-    </row>
-    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F113" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="G113" t="s">
+        <v>392</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15" t="s">
+      <c r="B114" s="15"/>
+      <c r="C114" s="15" t="s">
         <v>205</v>
       </c>
+      <c r="D114" s="15">
+        <v>1868</v>
+      </c>
       <c r="E114" s="15">
-        <v>1868</v>
-      </c>
-      <c r="F114" s="15">
         <v>1932</v>
       </c>
-      <c r="G114" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="H114" t="s">
-        <v>394</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="J114" s="16"/>
-    </row>
-    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F114" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="G114" t="s">
+        <v>393</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>739</v>
+      <c r="B115" s="13" t="s">
+        <v>749</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="D115" s="13" t="s">
         <v>207</v>
       </c>
+      <c r="D115" s="13">
+        <v>1834</v>
+      </c>
       <c r="E115" s="13">
-        <v>1834</v>
-      </c>
-      <c r="F115" s="13">
         <v>1914</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="H115" t="s">
-        <v>395</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="J115" s="18"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F115" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="G115" t="s">
+        <v>394</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>740</v>
+      <c r="B116" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="13" t="s">
         <v>210</v>
       </c>
+      <c r="D116" s="13">
+        <v>1797</v>
+      </c>
       <c r="E116" s="13">
-        <v>1797</v>
-      </c>
-      <c r="F116" s="13">
         <v>1875</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H116" t="s">
-        <v>396</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="J116" s="18"/>
-    </row>
-    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>395</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>741</v>
+      <c r="B117" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D117" s="13" t="s">
         <v>214</v>
       </c>
+      <c r="D117" s="13">
+        <v>1857</v>
+      </c>
       <c r="E117" s="13">
-        <v>1857</v>
-      </c>
-      <c r="F117" s="13">
         <v>1912</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H117" t="s">
-        <v>397</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J117" s="11" t="s">
+      <c r="G117" t="s">
+        <v>396</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="I117" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>742</v>
+      <c r="B118" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D118" s="13" t="s">
         <v>219</v>
       </c>
+      <c r="D118" s="13">
+        <v>1853</v>
+      </c>
       <c r="E118" s="13">
-        <v>1853</v>
-      </c>
-      <c r="F118" s="13">
         <v>1914</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="H118" t="s">
-        <v>398</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F118" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="G118" t="s">
+        <v>397</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C119" s="15" t="s">
+      <c r="B119" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="C119" s="23" t="s">
         <v>222</v>
       </c>
+      <c r="D119" s="23">
+        <v>1845</v>
+      </c>
       <c r="E119" s="23">
-        <v>1845</v>
-      </c>
-      <c r="F119" s="23">
         <v>1933</v>
       </c>
-      <c r="G119" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="H119" t="s">
-        <v>399</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="J119" s="24"/>
-    </row>
-    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F119" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="G119" t="s">
+        <v>398</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="I119" s="24"/>
+    </row>
+    <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>744</v>
+      <c r="B120" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="D120" s="13">
+        <v>1831</v>
+      </c>
       <c r="E120" s="13">
-        <v>1831</v>
-      </c>
-      <c r="F120" s="13">
         <v>1903</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="F120" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H120" t="s">
-        <v>400</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="J120" s="11"/>
-    </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>399</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="I120" s="11"/>
+    </row>
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>745</v>
+      <c r="B121" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D121" s="13" t="s">
         <v>226</v>
       </c>
+      <c r="D121" s="13">
+        <v>1869</v>
+      </c>
       <c r="E121" s="13">
-        <v>1869</v>
-      </c>
-      <c r="F121" s="13">
         <v>1951</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="J121" s="11"/>
-    </row>
-    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F121" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>746</v>
+      <c r="B122" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D122" s="13" t="s">
         <v>100</v>
       </c>
+      <c r="D122" s="13">
+        <v>1838</v>
+      </c>
       <c r="E122" s="13">
-        <v>1838</v>
-      </c>
-      <c r="F122" s="13">
         <v>1917</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="F122" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="H122" t="s">
-        <v>401</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="J122" s="11"/>
-    </row>
-    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>400</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="I122" s="11"/>
+    </row>
+    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>747</v>
+      <c r="B123" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" s="13" t="s">
         <v>231</v>
       </c>
+      <c r="D123" s="13">
+        <v>1841</v>
+      </c>
       <c r="E123" s="13">
-        <v>1841</v>
-      </c>
-      <c r="F123" s="13">
         <v>1907</v>
       </c>
-      <c r="G123" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="H123" t="s">
-        <v>402</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="J123" s="11"/>
-    </row>
-    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F123" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="G123" t="s">
+        <v>401</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="I123" s="11"/>
+    </row>
+    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>748</v>
+      <c r="B124" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="13" t="s">
         <v>168</v>
       </c>
+      <c r="D124" s="13">
+        <v>1842</v>
+      </c>
       <c r="E124" s="13">
-        <v>1842</v>
-      </c>
-      <c r="F124" s="13">
         <v>1921</v>
       </c>
-      <c r="G124" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="H124" t="s">
-        <v>403</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="J124" s="11"/>
-    </row>
-    <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F124" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="G124" t="s">
+        <v>402</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I124" s="11"/>
+    </row>
+    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>749</v>
+      <c r="B125" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D125" s="13" t="s">
         <v>235</v>
       </c>
+      <c r="D125" s="13">
+        <v>1858</v>
+      </c>
       <c r="E125" s="13">
-        <v>1858</v>
-      </c>
-      <c r="F125" s="13">
         <v>1926</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="H125" t="s">
-        <v>404</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F125" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="G125" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>750</v>
+      <c r="B126" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D126" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="D126" s="13">
+        <v>1859</v>
+      </c>
       <c r="E126" s="13">
-        <v>1859</v>
-      </c>
-      <c r="F126" s="13">
         <v>1913</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="H126" t="s">
-        <v>405</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="J126" s="11"/>
-    </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F126" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G126" t="s">
+        <v>404</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="I126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>751</v>
+      <c r="B127" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D127" s="13" t="s">
         <v>238</v>
       </c>
+      <c r="D127" s="13">
+        <v>1836</v>
+      </c>
       <c r="E127" s="13">
-        <v>1836</v>
-      </c>
-      <c r="F127" s="13">
         <v>1914</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="H127" t="s">
-        <v>406</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F127" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="G127" t="s">
+        <v>405</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I127" s="11"/>
+    </row>
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>752</v>
+      <c r="B128" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="13" t="s">
         <v>164</v>
       </c>
+      <c r="D128" s="13">
+        <v>1866</v>
+      </c>
       <c r="E128" s="13">
-        <v>1866</v>
-      </c>
-      <c r="F128" s="13">
         <v>1934</v>
       </c>
-      <c r="G128" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="H128" t="s">
-        <v>407</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="J128" s="11"/>
-    </row>
-    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F128" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G128" t="s">
+        <v>406</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="I128" s="11"/>
+    </row>
+    <row r="129" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>753</v>
+      <c r="B129" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="D129" s="13">
+        <v>1860</v>
+      </c>
       <c r="E129" s="13">
-        <v>1860</v>
-      </c>
-      <c r="F129" s="13">
         <v>1936</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="H129" t="s">
-        <v>408</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="J129" s="11" t="s">
+      <c r="F129" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="G129" t="s">
+        <v>407</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I129" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13" t="s">
+      <c r="B130" s="13"/>
+      <c r="C130" s="13" t="s">
         <v>243</v>
       </c>
+      <c r="D130" s="13">
+        <v>1847</v>
+      </c>
       <c r="E130" s="13">
-        <v>1847</v>
-      </c>
-      <c r="F130" s="13">
         <v>1917</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="F130" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H130" t="s">
-        <v>409</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>408</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>755</v>
+      <c r="B131" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D131" s="13" t="s">
         <v>246</v>
       </c>
+      <c r="D131" s="13">
+        <v>1849</v>
+      </c>
       <c r="E131" s="13">
-        <v>1849</v>
-      </c>
-      <c r="F131" s="13">
         <v>1917</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="F131" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="G131" t="s">
+        <v>409</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1823</v>
+      </c>
+      <c r="E132" s="13">
+        <v>1896</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G132" t="s">
         <v>410</v>
       </c>
-      <c r="I131" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
+      <c r="H132" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="I132" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E132" s="13">
-        <v>1823</v>
-      </c>
-      <c r="F132" s="13">
-        <v>1896</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H132" t="s">
-        <v>411</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10" t="s">
-        <v>415</v>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D133" s="10">
+        <v>1869</v>
       </c>
       <c r="E133" s="10">
-        <v>1869</v>
-      </c>
-      <c r="F133" s="10">
         <v>1943</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="H133" t="s">
-        <v>414</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="J133" s="18" t="s">
+      <c r="F133" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="G133" t="s">
+        <v>413</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I133" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>758</v>
+      <c r="B134" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" s="13" t="s">
         <v>252</v>
       </c>
+      <c r="D134" s="13">
+        <v>1846</v>
+      </c>
       <c r="E134" s="13">
-        <v>1846</v>
-      </c>
-      <c r="F134" s="13">
         <v>1907</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="H134" t="s">
-        <v>416</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F134" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="G134" t="s">
+        <v>415</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="I134" s="11"/>
+    </row>
+    <row r="135" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>835</v>
+        <v>680</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D135" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="D135" s="13">
+        <v>1847</v>
+      </c>
       <c r="E135" s="13">
-        <v>1847</v>
-      </c>
-      <c r="F135" s="13">
         <v>1921</v>
       </c>
-      <c r="G135" s="42" t="s">
-        <v>919</v>
-      </c>
-      <c r="H135" s="41" t="s">
-        <v>834</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F135" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="G135" s="41" t="s">
+        <v>681</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="I135" s="11"/>
+    </row>
+    <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13" t="s">
+      <c r="B136" s="13"/>
+      <c r="C136" s="13" t="s">
         <v>254</v>
       </c>
+      <c r="D136" s="13">
+        <v>1815</v>
+      </c>
       <c r="E136" s="13">
-        <v>1815</v>
-      </c>
-      <c r="F136" s="13">
         <v>1905</v>
       </c>
-      <c r="G136" s="13" t="s">
+      <c r="F136" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H136" t="s">
-        <v>417</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="J136" s="11" t="s">
+      <c r="G136" t="s">
+        <v>416</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="I136" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>760</v>
+      <c r="B137" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D137" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E137" s="13">
+      <c r="D137" s="13">
         <v>1859</v>
       </c>
+      <c r="E137" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="F137" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="H137" t="s">
-        <v>418</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="J137" s="11"/>
-    </row>
-    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+      <c r="G137" t="s">
+        <v>417</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13" t="s">
+      <c r="B138" s="13"/>
+      <c r="C138" s="13" t="s">
         <v>260</v>
       </c>
+      <c r="D138" s="13">
+        <v>1843</v>
+      </c>
       <c r="E138" s="13">
-        <v>1843</v>
-      </c>
-      <c r="F138" s="13">
         <v>1915</v>
       </c>
-      <c r="G138" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="H138" t="s">
-        <v>419</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="J138" s="11"/>
-    </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F138" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="G138" t="s">
+        <v>418</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="I138" s="11"/>
+    </row>
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>762</v>
+      <c r="B139" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="13" t="s">
         <v>262</v>
       </c>
+      <c r="D139" s="13"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="J139" s="11"/>
-    </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G139" s="13"/>
+      <c r="H139" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>763</v>
+      <c r="B140" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="D140" s="13">
+        <v>1861</v>
       </c>
       <c r="E140" s="13">
-        <v>1861</v>
-      </c>
-      <c r="F140" s="13">
         <v>1941</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="H140" t="s">
-        <v>420</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>419</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>764</v>
+      <c r="B141" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="D141" s="13">
+        <v>1833</v>
+      </c>
       <c r="E141" s="13">
-        <v>1833</v>
-      </c>
-      <c r="F141" s="13">
         <v>1895</v>
       </c>
-      <c r="G141" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="H141" t="s">
-        <v>422</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F141" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="G141" t="s">
+        <v>421</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="I141" s="11"/>
+    </row>
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>765</v>
+      <c r="B142" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="13" t="s">
         <v>269</v>
       </c>
+      <c r="D142" s="13">
+        <v>1842</v>
+      </c>
       <c r="E142" s="13">
-        <v>1842</v>
-      </c>
-      <c r="F142" s="13">
         <v>1927</v>
       </c>
-      <c r="G142" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="H142" t="s">
-        <v>423</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="J142" s="11"/>
-    </row>
-    <row r="143" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="F142" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="G142" t="s">
+        <v>422</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="I142" s="11"/>
+    </row>
+    <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>766</v>
+      <c r="B143" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D143" s="13" t="s">
         <v>115</v>
       </c>
+      <c r="D143" s="13">
+        <v>1847</v>
+      </c>
       <c r="E143" s="13">
-        <v>1847</v>
-      </c>
-      <c r="F143" s="13">
         <v>1916</v>
       </c>
-      <c r="G143" s="45" t="s">
-        <v>924</v>
-      </c>
-      <c r="H143" t="s">
-        <v>424</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F143" s="45" t="s">
+        <v>769</v>
+      </c>
+      <c r="G143" t="s">
+        <v>423</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="I143" s="11"/>
+    </row>
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>767</v>
+      <c r="B144" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="13" t="s">
         <v>273</v>
       </c>
+      <c r="D144" s="13">
+        <v>1849</v>
+      </c>
       <c r="E144" s="13">
-        <v>1849</v>
-      </c>
-      <c r="F144" s="13">
         <v>1913</v>
       </c>
-      <c r="G144" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="H144" t="s">
-        <v>425</v>
-      </c>
-      <c r="I144" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="F144" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="G144" t="s">
+        <v>424</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="I144" s="11"/>
+    </row>
+    <row r="145" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>768</v>
+      <c r="B145" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E145" s="13">
+      <c r="D145" s="13">
         <v>1861</v>
       </c>
+      <c r="E145" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="F145" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G145" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H145" t="s">
-        <v>426</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="I145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>769</v>
+      <c r="B146" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D146" s="13" t="s">
         <v>156</v>
       </c>
+      <c r="D146" s="13">
+        <v>1847</v>
+      </c>
       <c r="E146" s="13">
-        <v>1847</v>
-      </c>
-      <c r="F146" s="13">
         <v>1926</v>
       </c>
-      <c r="G146" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="H146" t="s">
-        <v>427</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="J146" s="11"/>
-    </row>
-    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F146" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="G146" t="s">
+        <v>426</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>770</v>
+      <c r="B147" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D147" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="D147" s="15">
+        <v>1845</v>
+      </c>
       <c r="E147" s="15">
-        <v>1845</v>
-      </c>
-      <c r="F147" s="15">
         <v>1921</v>
       </c>
-      <c r="G147" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="J147" s="16"/>
-    </row>
-    <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F147" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>771</v>
+      <c r="B148" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="26" t="s">
         <v>41</v>
       </c>
+      <c r="D148" s="26">
+        <v>1855</v>
+      </c>
       <c r="E148" s="26">
-        <v>1855</v>
-      </c>
-      <c r="F148" s="26">
         <v>1940</v>
       </c>
-      <c r="G148" s="26" t="s">
-        <v>928</v>
-      </c>
-      <c r="H148" t="s">
-        <v>428</v>
-      </c>
-      <c r="I148" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="J148" s="28"/>
-    </row>
-    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="F148" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G148" t="s">
+        <v>427</v>
+      </c>
+      <c r="H148" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="I148" s="28"/>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30" t="s">
+      <c r="B149" s="30"/>
+      <c r="C149" s="30" t="s">
         <v>37</v>
       </c>
+      <c r="D149" s="30">
+        <v>1846</v>
+      </c>
       <c r="E149" s="30">
-        <v>1846</v>
-      </c>
-      <c r="F149" s="30">
         <v>1907</v>
       </c>
-      <c r="G149" s="30" t="s">
+      <c r="F149" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="H149" t="s">
-        <v>429</v>
-      </c>
-      <c r="I149" s="31" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>428</v>
+      </c>
+      <c r="H149" s="31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30" t="s">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30" t="s">
         <v>286</v>
       </c>
+      <c r="D150" s="30">
+        <v>1858</v>
+      </c>
       <c r="E150" s="30">
-        <v>1858</v>
-      </c>
-      <c r="F150" s="30">
         <v>1940</v>
       </c>
-      <c r="G150" s="30" t="s">
+      <c r="F150" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="H150" t="s">
-        <v>430</v>
-      </c>
-      <c r="I150" s="31" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>429</v>
+      </c>
+      <c r="H150" s="31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" s="30">
+        <v>1856</v>
+      </c>
+      <c r="E151" s="30">
+        <v>1945</v>
+      </c>
+      <c r="F151" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="C151" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E151" s="30">
-        <v>1856</v>
-      </c>
-      <c r="F151" s="30">
-        <v>1945</v>
-      </c>
-      <c r="G151" s="30" t="s">
-        <v>929</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="G151" t="s">
+        <v>430</v>
+      </c>
+      <c r="H151" s="31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C152" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="I151" s="31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="25" t="s">
+      <c r="D152" s="27">
+        <v>1849</v>
+      </c>
+      <c r="E152" s="27">
+        <v>1925</v>
+      </c>
+      <c r="F152" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G152" t="s">
         <v>433</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="E152" s="27">
-        <v>1849</v>
-      </c>
-      <c r="F152" s="27">
-        <v>1925</v>
-      </c>
-      <c r="G152" s="27" t="s">
-        <v>930</v>
-      </c>
-      <c r="H152" t="s">
-        <v>434</v>
-      </c>
-      <c r="I152" s="28" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="H152" s="28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="13"/>
+      <c r="C153" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D153" s="13">
+        <v>1848</v>
+      </c>
+      <c r="E153" s="13">
+        <v>1921</v>
+      </c>
+      <c r="F153" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E153" s="13">
-        <v>1848</v>
-      </c>
-      <c r="F153" s="13">
-        <v>1921</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="H153" t="s">
-        <v>435</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="J153" s="18"/>
-    </row>
-    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>434</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="I153" s="18"/>
+    </row>
+    <row r="154" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D154" s="13">
+        <v>1851</v>
+      </c>
+      <c r="E154" s="13">
+        <v>1927</v>
+      </c>
+      <c r="F154" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E154" s="13">
-        <v>1851</v>
-      </c>
-      <c r="F154" s="13">
-        <v>1927</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="H154" t="s">
-        <v>436</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="J154" s="11" t="s">
+      <c r="G154" t="s">
+        <v>435</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="I154" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="13"/>
+      <c r="C155" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D155" s="13">
+        <v>1862</v>
+      </c>
+      <c r="E155" s="13">
+        <v>1941</v>
+      </c>
+      <c r="F155" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E155" s="13">
-        <v>1862</v>
-      </c>
-      <c r="F155" s="13">
-        <v>1941</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="H155" t="s">
-        <v>437</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="J155" s="18"/>
-    </row>
-    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>436</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="I155" s="18"/>
+    </row>
+    <row r="156" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D156" s="13">
+        <v>1849</v>
+      </c>
+      <c r="E156" s="13">
+        <v>1934</v>
+      </c>
+      <c r="F156" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="C156" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E156" s="13">
-        <v>1849</v>
-      </c>
-      <c r="F156" s="13">
-        <v>1934</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="H156" t="s">
-        <v>438</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="J156" s="11"/>
-    </row>
-    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>437</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="I156" s="11"/>
+    </row>
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>780</v>
+      <c r="B157" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="13" t="s">
         <v>302</v>
       </c>
+      <c r="D157" s="13">
+        <v>1864</v>
+      </c>
       <c r="E157" s="13">
-        <v>1864</v>
-      </c>
-      <c r="F157" s="13">
         <v>1937</v>
       </c>
-      <c r="G157" s="13" t="s">
+      <c r="F157" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="H157" t="s">
-        <v>439</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="J157" s="11"/>
+      <c r="G157" t="s">
+        <v>438</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I157" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1"/>
-    <hyperlink ref="H19" r:id="rId2"/>
-    <hyperlink ref="H18" r:id="rId3"/>
-    <hyperlink ref="H20" r:id="rId4"/>
-    <hyperlink ref="H57" r:id="rId5"/>
-    <hyperlink ref="H55" r:id="rId6"/>
-    <hyperlink ref="H76" r:id="rId7"/>
-    <hyperlink ref="H135" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId1"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId3"/>
+    <hyperlink ref="G20" r:id="rId4"/>
+    <hyperlink ref="G57" r:id="rId5"/>
+    <hyperlink ref="G55" r:id="rId6"/>
+    <hyperlink ref="G76" r:id="rId7"/>
+    <hyperlink ref="G135" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="764">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Arthur</t>
   </si>
   <si>
-    <t>Bylandt</t>
-  </si>
-  <si>
     <t>Call zu Rosenburg und Kulmbach</t>
   </si>
   <si>
@@ -164,16 +161,10 @@
     <t xml:space="preserve">Johann </t>
   </si>
   <si>
-    <t>Chlumecky</t>
-  </si>
-  <si>
     <t>Clam-Martinic</t>
   </si>
   <si>
     <t>Heinrich</t>
-  </si>
-  <si>
-    <t>Clam</t>
   </si>
   <si>
     <t>Coudenhove</t>
@@ -214,9 +205,6 @@
     <t>1897-1918 MöAH (poln. Sozialdem.), 1918 poln. Ministerpräs. u. Außenminister, 1920 stellv. Ministerpräs., 1928-1930 Marschall des Sejm</t>
   </si>
   <si>
-    <t xml:space="preserve">Daczinsky </t>
-  </si>
-  <si>
     <t>Demelius</t>
   </si>
   <si>
@@ -256,9 +244,6 @@
     <t>Wojciech/Adalbert</t>
   </si>
   <si>
-    <t>Dziduszycki</t>
-  </si>
-  <si>
     <t>Ehrenfels</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>Dr. oec. publ.</t>
   </si>
   <si>
-    <t>Franke</t>
-  </si>
-  <si>
     <t>Fürstenberg</t>
   </si>
   <si>
@@ -331,24 +313,15 @@
     <t>Agenor</t>
   </si>
   <si>
-    <t>Golu, Goluchowski</t>
-  </si>
-  <si>
     <t>Grabmayr</t>
   </si>
   <si>
-    <t>Grabmayer</t>
-  </si>
-  <si>
     <t>Groß</t>
   </si>
   <si>
     <t>Gustav</t>
   </si>
   <si>
-    <t>Gross</t>
-  </si>
-  <si>
     <t>György</t>
   </si>
   <si>
@@ -412,9 +385,6 @@
     <t>Josip/Joseph</t>
   </si>
   <si>
-    <t xml:space="preserve">Jellačić </t>
-  </si>
-  <si>
     <t>Jesser</t>
   </si>
   <si>
@@ -502,9 +472,6 @@
     <t>1905-1906 ungar. Justizminister</t>
   </si>
   <si>
-    <t>Lanczi</t>
-  </si>
-  <si>
     <t>Larisch-Moennich</t>
   </si>
   <si>
@@ -550,9 +517,6 @@
     <t>Georg</t>
   </si>
   <si>
-    <t>Lobkowicz</t>
-  </si>
-  <si>
     <t>Löcker</t>
   </si>
   <si>
@@ -644,9 +608,6 @@
   </si>
   <si>
     <t>Eugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philipovicz </t>
   </si>
   <si>
     <t>Pohl</t>
@@ -712,9 +673,6 @@
     <t>1903-1909 Sektionschef im österr. Handelsminister, 1909-1913 im österr.-ungar. Außenministerium, 3.11.1911-20.9.1912 österr. Handelsminister</t>
   </si>
   <si>
-    <t>Roessler</t>
-  </si>
-  <si>
     <t>Rohan</t>
   </si>
   <si>
@@ -787,9 +745,6 @@
     <t>Silva-Tarouca</t>
   </si>
   <si>
-    <t>Silva, Taroucca</t>
-  </si>
-  <si>
     <t>Singer</t>
   </si>
   <si>
@@ -814,9 +769,6 @@
     <t>Stein</t>
   </si>
   <si>
-    <t>Franco</t>
-  </si>
-  <si>
     <t>Steinbach</t>
   </si>
   <si>
@@ -832,9 +784,6 @@
     <t>1849 Bischof von Đakovo, Bosnien und Syrmien mit Sitz in Đakovo, 1860-1873 MuAH (Führer der Kroatischen Volkspartei)</t>
   </si>
   <si>
-    <t>Stroßmayer</t>
-  </si>
-  <si>
     <t>Stürgkh</t>
   </si>
   <si>
@@ -952,9 +901,6 @@
     <t xml:space="preserve">Alfred </t>
   </si>
   <si>
-    <t>Windischgraetz</t>
-  </si>
-  <si>
     <t>Wolf</t>
   </si>
   <si>
@@ -1000,9 +946,6 @@
     <t>Keywert</t>
   </si>
   <si>
-    <t>Varianten</t>
-  </si>
-  <si>
     <t>AbrahamowiczDawid</t>
   </si>
   <si>
@@ -1225,9 +1168,6 @@
     <t>https://d-nb.info/gnd/1025703324</t>
   </si>
   <si>
-    <t>Pejacsevich, Tivadar</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/102579642X</t>
   </si>
   <si>
@@ -1298,9 +1238,6 @@
   </si>
   <si>
     <t>Starčević</t>
-  </si>
-  <si>
-    <t>Starčevič</t>
   </si>
   <si>
     <t>https://d-nb.info/gnd/129277169</t>
@@ -2678,7 +2615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2704,9 +2641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2719,29 +2653,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2787,9 +2709,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2811,41 +2730,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -3155,17 +3040,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:I157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="1" name="Nachname" dataDxfId="8"/>
-    <tableColumn id="2" name="Namenszusatz" dataDxfId="7"/>
-    <tableColumn id="3" name="Vorname" dataDxfId="6"/>
-    <tableColumn id="4" name="Geburtsjahr" dataDxfId="5"/>
-    <tableColumn id="5" name="Sterbejahr" dataDxfId="4"/>
-    <tableColumn id="6" name="Bezeichnung" dataDxfId="3"/>
-    <tableColumn id="7" name="GND" dataDxfId="2"/>
-    <tableColumn id="8" name="Keywert" dataDxfId="1"/>
-    <tableColumn id="9" name="Varianten" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H157" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" name="Nachname" dataDxfId="7"/>
+    <tableColumn id="2" name="Namenszusatz" dataDxfId="6"/>
+    <tableColumn id="3" name="Vorname" dataDxfId="5"/>
+    <tableColumn id="4" name="Geburtsjahr" dataDxfId="4"/>
+    <tableColumn id="5" name="Sterbejahr" dataDxfId="3"/>
+    <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
+    <tableColumn id="7" name="GND" dataDxfId="1"/>
+    <tableColumn id="8" name="Keywert" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3434,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,40 +3333,37 @@
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3491,9 +3372,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3513,14 +3393,13 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3540,14 +3419,13 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3567,14 +3445,13 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3594,14 +3471,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3621,22 +3497,21 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="D8" s="2">
         <v>1813</v>
@@ -3645,25 +3520,24 @@
         <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="G8" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="D9" s="2">
         <v>1847</v>
@@ -3672,25 +3546,24 @@
         <v>1917</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="G9" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="D10" s="2">
         <v>1846</v>
@@ -3699,23 +3572,22 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="G10" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="D11" s="5">
         <v>1845</v>
@@ -3723,26 +3595,25 @@
       <c r="E11" s="5">
         <v>1925</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>690</v>
+      <c r="F11" s="28" t="s">
+        <v>669</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D12" s="7">
         <v>1843</v>
@@ -3751,23 +3622,22 @@
         <v>1911</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="D13" s="7">
         <v>1823</v>
@@ -3776,25 +3646,24 @@
         <v>1906</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>649</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>628</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7">
         <v>1831</v>
@@ -3802,26 +3671,25 @@
       <c r="E14" s="7">
         <v>1911</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>689</v>
+      <c r="F14" s="29" t="s">
+        <v>668</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="D15" s="2">
         <v>1854</v>
@@ -3830,19 +3698,18 @@
         <v>1943</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="G15" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3850,19 +3717,18 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2">
         <v>1815</v>
@@ -3871,25 +3737,24 @@
         <v>1898</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="G17" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D18" s="2">
         <v>1851</v>
@@ -3897,24 +3762,23 @@
       <c r="E18" s="2">
         <v>1914</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>691</v>
+      <c r="F18" s="37" t="s">
+        <v>670</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D19" s="2">
         <v>1808</v>
@@ -3923,25 +3787,24 @@
         <v>1873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="D20" s="2">
         <v>1798</v>
@@ -3950,17 +3813,16 @@
         <v>1860</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -3980,14 +3842,13 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -4007,14 +3868,13 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -4034,14 +3894,13 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -4058,27 +3917,24 @@
         <v>1915</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I24" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D25" s="3">
         <v>1849</v>
@@ -4087,25 +3943,24 @@
         <v>1927</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D26" s="2">
         <v>1831</v>
@@ -4114,25 +3969,24 @@
         <v>1899</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D27" s="2">
         <v>1849</v>
@@ -4141,25 +3995,24 @@
         <v>1912</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="G27" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D28" s="2">
         <v>1834</v>
@@ -4168,27 +4021,24 @@
         <v>1924</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="G28" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2">
         <v>1863</v>
@@ -4197,27 +4047,24 @@
         <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G29" t="s">
-        <v>328</v>
+        <v>675</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2">
         <v>1855</v>
@@ -4226,25 +4073,24 @@
         <v>1913</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="G30" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2">
         <v>1872</v>
@@ -4253,49 +4099,47 @@
         <v>1932</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="G31" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>665</v>
-      </c>
-      <c r="B32" s="35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>666</v>
-      </c>
-      <c r="D32" s="35">
+      <c r="C32" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="D32" s="30">
         <v>1852</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="30">
         <v>1911</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>667</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F32" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2">
         <v>1860</v>
@@ -4304,23 +4148,22 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2">
         <v>1866</v>
@@ -4329,27 +4172,24 @@
         <v>1936</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>332</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D35" s="2">
         <v>1859</v>
@@ -4358,25 +4198,24 @@
         <v>1904</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36" s="2">
         <v>1852</v>
@@ -4385,25 +4224,24 @@
         <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="G36" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D37" s="2">
         <v>1866</v>
@@ -4412,47 +4250,45 @@
         <v>1929</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>1907</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2">
         <v>1848</v>
@@ -4461,24 +4297,21 @@
         <v>1909</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -4490,25 +4323,24 @@
         <v>1940</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="G40" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2">
         <v>1861</v>
@@ -4517,154 +4349,146 @@
         <v>1949</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="G41" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1829</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1899</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1833</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>321</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1829</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1899</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="G43" t="s">
-        <v>339</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C45" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1852</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="13">
-        <v>1833</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="C46" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1863</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1941</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="G46" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G44" t="s">
-        <v>340</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C47" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1852</v>
-      </c>
-      <c r="E45" s="13">
-        <v>1921</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="G45" t="s">
-        <v>341</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="D46" s="15">
-        <v>1863</v>
-      </c>
-      <c r="E46" s="15">
-        <v>1941</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="G46" t="s">
-        <v>343</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D47" s="2">
         <v>1851</v>
@@ -4673,58 +4497,55 @@
         <v>1918</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -4738,26 +4559,25 @@
       <c r="E50" s="2">
         <v>1920</v>
       </c>
-      <c r="F50" s="44" t="s">
-        <v>709</v>
+      <c r="F50" s="38" t="s">
+        <v>688</v>
       </c>
       <c r="G50" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2">
         <v>1849</v>
@@ -4766,27 +4586,24 @@
         <v>1921</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="G51" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2">
         <v>1848</v>
@@ -4795,27 +4612,24 @@
         <v>1923</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="G52" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2">
         <v>1856</v>
@@ -4824,27 +4638,24 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="G53" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D54" s="2">
         <v>1848</v>
@@ -4853,21 +4664,20 @@
         <v>1927</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H54" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="D55" s="2">
         <v>1768</v>
@@ -4876,23 +4686,22 @@
         <v>1835</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="D56" s="2">
         <v>1930</v>
@@ -4901,25 +4710,24 @@
         <v>1916</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>517</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D57" s="2">
         <v>1839</v>
@@ -4928,25 +4736,24 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="D58" s="2">
         <v>1864</v>
@@ -4955,25 +4762,24 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="G58" t="s">
-        <v>629</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2">
         <v>1850</v>
@@ -4982,25 +4788,24 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="G59" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D60" s="2">
         <v>1845</v>
@@ -5009,25 +4814,24 @@
         <v>1924</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D61" s="2">
         <v>1836</v>
@@ -5036,23 +4840,22 @@
         <v>1911</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D62" s="2">
         <v>1849</v>
@@ -5061,25 +4864,24 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="G62" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>111</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="D63" s="2">
         <v>1824</v>
@@ -5088,25 +4890,24 @@
         <v>1899</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G63" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>597</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>576</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D64" s="2">
         <v>1859</v>
@@ -5115,25 +4916,24 @@
         <v>1941</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="G64" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D65" s="2">
         <v>1863</v>
@@ -5142,23 +4942,22 @@
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="G65" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D66" s="2">
         <v>1859</v>
@@ -5167,129 +4966,122 @@
         <v>1918</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="13">
+      <c r="C67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="12">
         <v>1801</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>1859</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>675</v>
+      <c r="F67" s="12" t="s">
+        <v>654</v>
       </c>
       <c r="G67" t="s">
-        <v>358</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1869</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1954</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G68" t="s">
+        <v>340</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="13">
-        <v>1869</v>
-      </c>
-      <c r="E68" s="13">
-        <v>1954</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="G68" t="s">
-        <v>359</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="15">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="14">
         <v>1850</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>1917</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>127</v>
+      <c r="F69" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>780</v>
-      </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46" t="s">
-        <v>781</v>
-      </c>
-      <c r="D70" s="46">
+        <v>341</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="D70" s="40">
         <v>1877</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="40">
         <v>1905</v>
       </c>
-      <c r="F70" s="46" t="s">
-        <v>782</v>
+      <c r="F70" s="40" t="s">
+        <v>761</v>
       </c>
       <c r="G70" t="s">
-        <v>783</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>784</v>
-      </c>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D71" s="2">
         <v>1842</v>
@@ -5298,24 +5090,24 @@
         <v>1916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G71" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2">
         <v>1856</v>
@@ -5324,24 +5116,24 @@
         <v>1945</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D73" s="2">
         <v>1852</v>
@@ -5350,22 +5142,22 @@
         <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="D74" s="2">
         <v>1847</v>
@@ -5374,22 +5166,22 @@
         <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G74" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="D75" s="2">
         <v>1854</v>
@@ -5398,24 +5190,24 @@
         <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="G75" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="D76" s="2">
         <v>1850</v>
@@ -5424,24 +5216,24 @@
         <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D77" s="2">
         <v>1852</v>
@@ -5450,24 +5242,24 @@
         <v>1910</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="G77" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2">
         <v>1837</v>
@@ -5476,234 +5268,226 @@
         <v>1914</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G78" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1852</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1909</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G79" t="s">
+        <v>342</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1856</v>
+      </c>
+      <c r="E80" s="12">
+        <v>1919</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1841</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="D82" s="12">
+        <v>1802</v>
+      </c>
+      <c r="E82" s="12">
+        <v>1894</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="G82" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="13">
-        <v>1852</v>
-      </c>
-      <c r="E79" s="13">
-        <v>1909</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="B83" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G79" t="s">
-        <v>361</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="D83" s="12">
+        <v>1860</v>
+      </c>
+      <c r="E83" s="12">
+        <v>1937</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="G83" t="s">
+        <v>346</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="13">
-        <v>1856</v>
-      </c>
-      <c r="E80" s="13">
-        <v>1919</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="C84" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1857</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1928</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G80" t="s">
-        <v>362</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="G84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D81" s="13">
+      <c r="C85" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="12">
         <v>1841</v>
       </c>
-      <c r="E81" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" t="s">
-        <v>363</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
+      <c r="E85" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="G85" t="s">
+        <v>347</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D82" s="13">
-        <v>1802</v>
-      </c>
-      <c r="E82" s="13">
-        <v>1894</v>
-      </c>
-      <c r="F82" s="13" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1821</v>
+      </c>
+      <c r="E86" s="14">
+        <v>1879</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G82" t="s">
-        <v>364</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="G86" t="s">
+        <v>349</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="13">
-        <v>1860</v>
-      </c>
-      <c r="E83" s="13">
-        <v>1937</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="G83" t="s">
-        <v>365</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="13">
-        <v>1857</v>
-      </c>
-      <c r="E84" s="13">
-        <v>1928</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G84" t="s">
-        <v>367</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D85" s="13">
-        <v>1841</v>
-      </c>
-      <c r="E85" s="13">
-        <v>1921</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="G85" t="s">
-        <v>366</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="15">
-        <v>1821</v>
-      </c>
-      <c r="E86" s="15">
-        <v>1879</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G86" t="s">
-        <v>368</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="C87" s="10" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D87" s="10">
         <v>1851</v>
@@ -5712,1194 +5496,1134 @@
         <v>1921</v>
       </c>
       <c r="F87" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" t="s">
+        <v>351</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E88" s="12">
+        <v>1918</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G88" t="s">
+        <v>352</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1872</v>
+      </c>
+      <c r="E89" s="12">
+        <v>1962</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="G89" t="s">
+        <v>353</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1861</v>
+      </c>
+      <c r="E90" s="12">
+        <v>1939</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="G90" t="s">
+        <v>354</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E91" s="12">
+        <v>1920</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="G91" t="s">
+        <v>355</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="12">
+        <v>1872</v>
+      </c>
+      <c r="E92" s="12">
+        <v>1951</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" t="s">
+        <v>356</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G87" t="s">
+      <c r="B93" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="12">
+        <v>1829</v>
+      </c>
+      <c r="E93" s="12">
+        <v>1910</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93" t="s">
+        <v>357</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1835</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1908</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="G94" t="s">
+        <v>358</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E95" s="12">
+        <v>1926</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="G95" t="s">
+        <v>359</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="12">
+        <v>1860</v>
+      </c>
+      <c r="E96" s="12">
+        <v>1945</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="G96" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1845</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1929</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="14">
+        <v>1844</v>
+      </c>
+      <c r="E98" s="14">
+        <v>1910</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G98" t="s">
+        <v>362</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1916</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="G99" t="s">
+        <v>363</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1925</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G100" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14">
+        <v>1916</v>
+      </c>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1863</v>
+      </c>
+      <c r="E102" s="14">
+        <v>1931</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="G102" t="s">
+        <v>365</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E103" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="G103" t="s">
+        <v>366</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="17">
+        <v>1855</v>
+      </c>
+      <c r="E105" s="17">
+        <v>1928</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" t="s">
+        <v>367</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E106" s="12">
+        <v>1910</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="G106" t="s">
+        <v>368</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1918</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="G107" t="s">
+        <v>369</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="12">
+        <v>1856</v>
+      </c>
+      <c r="E108" s="12">
+        <v>1908</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="G108" t="s">
         <v>370</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="I87" s="18" t="s">
+      <c r="H108" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E109" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="12">
+        <v>1858</v>
+      </c>
+      <c r="E111" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="G111" t="s">
+        <v>371</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="G113" t="s">
+        <v>372</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="14">
+        <v>1868</v>
+      </c>
+      <c r="E114" s="14">
+        <v>1932</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="G114" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1834</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="G115" t="s">
+        <v>374</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="12">
+        <v>1797</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1875</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G116" t="s">
+        <v>375</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1857</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1912</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>376</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="G118" t="s">
+        <v>377</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="19">
+        <v>1845</v>
+      </c>
+      <c r="E119" s="19">
+        <v>1933</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="G119" t="s">
+        <v>378</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="12">
+        <v>1831</v>
+      </c>
+      <c r="E120" s="12">
+        <v>1903</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" t="s">
+        <v>379</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" s="12">
+        <v>1869</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1951</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G122" t="s">
+        <v>380</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1841</v>
+      </c>
+      <c r="E123" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="G123" t="s">
+        <v>381</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1842</v>
+      </c>
+      <c r="E124" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G124" t="s">
+        <v>382</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1858</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1926</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="G125" t="s">
+        <v>383</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1859</v>
+      </c>
+      <c r="E126" s="12">
+        <v>1913</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="G126" t="s">
+        <v>384</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1836</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="G127" t="s">
+        <v>385</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="13" t="s">
+      <c r="D128" s="12">
+        <v>1866</v>
+      </c>
+      <c r="E128" s="12">
+        <v>1934</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="G128" t="s">
+        <v>386</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="13">
-        <v>1850</v>
-      </c>
-      <c r="E88" s="13">
-        <v>1918</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="G88" t="s">
-        <v>371</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D89" s="13">
-        <v>1872</v>
-      </c>
-      <c r="E89" s="13">
-        <v>1962</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="G89" t="s">
-        <v>372</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D90" s="13">
-        <v>1861</v>
-      </c>
-      <c r="E90" s="13">
-        <v>1939</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="G90" t="s">
-        <v>373</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="13">
-        <v>1846</v>
-      </c>
-      <c r="E91" s="13">
-        <v>1920</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="G91" t="s">
-        <v>374</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" s="13">
-        <v>1872</v>
-      </c>
-      <c r="E92" s="13">
-        <v>1951</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" t="s">
-        <v>375</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D93" s="13">
-        <v>1829</v>
-      </c>
-      <c r="E93" s="13">
-        <v>1910</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G93" t="s">
-        <v>376</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="13">
-        <v>1835</v>
-      </c>
-      <c r="E94" s="13">
-        <v>1908</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="G94" t="s">
-        <v>377</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="13">
-        <v>1850</v>
-      </c>
-      <c r="E95" s="13">
-        <v>1926</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="G95" t="s">
-        <v>378</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" s="13">
+      <c r="C129" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="12">
         <v>1860</v>
       </c>
-      <c r="E96" s="13">
-        <v>1945</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="G96" t="s">
-        <v>379</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1845</v>
-      </c>
-      <c r="E97" s="13">
-        <v>1929</v>
-      </c>
-      <c r="F97" s="13" t="s">
+      <c r="E129" s="12">
+        <v>1936</v>
+      </c>
+      <c r="F129" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="G97" t="s">
-        <v>380</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" s="15">
-        <v>1844</v>
-      </c>
-      <c r="E98" s="15">
-        <v>1910</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="G98" t="s">
-        <v>381</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" s="13">
-        <v>1846</v>
-      </c>
-      <c r="E99" s="13">
-        <v>1916</v>
-      </c>
-      <c r="F99" s="13" t="s">
+      <c r="G129" t="s">
+        <v>387</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E130" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" t="s">
+        <v>388</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F131" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="G99" t="s">
-        <v>382</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="13">
-        <v>1838</v>
-      </c>
-      <c r="E100" s="13">
-        <v>1925</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G100" t="s">
-        <v>383</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15">
-        <v>1916</v>
-      </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D102" s="15">
-        <v>1863</v>
-      </c>
-      <c r="E102" s="15">
-        <v>1931</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="G102" t="s">
-        <v>384</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103" s="13">
-        <v>1846</v>
-      </c>
-      <c r="E103" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="G103" t="s">
-        <v>385</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I104" s="40"/>
-    </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D105" s="20">
-        <v>1855</v>
-      </c>
-      <c r="E105" s="20">
-        <v>1928</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G105" t="s">
-        <v>386</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="13">
-        <v>1853</v>
-      </c>
-      <c r="E106" s="13">
-        <v>1910</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="G106" t="s">
-        <v>388</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" s="13">
-        <v>1850</v>
-      </c>
-      <c r="E107" s="13">
-        <v>1918</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="G131" t="s">
         <v>389</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="I107" s="11"/>
-    </row>
-    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="13">
-        <v>1856</v>
-      </c>
-      <c r="E108" s="13">
-        <v>1908</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="H131" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1823</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1896</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G132" t="s">
         <v>390</v>
       </c>
-      <c r="H108" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="13">
-        <v>1847</v>
-      </c>
-      <c r="E109" s="13">
-        <v>1907</v>
-      </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="I109" s="11"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I110" s="11"/>
-    </row>
-    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D111" s="13">
-        <v>1858</v>
-      </c>
-      <c r="E111" s="13">
-        <v>1917</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="G111" t="s">
-        <v>391</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I112" s="11"/>
-    </row>
-    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" s="13">
-        <v>1853</v>
-      </c>
-      <c r="E113" s="13">
-        <v>1927</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="G113" t="s">
-        <v>392</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D114" s="15">
-        <v>1868</v>
-      </c>
-      <c r="E114" s="15">
-        <v>1932</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="G114" t="s">
-        <v>393</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D115" s="13">
-        <v>1834</v>
-      </c>
-      <c r="E115" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="G115" t="s">
-        <v>394</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I115" s="18"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D116" s="13">
-        <v>1797</v>
-      </c>
-      <c r="E116" s="13">
-        <v>1875</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G116" t="s">
-        <v>395</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="I116" s="18"/>
-    </row>
-    <row r="117" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D117" s="13">
-        <v>1857</v>
-      </c>
-      <c r="E117" s="13">
-        <v>1912</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" t="s">
-        <v>396</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" s="13">
-        <v>1853</v>
-      </c>
-      <c r="E118" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="G118" t="s">
-        <v>397</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="I118" s="18"/>
-    </row>
-    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D119" s="23">
-        <v>1845</v>
-      </c>
-      <c r="E119" s="23">
-        <v>1933</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="G119" t="s">
-        <v>398</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="I119" s="24"/>
-    </row>
-    <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="13">
-        <v>1831</v>
-      </c>
-      <c r="E120" s="13">
-        <v>1903</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G120" t="s">
-        <v>399</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="I120" s="11"/>
-    </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D121" s="13">
-        <v>1869</v>
-      </c>
-      <c r="E121" s="13">
-        <v>1951</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="I121" s="11"/>
-    </row>
-    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D122" s="13">
-        <v>1838</v>
-      </c>
-      <c r="E122" s="13">
-        <v>1917</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G122" t="s">
-        <v>400</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="I122" s="11"/>
-    </row>
-    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D123" s="13">
-        <v>1841</v>
-      </c>
-      <c r="E123" s="13">
-        <v>1907</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="G123" t="s">
-        <v>401</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="I123" s="11"/>
-    </row>
-    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124" s="13">
-        <v>1842</v>
-      </c>
-      <c r="E124" s="13">
-        <v>1921</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="G124" t="s">
-        <v>402</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="I124" s="11"/>
-    </row>
-    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B125" s="13" t="s">
+      <c r="H132" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D125" s="13">
-        <v>1858</v>
-      </c>
-      <c r="E125" s="13">
-        <v>1926</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="G125" t="s">
-        <v>403</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="I125" s="11"/>
-    </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="13">
-        <v>1859</v>
-      </c>
-      <c r="E126" s="13">
-        <v>1913</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="G126" t="s">
-        <v>404</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="I126" s="11"/>
-    </row>
-    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D127" s="13">
-        <v>1836</v>
-      </c>
-      <c r="E127" s="13">
-        <v>1914</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="G127" t="s">
-        <v>405</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="I127" s="11"/>
-    </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D128" s="13">
-        <v>1866</v>
-      </c>
-      <c r="E128" s="13">
-        <v>1934</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="G128" t="s">
-        <v>406</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="I128" s="11"/>
-    </row>
-    <row r="129" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="13">
-        <v>1860</v>
-      </c>
-      <c r="E129" s="13">
-        <v>1936</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="G129" t="s">
-        <v>407</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="I129" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D130" s="13">
-        <v>1847</v>
-      </c>
-      <c r="E130" s="13">
-        <v>1917</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G130" t="s">
-        <v>408</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I130" s="11"/>
-    </row>
-    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D131" s="13">
-        <v>1849</v>
-      </c>
-      <c r="E131" s="13">
-        <v>1917</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="G131" t="s">
-        <v>409</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D132" s="13">
-        <v>1823</v>
-      </c>
-      <c r="E132" s="13">
-        <v>1896</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G132" t="s">
-        <v>410</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D133" s="10">
         <v>1869</v>
@@ -6907,646 +6631,619 @@
       <c r="E133" s="10">
         <v>1943</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>762</v>
+      <c r="F133" s="12" t="s">
+        <v>741</v>
       </c>
       <c r="G133" t="s">
+        <v>392</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="G134" t="s">
+        <v>394</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F135" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="G135" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1815</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1905</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G136" t="s">
+        <v>395</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="12">
+        <v>1859</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="G137" t="s">
+        <v>396</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1843</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1915</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="G138" t="s">
+        <v>397</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D140" s="12">
+        <v>1861</v>
+      </c>
+      <c r="E140" s="12">
+        <v>1941</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G140" t="s">
+        <v>398</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1833</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1895</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G141" t="s">
+        <v>400</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1842</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="G142" t="s">
+        <v>401</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E143" s="12">
+        <v>1916</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="G143" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1913</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G144" t="s">
+        <v>403</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1861</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G145" t="s">
+        <v>404</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E146" s="12">
+        <v>1926</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="G146" t="s">
+        <v>405</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="14">
+        <v>1845</v>
+      </c>
+      <c r="E147" s="14">
+        <v>1921</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="21">
+        <v>1855</v>
+      </c>
+      <c r="E148" s="21">
+        <v>1940</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="G148" t="s">
+        <v>406</v>
+      </c>
+      <c r="H148" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" s="25">
+        <v>1846</v>
+      </c>
+      <c r="E149" s="25">
+        <v>1907</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G149" t="s">
+        <v>407</v>
+      </c>
+      <c r="H149" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150" s="25">
+        <v>1858</v>
+      </c>
+      <c r="E150" s="25">
+        <v>1940</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G150" t="s">
+        <v>408</v>
+      </c>
+      <c r="H150" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" s="25">
+        <v>1856</v>
+      </c>
+      <c r="E151" s="25">
+        <v>1945</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="G151" t="s">
+        <v>409</v>
+      </c>
+      <c r="H151" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D152" s="22">
+        <v>1849</v>
+      </c>
+      <c r="E152" s="22">
+        <v>1925</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="G152" t="s">
+        <v>412</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D153" s="12">
+        <v>1848</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="G153" t="s">
         <v>413</v>
       </c>
-      <c r="H133" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D134" s="13">
-        <v>1846</v>
-      </c>
-      <c r="E134" s="13">
-        <v>1907</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H153" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D154" s="12">
+        <v>1851</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="G154" t="s">
+        <v>414</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D155" s="12">
+        <v>1862</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1941</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="G155" t="s">
         <v>415</v>
       </c>
-      <c r="H134" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="I134" s="11"/>
-    </row>
-    <row r="135" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="13">
-        <v>1847</v>
-      </c>
-      <c r="E135" s="13">
-        <v>1921</v>
-      </c>
-      <c r="F135" s="42" t="s">
-        <v>764</v>
-      </c>
-      <c r="G135" s="41" t="s">
-        <v>681</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D136" s="13">
-        <v>1815</v>
-      </c>
-      <c r="E136" s="13">
-        <v>1905</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="H155" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D156" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E156" s="12">
+        <v>1934</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="G156" t="s">
         <v>416</v>
       </c>
-      <c r="H136" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" s="13">
-        <v>1859</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="H156" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D157" s="12">
+        <v>1864</v>
+      </c>
+      <c r="E157" s="12">
+        <v>1937</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G157" t="s">
         <v>417</v>
       </c>
-      <c r="H137" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D138" s="13">
-        <v>1843</v>
-      </c>
-      <c r="E138" s="13">
-        <v>1915</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="G138" t="s">
-        <v>418</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="I138" s="11"/>
-    </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="I139" s="11"/>
-    </row>
-    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D140" s="13">
-        <v>1861</v>
-      </c>
-      <c r="E140" s="13">
-        <v>1941</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G140" t="s">
-        <v>419</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="I140" s="11"/>
-    </row>
-    <row r="141" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="13">
-        <v>1833</v>
-      </c>
-      <c r="E141" s="13">
-        <v>1895</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="G141" t="s">
-        <v>421</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="I141" s="11"/>
-    </row>
-    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D142" s="13">
-        <v>1842</v>
-      </c>
-      <c r="E142" s="13">
-        <v>1927</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>768</v>
-      </c>
-      <c r="G142" t="s">
-        <v>422</v>
-      </c>
-      <c r="H142" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="I142" s="11"/>
-    </row>
-    <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D143" s="13">
-        <v>1847</v>
-      </c>
-      <c r="E143" s="13">
-        <v>1916</v>
-      </c>
-      <c r="F143" s="45" t="s">
-        <v>769</v>
-      </c>
-      <c r="G143" t="s">
-        <v>423</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I143" s="11"/>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D144" s="13">
-        <v>1849</v>
-      </c>
-      <c r="E144" s="13">
-        <v>1913</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="G144" t="s">
-        <v>424</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="I144" s="11"/>
-    </row>
-    <row r="145" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D145" s="13">
-        <v>1861</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G145" t="s">
-        <v>425</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="I145" s="11"/>
-    </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="13">
-        <v>1847</v>
-      </c>
-      <c r="E146" s="13">
-        <v>1926</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="G146" t="s">
-        <v>426</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="I146" s="11"/>
-    </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" s="15">
-        <v>1845</v>
-      </c>
-      <c r="E147" s="15">
-        <v>1921</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" s="26">
-        <v>1855</v>
-      </c>
-      <c r="E148" s="26">
-        <v>1940</v>
-      </c>
-      <c r="F148" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="G148" t="s">
-        <v>427</v>
-      </c>
-      <c r="H148" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="I148" s="28"/>
-    </row>
-    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D149" s="30">
-        <v>1846</v>
-      </c>
-      <c r="E149" s="30">
-        <v>1907</v>
-      </c>
-      <c r="F149" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="G149" t="s">
-        <v>428</v>
-      </c>
-      <c r="H149" s="31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D150" s="30">
-        <v>1858</v>
-      </c>
-      <c r="E150" s="30">
-        <v>1940</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G150" t="s">
-        <v>429</v>
-      </c>
-      <c r="H150" s="31" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D151" s="30">
-        <v>1856</v>
-      </c>
-      <c r="E151" s="30">
-        <v>1945</v>
-      </c>
-      <c r="F151" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="G151" t="s">
-        <v>430</v>
-      </c>
-      <c r="H151" s="31" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D152" s="27">
-        <v>1849</v>
-      </c>
-      <c r="E152" s="27">
-        <v>1925</v>
-      </c>
-      <c r="F152" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G152" t="s">
-        <v>433</v>
-      </c>
-      <c r="H152" s="28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D153" s="13">
-        <v>1848</v>
-      </c>
-      <c r="E153" s="13">
-        <v>1921</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="G153" t="s">
-        <v>434</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="I153" s="18"/>
-    </row>
-    <row r="154" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D154" s="13">
-        <v>1851</v>
-      </c>
-      <c r="E154" s="13">
-        <v>1927</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="G154" t="s">
-        <v>435</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D155" s="13">
-        <v>1862</v>
-      </c>
-      <c r="E155" s="13">
-        <v>1941</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="G155" t="s">
-        <v>436</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="I155" s="18"/>
-    </row>
-    <row r="156" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D156" s="13">
-        <v>1849</v>
-      </c>
-      <c r="E156" s="13">
-        <v>1934</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="G156" t="s">
-        <v>437</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="I156" s="11"/>
-    </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D157" s="13">
-        <v>1864</v>
-      </c>
-      <c r="E157" s="13">
-        <v>1937</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G157" t="s">
-        <v>438</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="I157" s="11"/>
+      <c r="H157" s="12" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7558,11 +7255,12 @@
     <hyperlink ref="G55" r:id="rId6"/>
     <hyperlink ref="G76" r:id="rId7"/>
     <hyperlink ref="G135" r:id="rId8"/>
+    <hyperlink ref="G29" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hoermann\GitHub\dev-baernreither-app\data\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1480,9 +1472,6 @@
     <t>LudwigstorffAnton</t>
   </si>
   <si>
-    <t>LöckerJulius</t>
-  </si>
-  <si>
     <t>LobkowitzFerdinand</t>
   </si>
   <si>
@@ -1667,9 +1656,6 @@
   </si>
   <si>
     <t>ZichyAladar</t>
-  </si>
-  <si>
-    <t>FuerstenbergMax Egon</t>
   </si>
   <si>
     <t>GoluchowskiAgenor</t>
@@ -2438,11 +2424,17 @@
   <si>
     <t>KaljajewIwan</t>
   </si>
+  <si>
+    <t>FuerstenbergMaxEgon</t>
+  </si>
+  <si>
+    <t>LoeckerJulius</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2727,7 +2719,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -3310,7 +3302,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3320,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3440,7 @@
         <v>299</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3471,10 +3463,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3505,13 +3497,13 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D8" s="2">
         <v>1813</v>
@@ -3520,24 +3512,24 @@
         <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D9" s="2">
         <v>1847</v>
@@ -3546,24 +3538,24 @@
         <v>1917</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" s="2">
         <v>1846</v>
@@ -3572,22 +3564,22 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D11" s="5">
         <v>1845</v>
@@ -3596,24 +3588,24 @@
         <v>1925</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D12" s="7">
         <v>1843</v>
@@ -3622,22 +3614,22 @@
         <v>1911</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D13" s="7">
         <v>1823</v>
@@ -3646,21 +3638,21 @@
         <v>1906</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>145</v>
@@ -3672,24 +3664,24 @@
         <v>1911</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D15" s="2">
         <v>1854</v>
@@ -3698,18 +3690,18 @@
         <v>1943</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3717,12 +3709,12 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -3737,18 +3729,18 @@
         <v>1898</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -3763,22 +3755,22 @@
         <v>1914</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D19" s="2">
         <v>1808</v>
@@ -3787,24 +3779,24 @@
         <v>1873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D20" s="2">
         <v>1798</v>
@@ -3813,13 +3805,13 @@
         <v>1860</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -3845,7 +3837,7 @@
         <v>301</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3871,7 +3863,7 @@
         <v>302</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3917,13 +3909,13 @@
         <v>1915</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G24" t="s">
         <v>304</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3943,7 +3935,7 @@
         <v>1927</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G25" t="s">
         <v>305</v>
@@ -3995,7 +3987,7 @@
         <v>1912</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G27" t="s">
         <v>307</v>
@@ -4021,13 +4013,13 @@
         <v>1924</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G28" t="s">
         <v>308</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4047,7 +4039,7 @@
         <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>309</v>
@@ -4073,7 +4065,7 @@
         <v>1913</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G30" t="s">
         <v>310</v>
@@ -4099,7 +4091,7 @@
         <v>1932</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G31" t="s">
         <v>311</v>
@@ -4110,13 +4102,13 @@
     </row>
     <row r="32" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D32" s="30">
         <v>1852</v>
@@ -4125,10 +4117,10 @@
         <v>1911</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4148,7 +4140,7 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G33" t="s">
         <v>312</v>
@@ -4178,7 +4170,7 @@
         <v>313</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4198,7 +4190,7 @@
         <v>1904</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G35" t="s">
         <v>314</v>
@@ -4224,7 +4216,7 @@
         <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G36" t="s">
         <v>315</v>
@@ -4261,23 +4253,23 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>1907</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4297,7 +4289,7 @@
         <v>1909</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G39" t="s">
         <v>317</v>
@@ -4323,7 +4315,7 @@
         <v>1940</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G40" t="s">
         <v>318</v>
@@ -4349,7 +4341,7 @@
         <v>1949</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G41" t="s">
         <v>319</v>
@@ -4364,7 +4356,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4373,7 +4365,7 @@
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4393,7 +4385,7 @@
         <v>1899</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G43" t="s">
         <v>320</v>
@@ -4425,7 +4417,7 @@
         <v>321</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4462,7 +4454,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D46" s="14">
         <v>1863</v>
@@ -4471,13 +4463,13 @@
         <v>1941</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G46" t="s">
         <v>324</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>535</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -4497,7 +4489,7 @@
         <v>1918</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G47" t="s">
         <v>325</v>
@@ -4515,7 +4507,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>157</v>
@@ -4545,7 +4537,7 @@
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -4560,13 +4552,13 @@
         <v>1920</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4586,13 +4578,13 @@
         <v>1921</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G51" t="s">
         <v>327</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4600,7 +4592,7 @@
         <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>40</v>
@@ -4612,7 +4604,7 @@
         <v>1923</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G52" t="s">
         <v>328</v>
@@ -4638,7 +4630,7 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G53" t="s">
         <v>329</v>
@@ -4668,16 +4660,16 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D55" s="2">
         <v>1768</v>
@@ -4686,22 +4678,22 @@
         <v>1835</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D56" s="2">
         <v>1930</v>
@@ -4710,21 +4702,21 @@
         <v>1916</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G56" t="s">
         <v>495</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>228</v>
@@ -4736,24 +4728,24 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D58" s="2">
         <v>1864</v>
@@ -4762,13 +4754,13 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G58" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4788,13 +4780,13 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G59" t="s">
         <v>331</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4820,7 +4812,7 @@
         <v>332</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4846,7 +4838,7 @@
         <v>333</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4864,24 +4856,24 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G62" t="s">
         <v>335</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D63" s="2">
         <v>1824</v>
@@ -4890,21 +4882,21 @@
         <v>1899</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>228</v>
@@ -4916,13 +4908,13 @@
         <v>1941</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G64" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -4942,13 +4934,13 @@
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G65" t="s">
         <v>336</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4972,7 +4964,7 @@
         <v>338</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4992,13 +4984,13 @@
         <v>1859</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G67" t="s">
         <v>339</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5016,13 +5008,13 @@
         <v>1954</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G68" t="s">
         <v>340</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5046,16 +5038,16 @@
         <v>341</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B70" s="40"/>
       <c r="C70" s="40" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D70" s="40">
         <v>1877</v>
@@ -5064,24 +5056,24 @@
         <v>1905</v>
       </c>
       <c r="F70" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="G70" t="s">
+        <v>760</v>
+      </c>
+      <c r="H70" s="40" t="s">
         <v>761</v>
-      </c>
-      <c r="G70" t="s">
-        <v>762</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D71" s="2">
         <v>1842</v>
@@ -5090,18 +5082,18 @@
         <v>1916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -5116,18 +5108,18 @@
         <v>1945</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G72" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -5142,22 +5134,22 @@
         <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D74" s="2">
         <v>1847</v>
@@ -5166,22 +5158,22 @@
         <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D75" s="2">
         <v>1854</v>
@@ -5190,24 +5182,24 @@
         <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G75" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D76" s="2">
         <v>1850</v>
@@ -5216,24 +5208,24 @@
         <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D77" s="2">
         <v>1852</v>
@@ -5242,21 +5234,21 @@
         <v>1910</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>157</v>
@@ -5268,13 +5260,13 @@
         <v>1914</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G78" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5300,7 +5292,7 @@
         <v>342</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5326,7 +5318,7 @@
         <v>343</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5350,7 +5342,7 @@
         <v>344</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5374,7 +5366,7 @@
         <v>345</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -5394,13 +5386,13 @@
         <v>1937</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G83" t="s">
         <v>346</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5426,7 +5418,7 @@
         <v>348</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -5446,16 +5438,16 @@
         <v>1921</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G85" t="s">
         <v>347</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>138</v>
       </c>
@@ -5476,7 +5468,7 @@
         <v>349</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5502,7 +5494,7 @@
         <v>351</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5522,13 +5514,13 @@
         <v>1918</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G88" t="s">
         <v>352</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5548,13 +5540,13 @@
         <v>1962</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G89" t="s">
         <v>353</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5574,13 +5566,13 @@
         <v>1939</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G90" t="s">
         <v>354</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -5600,13 +5592,13 @@
         <v>1920</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G91" t="s">
         <v>355</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5632,7 +5624,7 @@
         <v>356</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,7 +5650,7 @@
         <v>357</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5678,13 +5670,13 @@
         <v>1908</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G94" t="s">
         <v>358</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5704,13 +5696,13 @@
         <v>1926</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G95" t="s">
         <v>359</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5730,13 +5722,13 @@
         <v>1945</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G96" t="s">
         <v>360</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>472</v>
+        <v>763</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5756,7 +5748,7 @@
         <v>1929</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G97" t="s">
         <v>361</v>
@@ -5782,7 +5774,7 @@
         <v>1910</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G98" t="s">
         <v>362</v>
@@ -5808,7 +5800,7 @@
         <v>1916</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G99" t="s">
         <v>363</v>
@@ -5838,12 +5830,12 @@
         <v>364</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>119</v>
@@ -5878,7 +5870,7 @@
         <v>1931</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G102" t="s">
         <v>365</v>
@@ -5904,13 +5896,13 @@
         <v>1914</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G103" t="s">
         <v>366</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5950,7 +5942,7 @@
         <v>367</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5970,7 +5962,7 @@
         <v>1910</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G106" t="s">
         <v>368</v>
@@ -5994,7 +5986,7 @@
         <v>1918</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G107" t="s">
         <v>369</v>
@@ -6018,7 +6010,7 @@
         <v>1908</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G108" t="s">
         <v>370</v>
@@ -6082,7 +6074,7 @@
         <v>1917</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G111" t="s">
         <v>371</v>
@@ -6122,7 +6114,7 @@
         <v>1927</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G113" t="s">
         <v>372</v>
@@ -6146,13 +6138,13 @@
         <v>1932</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G114" t="s">
         <v>373</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -6160,7 +6152,7 @@
         <v>193</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>194</v>
@@ -6172,13 +6164,13 @@
         <v>1914</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G115" t="s">
         <v>374</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6204,7 +6196,7 @@
         <v>375</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6230,7 +6222,7 @@
         <v>376</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6250,7 +6242,7 @@
         <v>1914</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G118" t="s">
         <v>377</v>
@@ -6276,7 +6268,7 @@
         <v>1933</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G119" t="s">
         <v>378</v>
@@ -6308,7 +6300,7 @@
         <v>379</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6328,7 +6320,7 @@
         <v>1951</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12" t="s">
@@ -6378,13 +6370,13 @@
         <v>1907</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G123" t="s">
         <v>381</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -6404,13 +6396,13 @@
         <v>1921</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G124" t="s">
         <v>382</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -6430,7 +6422,7 @@
         <v>1926</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G125" t="s">
         <v>383</v>
@@ -6456,7 +6448,7 @@
         <v>1913</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G126" t="s">
         <v>384</v>
@@ -6482,7 +6474,7 @@
         <v>1914</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G127" t="s">
         <v>385</v>
@@ -6508,7 +6500,7 @@
         <v>1934</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G128" t="s">
         <v>386</v>
@@ -6534,7 +6526,7 @@
         <v>1936</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G129" t="s">
         <v>387</v>
@@ -6584,7 +6576,7 @@
         <v>1917</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G131" t="s">
         <v>389</v>
@@ -6614,7 +6606,7 @@
         <v>390</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6632,7 +6624,7 @@
         <v>1943</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G133" t="s">
         <v>392</v>
@@ -6658,7 +6650,7 @@
         <v>1907</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G134" t="s">
         <v>394</v>
@@ -6669,7 +6661,7 @@
     </row>
     <row r="135" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>262</v>
@@ -6684,13 +6676,13 @@
         <v>1921</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G135" s="35" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6734,13 +6726,13 @@
         <v>241</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G137" t="s">
         <v>396</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6758,13 +6750,13 @@
         <v>1915</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G138" t="s">
         <v>397</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6784,7 +6776,7 @@
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6810,7 +6802,7 @@
         <v>398</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -6830,7 +6822,7 @@
         <v>1895</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G141" t="s">
         <v>400</v>
@@ -6856,7 +6848,7 @@
         <v>1927</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G142" t="s">
         <v>401</v>
@@ -6882,7 +6874,7 @@
         <v>1916</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G143" t="s">
         <v>402</v>
@@ -6908,7 +6900,7 @@
         <v>1913</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G144" t="s">
         <v>403</v>
@@ -6940,7 +6932,7 @@
         <v>404</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6960,7 +6952,7 @@
         <v>1926</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G146" t="s">
         <v>405</v>
@@ -6986,7 +6978,7 @@
         <v>1921</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G147" s="14"/>
       <c r="H147" s="14" t="s">
@@ -7010,7 +7002,7 @@
         <v>1940</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G148" t="s">
         <v>406</v>
@@ -7064,7 +7056,7 @@
         <v>408</v>
       </c>
       <c r="H150" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7084,7 +7076,7 @@
         <v>1945</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G151" t="s">
         <v>409</v>
@@ -7110,13 +7102,13 @@
         <v>1925</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G152" t="s">
         <v>412</v>
       </c>
       <c r="H152" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7134,13 +7126,13 @@
         <v>1921</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G153" t="s">
         <v>413</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7160,13 +7152,13 @@
         <v>1927</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G154" t="s">
         <v>414</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7184,13 +7176,13 @@
         <v>1941</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G155" t="s">
         <v>415</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -7210,13 +7202,13 @@
         <v>1934</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G156" t="s">
         <v>416</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7242,7 +7234,7 @@
         <v>417</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="939">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -33,9 +41,6 @@
     <t xml:space="preserve">Dawid </t>
   </si>
   <si>
-    <t>1875-1914 MgalLt, 1881-1909 u. 1911-1918 MöAH (Polenklub), 20.11.1907-3.3.1909 M. o. P. (Galizien)</t>
-  </si>
-  <si>
     <t>Adler</t>
   </si>
   <si>
@@ -45,18 +50,12 @@
     <t>Victor</t>
   </si>
   <si>
-    <t>1889 Gründer d. "Arbeiter-Zeitung", 1901 MnöLt, 1905-1918 MöAH (soz.dem.), 30.X.1918-11.XI.1918 österr. Staatssekr. d. Äußern</t>
-  </si>
-  <si>
     <t>Amruš</t>
   </si>
   <si>
     <t>Milan</t>
   </si>
   <si>
-    <t>1890-1892 u. 1904-1910 Bürgermeister von Agram</t>
-  </si>
-  <si>
     <t>Andrássy</t>
   </si>
   <si>
@@ -66,18 +65,12 @@
     <t>Gyula</t>
   </si>
   <si>
-    <t>1906-17.1.1910 ungar. Innenminister, 24.10.-2.11.1918 österr.-ungar. Außenminister</t>
-  </si>
-  <si>
     <t>Apponyi</t>
   </si>
   <si>
     <t>Albert</t>
   </si>
   <si>
-    <t>1872 MuAH, 8.4.1906-17.1.1910 u. 15.6.1917-8.5.1918 ungar. Unterrichtsminister</t>
-  </si>
-  <si>
     <t>Bülow</t>
   </si>
   <si>
@@ -96,9 +89,6 @@
     <t>Bernhard</t>
   </si>
   <si>
-    <t xml:space="preserve">1900-1909 dt. Reichskanzler, 1914-1915 ao. Botschafter in Rom </t>
-  </si>
-  <si>
     <t>Buquoy</t>
   </si>
   <si>
@@ -108,9 +98,6 @@
     <t>Ferdinand</t>
   </si>
   <si>
-    <t>26.10.1904-2.6.1906 österr. Ackerbauminister</t>
-  </si>
-  <si>
     <t>Bylandt-Rheidt</t>
   </si>
   <si>
@@ -133,9 +120,6 @@
   </si>
   <si>
     <t>Leo</t>
-  </si>
-  <si>
-    <t>1890-1894 dt. Reichskanzler</t>
   </si>
   <si>
     <t>Chiari</t>
@@ -194,9 +178,6 @@
     <t>Ignacy</t>
   </si>
   <si>
-    <t>1897-1918 MöAH (poln. Sozialdem.), 1918 poln. Ministerpräs. u. Außenminister, 1920 stellv. Ministerpräs., 1928-1930 Marschall des Sejm</t>
-  </si>
-  <si>
     <t>Demelius</t>
   </si>
   <si>
@@ -224,9 +205,6 @@
     <t>Friedrich Karl</t>
   </si>
   <si>
-    <t>1897-1907 MöAH (böhm. kons. Großgrundbesitzer), 1900-1913 MböhmLt</t>
-  </si>
-  <si>
     <t>Dzieduszycki</t>
   </si>
   <si>
@@ -266,9 +244,6 @@
     <t>Géza</t>
   </si>
   <si>
-    <t>General d. Inf., 1884-1903 ungar. Landesverteidigungsminister, 18.6.1905-8.4.1906 ungar. Ministerpräs.</t>
-  </si>
-  <si>
     <t>Francke</t>
   </si>
   <si>
@@ -320,9 +295,6 @@
     <t xml:space="preserve">von </t>
   </si>
   <si>
-    <t>18.6.-18.10.1905 ungar. Ackerbauminister</t>
-  </si>
-  <si>
     <t>Herold</t>
   </si>
   <si>
@@ -335,9 +307,6 @@
     <t>Theodor/Tivadar</t>
   </si>
   <si>
-    <t>Red. "Neue Freie Presse", 1874 Mitbegr. Gesellschaft österreichischer Volkswirte, 1879-1896 Begr. u. Hg. "Wiener Allgemeine Zeitung"</t>
-  </si>
-  <si>
     <t>Hieronymi</t>
   </si>
   <si>
@@ -347,9 +316,6 @@
     <t xml:space="preserve">Karl </t>
   </si>
   <si>
-    <t>1903-1905 u. 1910-1911 ungar. Handelsminister</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hofmann </t>
   </si>
   <si>
@@ -386,9 +352,6 @@
     <t>Gyula/Julius</t>
   </si>
   <si>
-    <t>1884-1917 MuAH (Führer der Unabhängigkeitspartei), 1905-1909 Präs. d. ungar. AH</t>
-  </si>
-  <si>
     <t>Kornfeld</t>
   </si>
   <si>
@@ -398,27 +361,15 @@
     <t>Sigmund</t>
   </si>
   <si>
-    <t>1878 Dir. u. 1900 Gen.Dir. d. Ungar. Allg. Kreditbank, 1902-1909 MuMH</t>
-  </si>
-  <si>
     <t>Kosel</t>
   </si>
   <si>
-    <t>Mansuet</t>
-  </si>
-  <si>
-    <t>1900 Dir. d. Postsparkassenamtes, 26.10.1904-2.6.1906 österr. Finanzminister</t>
-  </si>
-  <si>
     <t>Kossuth</t>
   </si>
   <si>
     <t>Ferenc</t>
   </si>
   <si>
-    <t>Eisenbahningenieur, 1895 MuAH (1897 Führer der Unabhängigkeitspartei), 8.4.1906-17.1.1910 ungar. Handelsminister</t>
-  </si>
-  <si>
     <t>Lajos</t>
   </si>
   <si>
@@ -437,9 +388,6 @@
     <t xml:space="preserve">von Csejte </t>
   </si>
   <si>
-    <t>18.6.1905-8.4.1906 ungar. Innenminister</t>
-  </si>
-  <si>
     <t>Kuenburg</t>
   </si>
   <si>
@@ -461,9 +409,6 @@
     <t>von Káposztafalva</t>
   </si>
   <si>
-    <t>1905-1906 ungar. Justizminister</t>
-  </si>
-  <si>
     <t>Larisch-Moennich</t>
   </si>
   <si>
@@ -488,9 +433,6 @@
     <t>Alois (Louis)</t>
   </si>
   <si>
-    <t xml:space="preserve">1906-1910 Bezirkshauptmann von Marienbad, Statthaltereirat </t>
-  </si>
-  <si>
     <t>Lindau</t>
   </si>
   <si>
@@ -533,9 +475,6 @@
     <t xml:space="preserve">Félix Jules </t>
   </si>
   <si>
-    <t>1896-1898 franz. Premierminister</t>
-  </si>
-  <si>
     <t>Nepomuk (Muki)</t>
   </si>
   <si>
@@ -561,9 +500,6 @@
   </si>
   <si>
     <t>Teodor/Tivadar</t>
-  </si>
-  <si>
-    <t>1903-1907 Banus (Vizekönig) von Kroatien</t>
   </si>
   <si>
     <t>Pergelt</t>
@@ -662,9 +598,6 @@
     <t>Mauriz</t>
   </si>
   <si>
-    <t>1903-1909 Sektionschef im österr. Handelsminister, 1909-1913 im österr.-ungar. Außenministerium, 3.11.1911-20.9.1912 österr. Handelsminister</t>
-  </si>
-  <si>
     <t>Rohan</t>
   </si>
   <si>
@@ -686,9 +619,6 @@
     <t>Schäffle</t>
   </si>
   <si>
-    <t>1860 Prof. f. Volkswirtschaft Univ. Tübingen, 1862-1865 Abg. württembergischer Landtag, 1868 Prof. f. Politikwissenschaft Univ. Wien, 1871 österr. Handelsminister u. Ackerbauminister</t>
-  </si>
-  <si>
     <t>Schalk</t>
   </si>
   <si>
@@ -773,9 +703,6 @@
     <t>Josip Juraj</t>
   </si>
   <si>
-    <t>1849 Bischof von Đakovo, Bosnien und Syrmien mit Sitz in Đakovo, 1860-1873 MuAH (Führer der Kroatischen Volkspartei)</t>
-  </si>
-  <si>
     <t>Stürgkh</t>
   </si>
   <si>
@@ -803,9 +730,6 @@
     <t>Freiherr (1918)</t>
   </si>
   <si>
-    <t>Staatssekretär im ungar. Handelsministerium, 1906-1918 MuAH, 1917-1918 ungar. Handelsminister, 1920-26 Abg. ungar. Parlament</t>
-  </si>
-  <si>
     <t>Taaffe</t>
   </si>
   <si>
@@ -836,9 +760,6 @@
     <t>1918 (ermordet)</t>
   </si>
   <si>
-    <t>3.11.1903-18.6.1905 u. 10.6.1913-15.6.1917 ungar. Ministerpräsident</t>
-  </si>
-  <si>
     <t>Tollinger</t>
   </si>
   <si>
@@ -911,9 +832,6 @@
     <t xml:space="preserve">Aladár </t>
   </si>
   <si>
-    <t>1906-1910 u. 1917-1918 ungar. Minister am allerh. Hoflager</t>
-  </si>
-  <si>
     <t>Nachname</t>
   </si>
   <si>
@@ -1004,9 +922,6 @@
     <t>https://d-nb.info/gnd/136192165</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/116095660</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/119285320</t>
   </si>
   <si>
@@ -1025,9 +940,6 @@
     <t>https://d-nb.info/gnd/116697407</t>
   </si>
   <si>
-    <t xml:space="preserve">1881-1893 Chefred. "Münchener Neueste Nachrichten", ab 1896 Hg. "Soziale Praxis", Sozialpolitiker </t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/116847034</t>
   </si>
   <si>
@@ -1367,9 +1279,6 @@
     <t>GrabmayrKarl</t>
   </si>
   <si>
-    <t>GroßGustav</t>
-  </si>
-  <si>
     <t>VetterMoritz</t>
   </si>
   <si>
@@ -1538,9 +1447,6 @@
     <t xml:space="preserve">Franz Joseph I. </t>
   </si>
   <si>
-    <t>2.12.1848-21.11.1916 Kaiser von Österreich, König von Ungarn</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/118535013</t>
   </si>
   <si>
@@ -1658,6 +1564,9 @@
     <t>ZichyAladar</t>
   </si>
   <si>
+    <t>FuerstenbergMax Egon</t>
+  </si>
+  <si>
     <t>GoluchowskiAgenor</t>
   </si>
   <si>
@@ -1670,9 +1579,6 @@
     <t>Kaufmann</t>
   </si>
   <si>
-    <t>1906-1923 Präs. d. deutschen Reichsversicherungsamtes</t>
-  </si>
-  <si>
     <t>Khevenhüller-Metsch</t>
   </si>
   <si>
@@ -1733,9 +1639,6 @@
     <t>KathreinTheodor</t>
   </si>
   <si>
-    <t>KhevenhüllerAlfred</t>
-  </si>
-  <si>
     <t>KienmannEmerich</t>
   </si>
   <si>
@@ -1782,9 +1685,6 @@
   </si>
   <si>
     <t>https://d-nb.info/gnd/118632892</t>
-  </si>
-  <si>
-    <t>KaiserWilhelmII.</t>
   </si>
   <si>
     <t>Beck</t>
@@ -1978,21 +1878,12 @@
     <t xml:space="preserve">  https://d-nb.info/gnd/1157617565</t>
   </si>
   <si>
-    <t>BažantJohann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1862-1890 Ministerpräsident des Königreichs Preußen, 1871-1890 Reichskanzler des Deutschen Reichs </t>
-  </si>
-  <si>
     <t>Bezerdy</t>
   </si>
   <si>
     <t>https://d-nb.info/gnd/118660691</t>
   </si>
   <si>
-    <t>1848-1851 Handelsminister, 1855-1860 Finanzminister</t>
-  </si>
-  <si>
     <t>Karl Ludwig</t>
   </si>
   <si>
@@ -2020,21 +1911,12 @@
     <t>Franz I. (II.)</t>
   </si>
   <si>
-    <t>1792-1806 Kaiser des Hl. Römischen Reiches, 1895-1835 Kaiser von Österreich</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/118534955</t>
   </si>
   <si>
     <t>KaiserFranz</t>
   </si>
   <si>
-    <t>1888-1918 Deutscher Kaiser und König von Preußen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feldherr, 1848-1859 Banus von Kroatien, Feldzeugmeister </t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/118713434https://d-nb.info/gnd/118713434</t>
   </si>
   <si>
@@ -2059,383 +1941,993 @@
     <t>1848–1852 franz. Staatspräs. u. 1852–1870 französischer Kaiser</t>
   </si>
   <si>
-    <t>1882 Landespräsident von Schlesien, 1886-1893 österr. Handelsminister, 1893-1895 Innenminister, ab 1895 MöHH (Mittelpartei), 1895-1898 Statthalter der Steiermark, 1908-1917 Präsident des Verwaltungsgerichtshofs</t>
-  </si>
-  <si>
-    <t>1848-49 österr. Justizminister,  1849-1859 Innenminister, 1859-1865 Botschafter am Hl. Stuhl</t>
-  </si>
-  <si>
     <t>1888 Statthalter im Königreich Galizien und Lodomerien, 1895–1897 Ministerpräs.</t>
   </si>
   <si>
     <t>Freiherr von Dr.</t>
   </si>
   <si>
-    <t>2.6.1906-5.11.1908 österr. Ministerpräsident, 1907-1918 MöHH (Mittelpartei), 1915-1919 Präs. des Obersten Rechnungshofs</t>
-  </si>
-  <si>
-    <t>1872-1878 MmährLt, 1873-1876 u. 1895-1897 MöAH (u.a. Vereinigte deutsche Linke), Sektionschef im Handelsministerium</t>
-  </si>
-  <si>
-    <t>1878-1883 u.1901-1913 MböhmLt, 1885–1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 7.3.-3.10.1898 Handelsminister, 1907–1918 MöHH (Verfassungspartei), 20.12.1916-23.6.1917 Minister o. P. (Vorbereitung des Sozial- und Gesundheitsminsiteriums)</t>
-  </si>
-  <si>
-    <t>19.6.-30.9.1895, 30.11.1897-5.3.1998 u. 19.1.1900-26.10.1904 Finanzminister, 1899-1914 MöHH (fraktionslos), 1904-1914 o. Prof. f. politische Ökonomie Univ. Wien</t>
-  </si>
-  <si>
-    <t>30.11.1897-5.3.1898 österr. Ackerbauminister, 7.3.1898-2.10.1899 Unterrichtsminister, 1902 Statthalter von OÖ, 1.1.1905-2.5.1906 Innenminister, 1900-1915 MöHH (Mittelpartei)</t>
-  </si>
-  <si>
-    <t>19.1.1900-11.9.1905 österr. Handelsminister, 1909-1911 Botschafter in Tokio</t>
-  </si>
-  <si>
-    <t>Industrieller, 1897-1911 MöAH (u.a Deutsche Volkspartei), 1912 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1865-1906 MmährLt, 25.11.1871-19.5.1875 österr. Ackerbauminister, 19.5.1875-12.8.1879 Handelsminister, 1870-1879, 1880-1897 MöAH (u.a. Vereinigte Deutsche Linke), 1893-1897 Präs. d. öAH, 1897-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1902-1918 MöHH (Gruppe der Rechten), 31.10.-23.6.1917 Ackerbauminister, 20.12.1916-23.6.1917 Ministerpräs.</t>
-  </si>
-  <si>
-    <t>1896-1911 Statthalter in Böhmen</t>
-  </si>
-  <si>
-    <t>1903-1913 MböhmLt, 1912-1918 MöHH (Verfassungspartei), 1913-1916 österr.-ungar. Gesandter in Bukarest, 22.12.1916-16.4.1918 Außenminister</t>
-  </si>
-  <si>
-    <t>1901-1913 MböhmLt, 1897-1917 MöAH (u.a. Verfassungstreuer Großgrundbesitz, deutsche Agrarpartei)</t>
-  </si>
-  <si>
-    <t>1897-1904 o. Prof. f. Zivilrecht Univ. Innsbruck</t>
-  </si>
-  <si>
-    <t>1885-1892 u. 1901-1909 MöAH (u.a. Deutsche Volkspartei), 2.6.1906-15.11.1908 österr. Eisenbahnminister, 1909-1918 Präs. d. österr. Lloyd</t>
-  </si>
-  <si>
-    <t>1877-1895 u. 1901-1909 MgalLt, 1879-1887 u. 1895-1909 MöAH (Polenklub), 1896 ao. Prof. f. Geschichte der Philosophie und Ästhetik Univ. Lemberg, 2.6.1906-20.11.1907 österr. Minister o. P. (Galizien)</t>
-  </si>
-  <si>
-    <t>Gutsbesitzer, 1896-1918 MnöLt, 1897-1907 MöAH (Verfassungstreuer Großgrundbesitzer), 1917-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>Rechtsanwalt in Innsbruck, 1901-1908 u. 1911-1918 MöAH (u.a. Deutsche Volkspartei)</t>
-  </si>
-  <si>
-    <t>1871 Landeshauptmann OÖ, 12.8.1879-19.6.1893 österr. Ackerbauminister, 1879-1899 MöAH (u.a. Zentrum kons. Großgrundbesitz)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max Egon </t>
   </si>
   <si>
-    <t xml:space="preserve">1886-1918 MöHH (Verfassungspartei) u. 1907-1918 Vizepräs. öHH, ab 1897 MpreußHH, 1901-1907 MböhmLt  </t>
-  </si>
-  <si>
-    <t>5.11.1885-11.11.1893 u. 30.9.1895-28.11.1897 österr. Unterrichtsminister, 28.11.1897-5.3.1898 Ministerpräs. und Leiter des Innenministeriums, 31.12.1904-2.5.1906 und 28.6.-3.11.1911 österr. Ministerpräs., 1899-1904 u. 1906-1911 Präs. d. Obersten Rechnungshofes, 1895-1918 MöHH (Mittelpartei)</t>
-  </si>
-  <si>
-    <t>1891–1911 MöAH (u.a. Christlich-soziale Vereinigung), 1893-1911 Gemeinderat von Wien, 1896-1911 MnöLt,  9.11.1907-21.3.1908 Minister o.P. (deutscher Landsmannminister), 21.3.-15.11.1908 Minister für öffentliche Arbeiten</t>
-  </si>
-  <si>
-    <t>1875-1918 MöHH (Gruppe der Rechten), 1887-1894 österr.-ungar. Gesandter in Bukarest, 16.5.1895-24.10.1906 österr.-ungar. Außenminister</t>
-  </si>
-  <si>
     <t>von Angerheim Dr. iur.</t>
   </si>
   <si>
-    <t>1889-1918 MöAH (u.a. deutsch-fortschrittliche Vereinigung) u. 1917-1918 Präs. öAH,  1902-1912 MmährLt, 1905-1925 Obmann des Deutschen Schulvereins</t>
-  </si>
-  <si>
-    <t>1872 o. Prof. f. Klassische Philologie Univ. Wien, 1890-1891 Rektor, 1891-1896 Direktor der Hofbibliothek, 19.1.1900-11.9.1905 österr. Unterrichtsminister, 1891-1907 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1900–1944 Abt von Stift Tepl, 1901-1913 MböhmLt, 1905-1918 MöHH (Mittelpartei)</t>
-  </si>
-  <si>
     <t>Dr. phil. von</t>
   </si>
   <si>
-    <t>1883-1908 MböhmLt, 1888-1908 MöAH (u.a. Klub der böhm. Abgeordneten)</t>
-  </si>
-  <si>
-    <t>1873 Lehrer an Lehrerbildungsanstalt in Brünn, 1876 Prof. Oberralschule in Troppau, 1885-1899 Gemeinderat von Troppau, 1897-1904 MöAH (Deutsche Volkspartei)</t>
-  </si>
-  <si>
-    <t>4.2.-30.10.1871 Innenminister u.ab 6.2.1871 Vorsitzender des Ministerrats, 1873-1897 MöAH (Klub des rechten Zentrums, Klub der Konservativen), 1897-1899 MöHH (Gruppe der Rechten), 1885-1899 Präsident des Obersten Rechnungshofes</t>
-  </si>
-  <si>
-    <t>1903 Landespräs. der Bukowina, 2.5.-2.6.1906 österr. Ministerpräs. u. Innenminister, 1904-1906 u. 1906-1915 Statthalter in Triest, 1915 Präs. d. Obersten Rechnungshofes, 1.12.1915-27.8.1916 österr. Innenminister, 2.-22.12.1916 österr.-ungar. Finanzminister, 1917 Erster Obersthofmeister, 1916-1918 MöHH (fraktionslos)</t>
-  </si>
-  <si>
-    <t>Journalist, 1911-1919 Hg. "Deutsche soziale Rundschau",  1907-1918 MöAH (u.a. Deutsche Agrarpartei u. Deutsche Volkspartei)</t>
-  </si>
-  <si>
-    <t>1892-1912 MtirLt, 1897-1907 MöAH (Verfassungstreuer Großgrundbesitz), 1907-1918 MöHH (Verfassungspartei), 19131918 Präs. d. Reichsgerichts, 1919-1920 Präs. des Verwaltungsgerichtshofs</t>
-  </si>
-  <si>
-    <t>Advokat, 1883-1916 MtirLt, 1884-1907 MöAH (kath. Volkspartei) u. 1897 Präs. öAH, 1907-1916 MöHH (Gruppe der Rechten)</t>
-  </si>
-  <si>
-    <t>Rittmeister, 1901-1907 MöAH (Verfassungstreuer Großgrundbesitz)</t>
-  </si>
-  <si>
-    <t>1889-1911 Statthalter von NÖ, 1895 österr. Ministerpräs., 1917-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1897-1907 MöAH (Verband d. deutschen Volkspartei)</t>
-  </si>
-  <si>
-    <t>30.11.1897-5.3.1898 österr. Handelsminister, 2.10.-21.12.1899 Innenminister, 18.1.1900-31.12.1904 Ministerpräsident u. Leiter des Innenministeriums, 17.12.1902-31.12.1904 auch des Justizministeriums, 7.2.1915-28.10.1916 Gemeinsamer Finanzminister, 28.10.-20.12.1916 Ministerpräsident, 1899-1918 MöHH (fraktionslos)</t>
-  </si>
-  <si>
-    <t>1907-1910 MöAH (u.a. Deutschnationaler Verband), 1908-1910 MböhmLt</t>
-  </si>
-  <si>
-    <t>1881-1887 Bischof von Fulda, 1886 MpreußHH, 1887-1914 Fürstbischof von Breslau, 1887-1917 MschlesLt, 1887-1914 MöHH (fraktionslos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1891-1916 MöAH (u.a. Böhm. Klub) u. 1897 1. Vizepräs. öAH, 1894-1913 MböhmLt,  Zeitungsherausgeber, 1908 Mitbesitzer der "Národní listy", 1916 von österr. Militärgericht zum Tod verurteilt, 1917 begnadigt, 1918-1919 tschech. Ministerpräs. </t>
-  </si>
-  <si>
-    <t>1888-1897 MöAH (Vereinigte deutsche Linke), 23.12.1891-8.12.1892 österr. Minister o. P. (deutscher Landsmannminister), 1892 Senatspräs. Oberster Gerichtshof, 1897-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1902-1918 MschlesLt, 1904-1907 MöAH (Verfassungstreuer Großgrundbesitz)</t>
-  </si>
-  <si>
-    <t>1884-1918 MschlesLt u. MöHH (Mittelpartei), 1886-1918 schlesischer Landespräsident</t>
-  </si>
-  <si>
-    <t>1889-1906 Sekr. d. Brünner Handels- und Gewerbekammer, 1897-1918 MöAH (u.a. Deutsche Fortschrittspartei)</t>
-  </si>
-  <si>
-    <t>1878-1890 MstmkLt u. 1896-1918 MnöLt, 1906-1918 Landmarschall von NÖ; 1878-89 u. 1891-1911 MöAH (u.a. Zentrum, Christlichsoz.), 1910-1918 Reichsparteiobmann der Christlichsozialen, 1912-1918 MöHH (Mittelpartei)</t>
+    <t>Ritter von Dr. iur.</t>
+  </si>
+  <si>
+    <t>Kaljajew</t>
+  </si>
+  <si>
+    <t>Iwan Platonowitsch</t>
+  </si>
+  <si>
+    <t>Sozialrevolutionär</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/120011468</t>
+  </si>
+  <si>
+    <t>KaljajewIwan</t>
+  </si>
+  <si>
+    <t>BazantJohann</t>
+  </si>
+  <si>
+    <t>GrossGustav</t>
+  </si>
+  <si>
+    <t>KaiserWilhelmII</t>
+  </si>
+  <si>
+    <t>KhevenhuellerAlfred</t>
+  </si>
+  <si>
+    <t>LoeckerJulius</t>
+  </si>
+  <si>
+    <t>Geburtsort</t>
+  </si>
+  <si>
+    <t>Sterbeort</t>
+  </si>
+  <si>
+    <t>Lemberg</t>
+  </si>
+  <si>
+    <t>Prag</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>Slavonski Brod</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>Loosdorf</t>
+  </si>
+  <si>
+    <t>Unterwaltersdorf</t>
+  </si>
+  <si>
+    <t>Troppau</t>
+  </si>
+  <si>
+    <t>Krasne</t>
+  </si>
+  <si>
+    <t>Klausenburg</t>
+  </si>
+  <si>
+    <t>Sermesse</t>
+  </si>
+  <si>
+    <t>Vincelles</t>
+  </si>
+  <si>
+    <t>Schönhausen (Elbe)</t>
+  </si>
+  <si>
+    <t>Friedrichsruh</t>
+  </si>
+  <si>
+    <t>Brünn</t>
+  </si>
+  <si>
+    <t>Kramsach bei Brixlegg</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Chislehurst</t>
+  </si>
+  <si>
+    <t>Neapel</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Klein Flottbek</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Meidling</t>
+  </si>
+  <si>
+    <t>St. Peter bei Görz</t>
+  </si>
+  <si>
+    <t>Baden bei Wien</t>
+  </si>
+  <si>
+    <t>Triest</t>
+  </si>
+  <si>
+    <t>Graz</t>
+  </si>
+  <si>
+    <t>Charlottenburg</t>
+  </si>
+  <si>
+    <t>Messow</t>
+  </si>
+  <si>
+    <t>Hohentauern</t>
+  </si>
+  <si>
+    <t>Zadar</t>
+  </si>
+  <si>
+    <t>Bad Aussee</t>
+  </si>
+  <si>
+    <t>Schloss Clam</t>
+  </si>
+  <si>
+    <t>Meran</t>
+  </si>
+  <si>
+    <t>Dimokur</t>
+  </si>
+  <si>
+    <t>Franzensbad</t>
+  </si>
+  <si>
+    <t>Sbarasch</t>
+  </si>
+  <si>
+    <t>Teschen</t>
+  </si>
+  <si>
+    <t>Krakau</t>
+  </si>
+  <si>
+    <t>Gabelhorn in den Walliser Alpen</t>
+  </si>
+  <si>
+    <t>Jesupil</t>
+  </si>
+  <si>
+    <t>Unter Meidling</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>Josefstadt</t>
+  </si>
+  <si>
+    <t>Coburg</t>
+  </si>
+  <si>
+    <t>Freiburg im Breisgau</t>
+  </si>
+  <si>
+    <t>Schloss Heiligenberg am Bodensee</t>
+  </si>
+  <si>
+    <t>Döbling</t>
+  </si>
+  <si>
+    <t>Prein an der Rax</t>
+  </si>
+  <si>
+    <t>Bozen</t>
+  </si>
+  <si>
+    <t>Chust</t>
+  </si>
+  <si>
+    <t>Florenz</t>
+  </si>
+  <si>
+    <t>Stift Tepl</t>
+  </si>
+  <si>
+    <t>Pest</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>Buda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin </t>
+  </si>
+  <si>
+    <t>Doorn</t>
+  </si>
+  <si>
+    <t>Kammern im Liesingtal</t>
+  </si>
+  <si>
+    <t>Peterwardein</t>
+  </si>
+  <si>
+    <t>Zwittau</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>Warschau</t>
+  </si>
+  <si>
+    <t>Schlüsselburg</t>
+  </si>
+  <si>
+    <t>Salurn</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Osterwitz</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Röschitz</t>
+  </si>
+  <si>
+    <t>Krems</t>
+  </si>
+  <si>
+    <t>Trient</t>
+  </si>
+  <si>
+    <t>Venedig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duderstadt </t>
+  </si>
+  <si>
+    <t>Mansuet Johann</t>
+  </si>
+  <si>
+    <t>Krościenko</t>
+  </si>
+  <si>
+    <t>Monok</t>
+  </si>
+  <si>
+    <t>Turin</t>
+  </si>
+  <si>
+    <t>Bransdorf</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Ebelsberg</t>
+  </si>
+  <si>
+    <t>Schloss Solza b. Karwin</t>
+  </si>
+  <si>
+    <t>Palfau</t>
+  </si>
+  <si>
+    <t>Laibach</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>Gardelegen</t>
+  </si>
+  <si>
+    <t>Mailand</t>
+  </si>
+  <si>
+    <t>St. Agatha</t>
+  </si>
+  <si>
+    <t>Guntersdorf</t>
+  </si>
+  <si>
+    <t>Bad Deutsch-Altenburg</t>
+  </si>
+  <si>
+    <t>Baden (Niederösterreich)</t>
+  </si>
+  <si>
+    <t>Sophienhain b. Obergrund</t>
+  </si>
+  <si>
+    <t>Abtsdorf bei Zwittau</t>
+  </si>
+  <si>
+    <t>Bayerdießen</t>
+  </si>
+  <si>
+    <t>Ansbach</t>
+  </si>
+  <si>
+    <t>Dobřichowitz</t>
+  </si>
+  <si>
+    <t>Nürtingen</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>Innerschwand am Mondsee</t>
+  </si>
+  <si>
+    <t>Heilbronn</t>
+  </si>
+  <si>
+    <t>Bad Harzburg</t>
+  </si>
+  <si>
+    <t>Schloss Rosenau</t>
+  </si>
+  <si>
+    <t>Čimelitz</t>
+  </si>
+  <si>
+    <t>Veldes</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Schloss Schwaigern</t>
+  </si>
+  <si>
+    <t>Bisenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Žitnik </t>
+  </si>
+  <si>
+    <t>Lienz</t>
+  </si>
+  <si>
+    <t>Mariahilf (Niederösterreich)</t>
+  </si>
+  <si>
+    <t>Klagenfurt</t>
+  </si>
+  <si>
+    <t>Villach</t>
+  </si>
+  <si>
+    <t>Purkersdorf</t>
+  </si>
+  <si>
+    <t>Djakovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graz </t>
+  </si>
+  <si>
+    <t>Lengyeltóti</t>
+  </si>
+  <si>
+    <t>Tetschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prag </t>
+  </si>
+  <si>
+    <t>Wilten</t>
+  </si>
+  <si>
+    <t>Oberwaltersdorf</t>
+  </si>
+  <si>
+    <t>Arad</t>
+  </si>
+  <si>
+    <t>Retz</t>
   </si>
   <si>
     <r>
-      <t>1871-1872 u. 1883-1907 Oberstlandmarschall von Böhmen, 1879-1883 MöAH (</t>
+      <t>Dombegyház</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Tachau</t>
+  </si>
+  <si>
+    <t>Eger</t>
+  </si>
+  <si>
+    <t>Nagyláng</t>
+  </si>
+  <si>
+    <t>Elberfeld</t>
+  </si>
+  <si>
+    <t>Frauenkirchen</t>
+  </si>
+  <si>
+    <t>Advokat in Wien, 1892–1910 MöAH (u.a. deutsche Fortschrittspartei), 1895–1910 MböhmLt</t>
+  </si>
+  <si>
+    <t>1875–1914 MgalLt, 1881–1909 u. 1911–1918 MöAH (Polenklub), 20.11.1907–3.3.1909 M. o. P. (Galizien)</t>
+  </si>
+  <si>
+    <t>1889 Gründer d. "Arbeiter–Zeitung", 1901 MnöLt, 1905–1918 MöAH (soz.dem.), 30.X.1918–11.XI.1918 österr. Staatssekr. d. Äußern</t>
+  </si>
+  <si>
+    <t>1890–1892 u. 1904–1910 Bürgermeister von Agram</t>
+  </si>
+  <si>
+    <t>1906–17.1.1910 ungar. Innenminister, 24.10.–2.11.1918 österr.-ungar. Außenminister</t>
+  </si>
+  <si>
+    <t>1872 MuAH, 8.4.1906–17.1.1910 u. 15.6.1917–8.5.1918 ungar. Unterrichtsminister</t>
+  </si>
+  <si>
+    <t>1848–49 österr. Justizminister,  1849–1859 Innenminister, 1859–1865 Botschafter am Hl. Stuhl</t>
+  </si>
+  <si>
+    <t>1882 Landespräsident von Schlesien, 1886–1893 österr. Handelsminister, 1893–1895 Innenminister, ab 1895 MöHH (Mittelpartei), 1895–1898 Statthalter der Steiermark, 1908–1917 Präsident des Verwaltungsgerichtshofs</t>
+  </si>
+  <si>
+    <t>1878–1883 u.1901–1913 MböhmLt, 1885–1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 7.3.–3.10.1898 Handelsminister, 1907–1918 MöHH (Verfassungspartei), 20.12.1916–23.6.1917 Minister o. P. (Vorbereitung des Sozial– und Gesundheitsminsiteriums)</t>
+  </si>
+  <si>
+    <t>1872–1878 MmährLt, 1873–1876 u. 1895–1897 MöAH (u.a. Vereinigte deutsche Linke), Sektionschef im Handelsministerium</t>
+  </si>
+  <si>
+    <t>2.6.1906–5.11.1908 österr. Ministerpräsident, 1907–1918 MöHH (Mittelpartei), 1915–1919 Präs. des Obersten Rechnungshofs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1862–1890 Ministerpräsident des Königreichs Preußen, 1871–1890 Reichskanzler des Deutschen Reichs </t>
+  </si>
+  <si>
+    <t>19.6.–30.9.1895, 30.11.1897–5.3.1998 u. 19.1.1900–26.10.1904 Finanzminister, 1899–1914 MöHH (fraktionslos), 1904–1914 o. Prof. f. politische Ökonomie Univ. Wien</t>
+  </si>
+  <si>
+    <t>1848–1851 Handelsminister, 1855–1860 Finanzminister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1900–1909 dt. Reichskanzler, 1914–1915 ao. Botschafter in Rom </t>
+  </si>
+  <si>
+    <t>26.10.1904–2.6.1906 österr. Ackerbauminister</t>
+  </si>
+  <si>
+    <t>30.11.1897–5.3.1898 österr. Ackerbauminister, 7.3.1898–2.10.1899 Unterrichtsminister, 1902 Statthalter von OÖ, 1.1.1905–2.5.1906 Innenminister, 1900–1915 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t>19.1.1900–11.9.1905 österr. Handelsminister, 1909–1911 Botschafter in Tokio</t>
+  </si>
+  <si>
+    <t>1890–1894 dt. Reichskanzler</t>
+  </si>
+  <si>
+    <t>Industrieller, 1897–1911 MöAH (u.a Deutsche Volkspartei), 1912 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1865–1906 MmährLt, 25.11.1871–19.5.1875 österr. Ackerbauminister, 19.5.1875–12.8.1879 Handelsminister, 1870–1879, 1880–1897 MöAH (u.a. Vereinigte Deutsche Linke), 1893–1897 Präs. d. öAH, 1897–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1902–1918 MöHH (Gruppe der Rechten), 31.10.–23.6.1917 Ackerbauminister, 20.12.1916–23.6.1917 Ministerpräs.</t>
+  </si>
+  <si>
+    <t>1896–1911 Statthalter in Böhmen</t>
+  </si>
+  <si>
+    <t>1901–1913 MböhmLt, 1897–1917 MöAH (u.a. Verfassungstreuer Großgrundbesitz, deutsche Agrarpartei)</t>
+  </si>
+  <si>
+    <t>1897–1918 MöAH (poln. Sozialdem.), 1918 poln. Ministerpräs. u. Außenminister, 1920 stellv. Ministerpräs., 1928–1930 Marschall des Sejm</t>
+  </si>
+  <si>
+    <t>1897–1904 o. Prof. f. Zivilrecht Univ. Innsbruck</t>
+  </si>
+  <si>
+    <t>1885–1892 u. 1901–1909 MöAH (u.a. Deutsche Volkspartei), 2.6.1906–15.11.1908 österr. Eisenbahnminister, 1909–1918 Präs. d. österr. Lloyd</t>
+  </si>
+  <si>
+    <t>1897–1907 MöAH (böhm. kons. Großgrundbesitzer), 1900–1913 MböhmLt</t>
+  </si>
+  <si>
+    <t>1877–1895 u. 1901–1909 MgalLt, 1879–1887 u. 1895–1909 MöAH (Polenklub), 1896 ao. Prof. f. Geschichte der Philosophie und Ästhetik Univ. Lemberg, 2.6.1906–20.11.1907 österr. Minister o. P. (Galizien)</t>
+  </si>
+  <si>
+    <t>Gutsbesitzer, 1896–1918 MnöLt, 1897–1907 MöAH (Verfassungstreuer Großgrundbesitzer), 1917–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>Rechtsanwalt in Innsbruck, 1901–1908 u. 1911–1918 MöAH (u.a. Deutsche Volkspartei)</t>
+  </si>
+  <si>
+    <t>1871 Landeshauptmann OÖ, 12.8.1879–19.6.1893 österr. Ackerbauminister, 1879–1899 MöAH (u.a. Zentrum kons. Großgrundbesitz)</t>
+  </si>
+  <si>
+    <t>General d. Inf., 1884–1903 ungar. Landesverteidigungsminister, 18.6.1905–8.4.1906 ungar. Ministerpräs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1881–1893 Chefred. "Münchener Neueste Nachrichten", ab 1896 Hg. "Soziale Praxis", Sozialpolitiker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1886–1918 MöHH (Verfassungspartei) u. 1907–1918 Vizepräs. öHH, ab 1897 MpreußHH, 1901–1907 MböhmLt  </t>
+  </si>
+  <si>
+    <t>5.11.1885–11.11.1893 u. 30.9.1895–28.11.1897 österr. Unterrichtsminister, 28.11.1897–5.3.1898 Ministerpräs. und Leiter des Innenministeriums, 31.12.1904–2.5.1906 und 28.6.–3.11.1911 österr. Ministerpräs., 1899–1904 u. 1906–1911 Präs. d. Obersten Rechnungshofes, 1895–1918 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t>1891–1911 MöAH (u.a. Christlich–soziale Vereinigung), 1893–1911 Gemeinderat von Wien, 1896–1911 MnöLt,  9.11.1907–21.3.1908 Minister o.P. (deutscher Landsmannminister), 21.3.–15.11.1908 Minister für öffentliche Arbeiten</t>
+  </si>
+  <si>
+    <t>1892–1912 MtirLt, 1897–1907 MöAH (Verfassungstreuer Großgrundbesitz), 1907–1918 MöHH (Verfassungspartei), 19131918 Präs. d. Reichsgerichts, 1919–1920 Präs. des Verwaltungsgerichtshofs</t>
+  </si>
+  <si>
+    <t>1889–1918 MöAH (u.a. deutsch–fortschrittliche Vereinigung) u. 1917–1918 Präs. öAH,  1902–1912 MmährLt, 1905–1925 Obmann des Deutschen Schulvereins</t>
+  </si>
+  <si>
+    <t>18.6.–18.10.1905 ungar. Ackerbauminister</t>
+  </si>
+  <si>
+    <t>1792–1806 Kaiser des Hl. Römischen Reiches, 1895–1835 Kaiser von Österreich</t>
+  </si>
+  <si>
+    <t>2.12.1848–21.11.1916 Kaiser von Österreich, König von Ungarn</t>
+  </si>
+  <si>
+    <t>1872 o. Prof. f. Klassische Philologie Univ. Wien, 1890–1891 Rektor, 1891–1896 Direktor der Hofbibliothek, 19.1.1900–11.9.1905 österr. Unterrichtsminister, 1891–1907 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1900–1944 Abt von Stift Tepl, 1901–1913 MböhmLt, 1905–1918 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t>1883–1908 MböhmLt, 1888–1908 MöAH (u.a. Klub der böhm. Abgeordneten)</t>
+  </si>
+  <si>
+    <t>Red. "Neue Freie Presse", 1874 Mitbegr. Gesellschaft österreichischer Volkswirte, 1879–1896 Begr. u. Hg. "Wiener Allgemeine Zeitung"</t>
+  </si>
+  <si>
+    <t>1903–1905 u. 1910–1911 ungar. Handelsminister</t>
+  </si>
+  <si>
+    <t>1873 Lehrer an Lehrerbildungsanstalt in Brünn, 1876 Prof. Oberralschule in Troppau, 1885–1899 Gemeinderat von Troppau, 1897–1904 MöAH (Deutsche Volkspartei)</t>
+  </si>
+  <si>
+    <t>4.2.–30.10.1871 Innenminister u.ab 6.2.1871 Vorsitzender des Ministerrats, 1873–1897 MöAH (Klub des rechten Zentrums, Klub der Konservativen), 1897–1899 MöHH (Gruppe der Rechten), 1885–1899 Präsident des Obersten Rechnungshofes</t>
+  </si>
+  <si>
+    <t>1888–1918 Deutscher Kaiser und König von Preußen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feldherr, 1848–1859 Banus von Kroatien, Feldzeugmeister </t>
+  </si>
+  <si>
+    <t>Journalist, 1911–1919 Hg. "Deutsche soziale Rundschau",  1907–1918 MöAH (u.a. Deutsche Agrarpartei u. Deutsche Volkspartei)</t>
+  </si>
+  <si>
+    <t>1884–1917 MuAH (Führer der Unabhängigkeitspartei), 1905–1909 Präs. d. ungar. AH</t>
+  </si>
+  <si>
+    <t>Advokat, 1883–1916 MtirLt, 1884–1907 MöAH (kath. Volkspartei) u. 1897 Präs. öAH, 1907–1916 MöHH (Gruppe der Rechten)</t>
+  </si>
+  <si>
+    <t>1906–1923 Präs. d. deutschen Reichsversicherungsamtes</t>
+  </si>
+  <si>
+    <t>Rittmeister, 1901–1907 MöAH (Verfassungstreuer Großgrundbesitz)</t>
+  </si>
+  <si>
+    <t>1889–1911 Statthalter von NÖ, 1895 österr. Ministerpräs., 1917–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1897–1907 MöAH (Verband d. deutschen Volkspartei)</t>
+  </si>
+  <si>
+    <t>30.11.1897–5.3.1898 österr. Handelsminister, 2.10.–21.12.1899 Innenminister, 18.1.1900–31.12.1904 Ministerpräsident u. Leiter des Innenministeriums, 17.12.1902–31.12.1904 auch des Justizministeriums, 7.2.1915–28.10.1916 Gemeinsamer Finanzminister, 28.10.–20.12.1916 Ministerpräsident, 1899–1918 MöHH (fraktionslos)</t>
+  </si>
+  <si>
+    <t>1907–1910 MöAH (u.a. Deutschnationaler Verband), 1908–1910 MböhmLt</t>
+  </si>
+  <si>
+    <t>1881–1887 Bischof von Fulda, 1886 MpreußHH, 1887–1914 Fürstbischof von Breslau, 1887–1917 MschlesLt, 1887–1914 MöHH (fraktionslos)</t>
+  </si>
+  <si>
+    <t>1878 Dir. u. 1900 Gen.Dir. d. Ungar. Allg. Kreditbank, 1902–1909 MuMH</t>
+  </si>
+  <si>
+    <t>1900 Dir. d. Postsparkassenamtes, 26.10.1904–2.6.1906 österr. Finanzminister</t>
+  </si>
+  <si>
+    <t>Eisenbahningenieur, 1895 MuAH (1897 Führer der Unabhängigkeitspartei), 8.4.1906–17.1.1910 ungar. Handelsminister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1891–1916 MöAH (u.a. Böhm. Klub) u. 1897 1. Vizepräs. öAH, 1894–1913 MböhmLt,  Zeitungsherausgeber, 1908 Mitbesitzer der "Národní listy", 1916 von österr. Militärgericht zum Tod verurteilt, 1917 begnadigt, 1918–1919 tschech. Ministerpräs. </t>
+  </si>
+  <si>
+    <t>18.6.1905–8.4.1906 ungar. Innenminister</t>
+  </si>
+  <si>
+    <t>1888–1897 MöAH (Vereinigte deutsche Linke), 23.12.1891–8.12.1892 österr. Minister o. P. (deutscher Landsmannminister), 1892 Senatspräs. Oberster Gerichtshof, 1897–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1905–1906 ungar. Justizminister</t>
+  </si>
+  <si>
+    <t>1884–1918 MschlesLt u. MöHH (Mittelpartei), 1886–1918 schlesischer Landespräsident</t>
+  </si>
+  <si>
+    <t>1902–1918 MschlesLt, 1904–1907 MöAH (Verfassungstreuer Großgrundbesitz)</t>
+  </si>
+  <si>
+    <t>1889–1906 Sekr. d. Brünner Handels– und Gewerbekammer, 1897–1918 MöAH (u.a. Deutsche Fortschrittspartei)</t>
+  </si>
+  <si>
+    <t>1878–1890 MstmkLt u. 1896–1918 MnöLt, 1906–1918 Landmarschall von NÖ; 1878–89 u. 1891–1911 MöAH (u.a. Zentrum, Christlichsoz.), 1910–1918 Reichsparteiobmann der Christlichsozialen, 1912–1918 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1906–1910 Bezirkshauptmann von Marienbad, Statthaltereirat </t>
+  </si>
+  <si>
+    <t>1871–1872 u. 1883–1907 Oberstlandmarschall von Böhmen, 1879–1883 MöAH (Český club, kons. Großgrundbesitz)</t>
+  </si>
+  <si>
+    <t>1883–1908 MböhmLt, 1882–1883 MöAH (Český club, kons. Großgrundbesitz), 1892–1918 MöHH Gruppe der Rechten), 1908–1913 Oberstlandmarschall von Böhmen</t>
+  </si>
+  <si>
+    <t>Advokat in Linz, 1901–1907 MöAH (Deutsche Volkspartei), 1920–1929 Senatspräs. am Verwaltungsgerichtshof</t>
+  </si>
+  <si>
+    <t>Gutsbesitzer in Deutsch–Altenburg, 1885–1907 MöAH (Verfassungstreuer Großgrundbesitzer), 1907–1918 MöHH (fraktionslos)</t>
+  </si>
+  <si>
+    <t>1885–1910 MöAH (Chistlichsoz. Vereinigung), 1890–1910 MnöLt, 1897–1910 Wiener Bürgermeister</t>
+  </si>
+  <si>
+    <t>1883 o. Prof. f. Verwaltungs– und Rechtslehre Hochschule für Bodenkultur Wien, mehrmals Rektor, 1891–1897 u. 1901–1907 MöAH (Vereinigte Deutsche Linke, Deutsche Fortschrittspartei), 1902–1908 MnöLt, 2.6.1906–15.11.1908 österr. Unterrichtsminister, 1907–1916 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1896–1898 franz. Premierminister</t>
+  </si>
+  <si>
+    <t>1891–1918 MöHH (Mittelpartei), 1901–1913 MböhmLt</t>
+  </si>
+  <si>
+    <t>1891–1914 MöAH (u.a. Klub der freisinnigen nationalen böhmischen Abgeordneten), 1889–1913 MböhmLt, 2.6.1906–9.11.1907 Minister o.P. (tschechischer Landsmannminister)</t>
+  </si>
+  <si>
+    <t>1903–1907 Banus (Vizekönig) von Kroatien</t>
+  </si>
+  <si>
+    <t>1881–1904 Hg. "Deutsche Worte", 1885–1897 u. 1901–1918 MöAH (u.a. Klub der deutschen Sozialdemokraten)</t>
+  </si>
+  <si>
+    <t>1891–1908 MöAH (u.a. Vereinigte deutsche Linke, Deutsche Agrarpartei), 1895–1908 MböhmLt, 9.11.1907–1.5.1908 M. o. P. (dt. Landmannminister)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1888 o. Prof. f. Nationalökonomie Univ. Freiburg i.B., 1893–1917 o. Prof. f. politische Ökonomie Univ. Wien, 1896–1902 u. 1905–1906 MnöLt (Obmann Sozialpolit. Partei),  1909–1917 MöHH (Verfassungspartei) </t>
+  </si>
+  <si>
+    <t>1885–1911 MöAH (u.a. Deutscher Klub, Deutsche Volkspartei), 1885–1910 MböhmLt (mit Unterbrechungen), 2.6.1906–9.11.1907 österr. Minister o. P. (Dt. Landsmannminister)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899–1907 MböhmLt, 1901–1918 MöAH (u.a. Klub der böhm. Agrarier), 9.11.1907–15.11.1908 österr. Minister o.P. (tschechischer Landsmannminister), Nov. 1918–1920 tschech. Landwirtschaftsminister, 1920–1924 Präs. d. tschech. Senats </t>
+  </si>
+  <si>
+    <t>1868 o. Prof. f. Privatrecht Univ. Prag, dann auch f. Handels– u. Wechselrecht tschech. Univ. Prag, 1881–1914 MöHH (Gruppe der Rechten), 26.10.1904–2.6.1906 österr. Minister o.P. (tschechischer Landsmannminister)</t>
+  </si>
+  <si>
+    <t>1893–1914 MöHH (Verfassungspartei), 1901–1913 MböhmLt</t>
+  </si>
+  <si>
+    <t>30.11.1897–2.10.1899 österr. Justizminister, 1907–1918 Präs. d. Obersten Gerichtshofes, 1902–1918 MöHH (Gruppe der Rechten, Reichspartei)</t>
+  </si>
+  <si>
+    <t>1860 Prof. f. Volkswirtschaft Univ. Tübingen, 1862–1865 Abg. württembergischer Landtag, 1868 Prof. f. Politikwissenschaft Univ. Wien, 1871 österr. Handelsminister u. Ackerbauminister</t>
+  </si>
+  <si>
+    <t>1901–1907 MöAH (Alldeutsche Vereinigung, fraktionslos) u. MböhmLt</t>
+  </si>
+  <si>
+    <t>1881–1907 MöHH (Gruppe der Rechten), 1881 Statthalter von Mähren, 1884–1886 MmährLt, 11.10.1888–19.6.1895 österr. Justizminister, 1895–1907 Präs. d. Verwaltungsgerichtshofs</t>
+  </si>
+  <si>
+    <t>1878–1884 MnöLt, 1873–1888 u. 1897–1907 MöAH (u.a. Verband der Deutschnationalen, Schönerergruppe, Alldeutsche Vereinigung), 1881–1883 Hg. "Deutsche Worte", 1883–1912 Hg. "Unverfälschte deutsche Worte"</t>
+  </si>
+  <si>
+    <t>1901–1906 Statthalter von Tirol, ab 1911 Vors. d. Verwaltungsreformkommission, 31.10.–20.12.1916 österr. Innenminister, 1916–1918 MöHH (fraktionslos, Reichspartei), 1917–1919 Präs. d. Verwaltungsgerichtshofes</t>
+  </si>
+  <si>
+    <t>1889–1913 MböhmLt, 1891–1895 MöAH (Konservativer Großgrundbesitz), 1904–1913 MöHH (Gruppe der Rechten)</t>
+  </si>
+  <si>
+    <t>1879–1907 MöAH (u.a. Vereinigte Deutsche Linke, Verfassungstreuer Großgrundbesitz), ab 1884 MkrainLt, 1907–1914 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1902–1910 Vorstand der Präsidialkanzlei des Ministerpräsidiums,  1910–1916 Gouverneur u. 1919–1929 Präs. d. Bodenkreditanstalt, 1912–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1892–1913 MböhmLt, 1891–1907 MöAH (böhm. Konservativer Großgrundbesitz), 1907–1918 MöHH (Gruppe der Rechten), 30.8.1917–11.11.1918 österr. Ackerbauminister</t>
+  </si>
+  <si>
+    <t>Zuckerindustrieller, 1883–1899 u. 1904–1910 MmährLt, 1900–1907 MöAH (fraktionslos), 1907–1917 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t>1894–1938 Hg. u.a. der deutschnationalen Zeitung "Der Hammer", 1899–1907 MböhmLt, 1901–1907 MöAH (Alldeutsche Vereinigung, fraktionslos)</t>
+  </si>
+  <si>
+    <t>1886–1891 Sektionschef im Justizministerium, 2.2.1891–11.11.1893 österr. Finanzminister, ab 1904 Präs. d. Obersten Gerichtshofes, 1899–1907 MöHH (fraktionslos)</t>
+  </si>
+  <si>
+    <t>1885–1918 MÖAH (u.a. Deutsche Nationalpartei, Deutsche Agrarpartei), 1908–1911 Vizepräsident des öAH, 1918–1919 Mitgl. Prov. Nationalversammlung (Deutschnationale Partei), 1918–1919 Staatssekretär für Finanzen, 1920–1921 Mitgl. Bundesrat</t>
+  </si>
+  <si>
+    <t>1849 Bischof von Đakovo, Bosnien und Syrmien mit Sitz in Đakovo, 1860–1873 MuAH (Führer der Kroatischen Volkspartei)</t>
+  </si>
+  <si>
+    <t>1891–1894 u. 1897–1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 1907–1916 MöHH (Verfassungspartei), 10.2.1909–3.11.1911 österr. Unterrichtsminister, 3.11.1911–21.10.1916 österr. Ministerpräs.</t>
+  </si>
+  <si>
+    <t>1865–1911 MuAH (liberal), 1875–1878 ungar. Finanzminister, 26.2.1899–27.6.1903 ungar. Ministerpräs.</t>
+  </si>
+  <si>
+    <t>Staatssekretär im ungar. Handelsministerium, 1906–1918 MuAH, 1917–1918 ungar. Handelsminister, 1920–26 Abg. ungar. Parlament</t>
+  </si>
+  <si>
+    <t>1863–1867 Landespräs. von Salzburg, 1867 Statthalter von OÖ, 7.3.–30.12.1867 Leiter des Innenministeriums, 27.6.–30.12.1867 Vorsitzender des Ministerrates, 30.12.1867–17.1.1868 Minister für Landesverteidigung, 17.4.1869–17.1.1870 Ministerpräs., 12.4.1870–4.2.1871 Innenminister, 12.8.1879–11.11.1893 Ministerpräs. u. Leiter des Innenministeriums</t>
+  </si>
+  <si>
+    <t>1877–1885 u. 1891–1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 1912–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1879–1881 MöAH (Český club, konservativer Großgrundbesitz), 1881–1916 MöHH (Gruppe der Rechten), 1889–1896 u. 1911–1915 Statthalter von Böhmen, 7.3.1898–2.10.1899 österr. Ministerpräsident u. Leiter des Innenministeriums</t>
+  </si>
+  <si>
+    <t>1880–1883 MböhmLt, 1883–1913 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>3.11.1903–18.6.1905 u. 10.6.1913–15.6.1917 ungar. Ministerpräsident</t>
+  </si>
+  <si>
+    <t>1879 Privatdoz. f. Experimentalphysik Univ. Innsbruck, 1898–1907 MöAH (Kathol. Volkspartei, Zentrum–Klub)</t>
+  </si>
+  <si>
+    <t>1883–1885 u. 1902–1913 MböhmLt, 1870–1918 MöHH (Mittelpartei)</t>
+  </si>
+  <si>
+    <t>1901–1918 MöAH (u.a. Deutsche Fortschrittspartei), 20.12.1916–23.6.1917 österr. Handelsminister, 31.10.1918–15.3.1919 österr. Staatssekretär für Handel</t>
+  </si>
+  <si>
+    <t>1897–1907 MöAH (u.a. Vereinigung von Großgrundbeseitzern, fraktionslos) u. 1901–1907 Präs. d. öAH, 1900–1918 MmährLt, 1920–1925 Mitgl. tschechoslowak. Senat</t>
+  </si>
+  <si>
+    <t>18.6.1905–8.4.1906 ungar. Handelsminister</t>
+  </si>
+  <si>
+    <t>17.11.1892–14.1.1895, 8.4.1906–17.1.1910 u. 20.8.1917–31.10.1918 ungar. Ministerpräs., u.a. 1889–1895 u. 1906–1910 ungar. Finanzminister</t>
+  </si>
+  <si>
+    <t>1883–1893 MböhmLt, 1876–1885 MuMH,  1879–1918 MöHH (Gruppe der Rechten), 11.11.1893–19.6.1895 österr. Ministerpräsident, 1897–1918 Präs. öHH</t>
+  </si>
+  <si>
+    <t>Redakteur u. Hg. u.a. "Ostdeutsche Rundschau", 1897–1913 MböhmLt (mit Unterbrechungen), 1897–1901 u. 1902–1918 MöAH (u.a. Deutschradikale Vereinigung)</t>
+  </si>
+  <si>
+    <t>1885–1911 MöAH (u.a. Český club) u. 1907–1908 1. Vizepräs. öAH, 1887–1918 MmährLt, 9.11.1908–30.10.1909 österr. Minister o.P. (Tschech. Landsmannminister), 1912–1918 MöHH (Gruppe der Rechten)</t>
+  </si>
+  <si>
+    <t>1906–1910 u. 1917–1918 ungar. Minister am allerh. Hoflager</t>
+  </si>
+  <si>
+    <t>1903–1913 MböhmLt, 1912–1918 MöHH (Verfassungspartei), 1913–1916 österr.-ungar. Gesandter in Bukarest, 22.12.1916–16.4.1918 Außenminister</t>
+  </si>
+  <si>
+    <t>1903 Landespräs. der Bukowina, 2.5.–2.6.1906 österr. Ministerpräs. u. Innenminister, 1904–1906 u. 1906–1915 Statthalter in Triest, 1915 Präs. d. Obersten Rechnungshofes, 1.12.1915–27.8.1916 österr. Innenminister, 2.–22.12.1916 österr.-ungar. Finanzminister, 1917 Erster Obersthofmeister, 1916–1918 MöHH (fraktionslos)</t>
+  </si>
+  <si>
+    <t>1903–1909 Sektionschef im österr. Handelsminister, 1909–1913 im österr.-ungar. Außenministerium, 3.11.1911–20.9.1912 österr. Handelsminister</t>
+  </si>
+  <si>
+    <t>1875–1918 MöHH (Gruppe der Rechten), 1887–1894 österr.-ungar. Gesandter in Bukarest, 16.5.1895–24.10.1906 österr.-ungar. Außenminister</t>
+  </si>
+  <si>
+    <r>
+      <t>Targowitz/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Český club, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kons. Großgrundbesitz)</t>
+      <t>Torhowyzja</t>
     </r>
   </si>
   <si>
-    <t>1883-1908 MböhmLt, 1882-1883 MöAH (Český club, kons. Großgrundbesitz), 1892-1918 MöHH Gruppe der Rechten), 1908-1913 Oberstlandmarschall von Böhmen</t>
-  </si>
-  <si>
-    <t>Advokat in Linz, 1901-1907 MöAH (Deutsche Volkspartei), 1920-1929 Senatspräs. am Verwaltungsgerichtshof</t>
-  </si>
-  <si>
-    <t>Gutsbesitzer in Deutsch-Altenburg, 1885-1907 MöAH (Verfassungstreuer Großgrundbesitzer), 1907-1918 MöHH (fraktionslos)</t>
-  </si>
-  <si>
-    <t>1885-1910 MöAH (Chistlichsoz. Vereinigung), 1890-1910 MnöLt, 1897-1910 Wiener Bürgermeister</t>
-  </si>
-  <si>
-    <t>1883 o. Prof. f. Verwaltungs- und Rechtslehre Hochschule für Bodenkultur Wien, mehrmals Rektor, 1891-1897 u. 1901-1907 MöAH (Vereinigte Deutsche Linke, Deutsche Fortschrittspartei), 1902-1908 MnöLt, 2.6.1906-15.11.1908 österr. Unterrichtsminister, 1907-1916 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1891-1918 MöHH (Mittelpartei), 1901-1913 MböhmLt</t>
-  </si>
-  <si>
-    <t>1891-1914 MöAH (u.a. Klub der freisinnigen nationalen böhmischen Abgeordneten), 1889-1913 MböhmLt, 2.6.1906-9.11.1907 Minister o.P. (tschechischer Landsmannminister)</t>
-  </si>
-  <si>
-    <t>Advokat in Wien, 1892-1910 MöAH (u.a. deutsche Fortschrittspartei), 1895-1910 MböhmLt</t>
-  </si>
-  <si>
-    <t>1881-1904 Hg. "Deutsche Worte", 1885-1897 u. 1901-1918 MöAH (u.a. Klub der deutschen Sozialdemokraten)</t>
-  </si>
-  <si>
-    <t>1891-1908 MöAH (u.a. Vereinigte deutsche Linke, Deutsche Agrarpartei), 1895-1908 MböhmLt, 9.11.1907-1.5.1908 M. o. P. (dt. Landmannminister)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1888 o. Prof. f. Nationalökonomie Univ. Freiburg i.B., 1893-1917 o. Prof. f. politische Ökonomie Univ. Wien, 1896-1902 u. 1905-1906 MnöLt (Obmann Sozialpolit. Partei),  1909-1917 MöHH (Verfassungspartei) </t>
-  </si>
-  <si>
-    <t>1885-1911 MöAH (u.a. Deutscher Klub, Deutsche Volkspartei), 1885-1910 MböhmLt (mit Unterbrechungen), 2.6.1906-9.11.1907 österr. Minister o. P. (Dt. Landsmannminister)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1899-1907 MböhmLt, 1901-1918 MöAH (u.a. Klub der böhm. Agrarier), 9.11.1907-15.11.1908 österr. Minister o.P. (tschechischer Landsmannminister), Nov. 1918-1920 tschech. Landwirtschaftsminister, 1920-1924 Präs. d. tschech. Senats </t>
-  </si>
-  <si>
-    <t>Ritter von Dr. iur.</t>
-  </si>
-  <si>
-    <t>1868 o. Prof. f. Privatrecht Univ. Prag, dann auch f. Handels- u. Wechselrecht tschech. Univ. Prag, 1881-1914 MöHH (Gruppe der Rechten), 26.10.1904-2.6.1906 österr. Minister o.P. (tschechischer Landsmannminister)</t>
-  </si>
-  <si>
-    <t>1893-1914 MöHH (Verfassungspartei), 1901-1913 MböhmLt</t>
-  </si>
-  <si>
-    <t>30.11.1897-2.10.1899 österr. Justizminister, 1907-1918 Präs. d. Obersten Gerichtshofes, 1902-1918 MöHH (Gruppe der Rechten, Reichspartei)</t>
-  </si>
-  <si>
-    <t>1881-1907 MöHH (Gruppe der Rechten), 1881 Statthalter von Mähren, 1884-1886 MmährLt, 11.10.1888-19.6.1895 österr. Justizminister, 1895-1907 Präs. d. Verwaltungsgerichtshofs</t>
-  </si>
-  <si>
-    <t>1878-1884 MnöLt, 1873-1888 u. 1897-1907 MöAH (u.a. Verband der Deutschnationalen, Schönerergruppe, Alldeutsche Vereinigung), 1881-1883 Hg. "Deutsche Worte", 1883-1912 Hg. "Unverfälschte deutsche Worte"</t>
-  </si>
-  <si>
-    <t>1901-1906 Statthalter von Tirol, ab 1911 Vors. d. Verwaltungsreformkommission, 31.10.-20.12.1916 österr. Innenminister, 1916-1918 MöHH (fraktionslos, Reichspartei), 1917-1919 Präs. d. Verwaltungsgerichtshofes</t>
-  </si>
-  <si>
-    <t>1889-1913 MböhmLt, 1891-1895 MöAH (Konservativer Großgrundbesitz), 1904-1913 MöHH (Gruppe der Rechten)</t>
-  </si>
-  <si>
-    <t>1879-1907 MöAH (u.a. Vereinigte Deutsche Linke, Verfassungstreuer Großgrundbesitz), ab 1884 MkrainLt, 1907-1914 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1902-1910 Vorstand der Präsidialkanzlei des Ministerpräsidiums,  1910-1916 Gouverneur u. 1919-1929 Präs. d. Bodenkreditanstalt, 1912-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1892-1913 MböhmLt, 1891-1907 MöAH (böhm. Konservativer Großgrundbesitz), 1907-1918 MöHH (Gruppe der Rechten), 30.8.1917-11.11.1918 österr. Ackerbauminister</t>
-  </si>
-  <si>
-    <t>1901-1907 MöAH (Alldeutsche Vereinigung, fraktionslos) u. MböhmLt</t>
-  </si>
-  <si>
-    <t>Zuckerindustrieller, 1883-1899 u. 1904-1910 MmährLt, 1900-1907 MöAH (fraktionslos), 1907-1917 MöHH (Mittelpartei)</t>
-  </si>
-  <si>
-    <t>1894-1938 Hg. u.a. der deutschnationalen Zeitung "Der Hammer", 1899-1907 MböhmLt, 1901-1907 MöAH (Alldeutsche Vereinigung, fraktionslos)</t>
-  </si>
-  <si>
-    <t>1886-1891 Sektionschef im Justizministerium, 2.2.1891-11.11.1893 österr. Finanzminister, ab 1904 Präs. d. Obersten Gerichtshofes, 1899-1907 MöHH (fraktionslos)</t>
-  </si>
-  <si>
-    <t>1885-1918 MÖAH (u.a. Deutsche Nationalpartei, Deutsche Agrarpartei), 1908-1911 Vizepräsident des öAH, 1918-1919 Mitgl. Prov. Nationalversammlung (Deutschnationale Partei), 1918-1919 Staatssekretär für Finanzen, 1920-1921 Mitgl. Bundesrat</t>
-  </si>
-  <si>
-    <t>1891-1894 u. 1897-1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 1907-1916 MöHH (Verfassungspartei), 10.2.1909-3.11.1911 österr. Unterrichtsminister, 3.11.1911-21.10.1916 österr. Ministerpräs.</t>
-  </si>
-  <si>
-    <t>1865-1911 MuAH (liberal), 1875-1878 ungar. Finanzminister, 26.2.1899-27.6.1903 ungar. Ministerpräs.</t>
-  </si>
-  <si>
-    <t>1863-1867 Landespräs. von Salzburg, 1867 Statthalter von OÖ, 7.3.-30.12.1867 Leiter des Innenministeriums, 27.6.-30.12.1867 Vorsitzender des Ministerrates, 30.12.1867-17.1.1868 Minister für Landesverteidigung, 17.4.1869-17.1.1870 Ministerpräs., 12.4.1870-4.2.1871 Innenminister, 12.8.1879-11.11.1893 Ministerpräs. u. Leiter des Innenministeriums</t>
-  </si>
-  <si>
-    <t>1877-1885 u. 1891-1907 MöAH (u.a. Verfassungstreuer Großgrundbesitz), 1912-1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <r>
-      <t>1879-1881 MöAH (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Český club, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>konservativer Großgrundbesitz), 1881-1916 MöHH (Gruppe der Rechten), 1889-1896 u. 1911-1915 Statthalter von Böhmen, 7.3.1898-2.10.1899 österr. Ministerpräsident u. Leiter des Innenministeriums</t>
-    </r>
-  </si>
-  <si>
-    <t>1880-1883 MböhmLt, 1883-1913 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
-    <t>1879 Privatdoz. f. Experimentalphysik Univ. Innsbruck, 1898-1907 MöAH (Kathol. Volkspartei, Zentrum-Klub)</t>
-  </si>
-  <si>
-    <t>1883-1885 u. 1902-1913 MböhmLt, 1870-1918 MöHH (Mittelpartei)</t>
-  </si>
-  <si>
-    <t>1901-1918 MöAH (u.a. Deutsche Fortschrittspartei), 20.12.1916-23.6.1917 österr. Handelsminister, 31.10.1918-15.3.1919 österr. Staatssekretär für Handel</t>
-  </si>
-  <si>
-    <t>1897-1907 MöAH (u.a. Vereinigung von Großgrundbeseitzern, fraktionslos) u. 1901-1907 Präs. d. öAH, 1900-1918 MmährLt, 1920-1925 Mitgl. tschechoslowak. Senat</t>
-  </si>
-  <si>
-    <t>18.6.1905-8.4.1906 ungar. Handelsminister</t>
-  </si>
-  <si>
-    <t>17.11.1892-14.1.1895, 8.4.1906-17.1.1910 u. 20.8.1917-31.10.1918 ungar. Ministerpräs., u.a. 1889-1895 u. 1906-1910 ungar. Finanzminister</t>
-  </si>
-  <si>
-    <t>1883-1893 MböhmLt, 1876-1885 MuMH,  1879-1918 MöHH (Gruppe der Rechten), 11.11.1893-19.6.1895 österr. Ministerpräsident, 1897-1918 Präs. öHH</t>
-  </si>
-  <si>
-    <t>Redakteur u. Hg. u.a. "Ostdeutsche Rundschau", 1897-1913 MböhmLt (mit Unterbrechungen), 1897-1901 u. 1902-1918 MöAH (u.a. Deutschradikale Vereinigung)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1885-1911 MöAH (u.a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Český club</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) u. 1907-1908 1. Vizepräs. öAH, 1887-1918 MmährLt, 9.11.1908-30.10.1909 österr. Minister o.P. (Tschech. Landsmannminister), 1912-1918 MöHH (Gruppe der Rechten)</t>
-    </r>
-  </si>
-  <si>
-    <t>Kaljajew</t>
-  </si>
-  <si>
-    <t>Iwan Platonowitsch</t>
-  </si>
-  <si>
-    <t>Sozialrevolutionär</t>
-  </si>
-  <si>
-    <t>https://d-nb.info/gnd/120011468</t>
-  </si>
-  <si>
-    <t>KaljajewIwan</t>
-  </si>
-  <si>
-    <t>FuerstenbergMaxEgon</t>
-  </si>
-  <si>
-    <t>LoeckerJulius</t>
+    <t xml:space="preserve">Trebischau/Trebišov </t>
+  </si>
+  <si>
+    <t>Surochów</t>
+  </si>
+  <si>
+    <t>Seltsch/Želeč</t>
+  </si>
+  <si>
+    <t>Nemischl/Nemyšl</t>
+  </si>
+  <si>
+    <t>Lány</t>
+  </si>
+  <si>
+    <t>Neumarktl/Tržič</t>
+  </si>
+  <si>
+    <t>Hof/Dvorce</t>
+  </si>
+  <si>
+    <t>Iglau/Jihlava</t>
+  </si>
+  <si>
+    <t>Kiskunfélegyháza</t>
+  </si>
+  <si>
+    <t>Necpaly</t>
+  </si>
+  <si>
+    <t>Teplitz/Teplice</t>
+  </si>
+  <si>
+    <t>Golčův Jeníkov</t>
+  </si>
+  <si>
+    <t>Vysoké nad Jizerou</t>
+  </si>
+  <si>
+    <t>Makowa/Makó</t>
+  </si>
+  <si>
+    <t>Hybe</t>
+  </si>
+  <si>
+    <t>Fryštát</t>
+  </si>
+  <si>
+    <t>Dolní Beřkovice</t>
+  </si>
+  <si>
+    <t>Ostrov nad Ohří</t>
+  </si>
+  <si>
+    <t>Remiremont</t>
+  </si>
+  <si>
+    <t>Červený Hrádek</t>
+  </si>
+  <si>
+    <t>Měšice</t>
+  </si>
+  <si>
+    <t>Lázně Bělohrad</t>
+  </si>
+  <si>
+    <t>Veltrusy</t>
+  </si>
+  <si>
+    <t>Našice</t>
+  </si>
+  <si>
+    <t>Liberec</t>
+  </si>
+  <si>
+    <t>Řiwno, Mladá Boleslav</t>
+  </si>
+  <si>
+    <t>Bystřice nad Úhlavou</t>
+  </si>
+  <si>
+    <t>Košetice</t>
+  </si>
+  <si>
+    <t>Zgornje Gorje</t>
+  </si>
+  <si>
+    <t>Čechy pod Kosířem</t>
+  </si>
+  <si>
+    <t>Alexovice</t>
+  </si>
+  <si>
+    <t>Esseg/Osijek</t>
+  </si>
+  <si>
+    <t>Gasztony</t>
+  </si>
+  <si>
+    <t>Rátót</t>
+  </si>
+  <si>
+    <t>Nalžovské Hory</t>
+  </si>
+  <si>
+    <t>Horšovský Týn</t>
+  </si>
+  <si>
+    <t>Charváty</t>
+  </si>
+  <si>
+    <t>Orlík nad Vltavou</t>
+  </si>
+  <si>
+    <t>Křepkovice</t>
+  </si>
+  <si>
+    <t>Vršovice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovasberény </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2492,6 +2984,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2607,7 +3105,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2702,27 +3200,43 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -2817,6 +3331,32 @@
           <color theme="6"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3032,13 +3572,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H157" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <tableColumns count="8">
-    <tableColumn id="1" name="Nachname" dataDxfId="7"/>
-    <tableColumn id="2" name="Namenszusatz" dataDxfId="6"/>
-    <tableColumn id="3" name="Vorname" dataDxfId="5"/>
-    <tableColumn id="4" name="Geburtsjahr" dataDxfId="4"/>
-    <tableColumn id="5" name="Sterbejahr" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Nachname" dataDxfId="9"/>
+    <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
+    <tableColumn id="3" name="Vorname" dataDxfId="7"/>
+    <tableColumn id="4" name="Geburtsjahr" dataDxfId="6"/>
+    <tableColumn id="5" name="Sterbejahr" dataDxfId="5"/>
+    <tableColumn id="10" name="Geburtsort" dataDxfId="4"/>
+    <tableColumn id="9" name="Sterbeort" dataDxfId="3"/>
     <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
     <tableColumn id="7" name="GND" dataDxfId="1"/>
     <tableColumn id="8" name="Keywert" dataDxfId="0"/>
@@ -3302,7 +3844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3310,52 +3852,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>291</v>
+        <v>635</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>292</v>
+        <v>636</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3364,8 +3914,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3382,24 +3934,30 @@
         <v>1926</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>1852</v>
@@ -3408,24 +3966,30 @@
         <v>1918</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>1848</v>
@@ -3433,25 +3997,31 @@
       <c r="E5" s="2">
         <v>1919</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>1860</v>
@@ -3460,24 +4030,30 @@
         <v>1929</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>570</v>
+        <v>898</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="I6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>1846</v>
@@ -3486,24 +4062,30 @@
         <v>1933</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>300</v>
+        <v>639</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+      <c r="I7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D8" s="2">
         <v>1813</v>
@@ -3512,24 +4094,30 @@
         <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="G8" t="s">
-        <v>629</v>
+        <v>644</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="I8" t="s">
+        <v>593</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D9" s="2">
         <v>1847</v>
@@ -3538,24 +4126,30 @@
         <v>1917</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G9" t="s">
-        <v>582</v>
+        <v>646</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="I9" t="s">
+        <v>546</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="D10" s="2">
         <v>1846</v>
@@ -3564,22 +4158,28 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G10" t="s">
-        <v>591</v>
+        <v>899</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="I10" t="s">
+        <v>555</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D11" s="5">
         <v>1845</v>
@@ -3588,24 +4188,30 @@
         <v>1925</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
         <v>1843</v>
@@ -3613,23 +4219,29 @@
       <c r="E12" s="7">
         <v>1911</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>631</v>
+      <c r="F12" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>642</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D13" s="7">
         <v>1823</v>
@@ -3637,25 +4249,31 @@
       <c r="E13" s="7">
         <v>1906</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>615</v>
+      <c r="F13" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>650</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D14" s="7">
         <v>1831</v>
@@ -3663,25 +4281,27 @@
       <c r="E14" s="7">
         <v>1911</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D15" s="2">
         <v>1854</v>
@@ -3690,37 +4310,45 @@
         <v>1943</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G15" t="s">
-        <v>579</v>
+        <v>639</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="I15" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2">
         <v>1815</v>
@@ -3729,24 +4357,30 @@
         <v>1898</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G17" t="s">
-        <v>571</v>
+        <v>651</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="I17" t="s">
+        <v>536</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2">
         <v>1851</v>
@@ -3754,23 +4388,29 @@
       <c r="E18" s="2">
         <v>1914</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D19" s="2">
         <v>1808</v>
@@ -3779,24 +4419,30 @@
         <v>1873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>597</v>
+        <v>655</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="D20" s="2">
         <v>1798</v>
@@ -3804,25 +4450,31 @@
       <c r="E20" s="2">
         <v>1860</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>640</v>
+      <c r="F20" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>1848</v>
@@ -3831,24 +4483,30 @@
         <v>1929</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>301</v>
+        <v>657</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>271</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>1849</v>
@@ -3857,24 +4515,30 @@
         <v>1929</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>302</v>
+        <v>659</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="I22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>1856</v>
@@ -3883,24 +4547,30 @@
         <v>1909</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>303</v>
+        <v>661</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+      <c r="I23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>1854</v>
@@ -3909,24 +4579,30 @@
         <v>1915</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="G24" t="s">
-        <v>304</v>
+        <v>638</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3">
         <v>1849</v>
@@ -3934,25 +4610,31 @@
       <c r="E25" s="3">
         <v>1927</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G25" t="s">
-        <v>305</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="I25" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>1831</v>
@@ -3961,24 +4643,30 @@
         <v>1899</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>306</v>
+        <v>666</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="I26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>1849</v>
@@ -3987,24 +4675,30 @@
         <v>1912</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="G27" t="s">
-        <v>307</v>
+        <v>639</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+      <c r="I27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>1834</v>
@@ -4013,24 +4707,30 @@
         <v>1924</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G28" t="s">
-        <v>308</v>
+        <v>669</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+      <c r="I28" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>1863</v>
@@ -4039,24 +4739,30 @@
         <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>309</v>
+        <v>639</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>1855</v>
@@ -4065,24 +4771,30 @@
         <v>1913</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="G30" t="s">
-        <v>310</v>
+        <v>639</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <v>1872</v>
@@ -4091,24 +4803,30 @@
         <v>1932</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="G31" t="s">
-        <v>311</v>
+        <v>673</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>643</v>
+        <v>604</v>
       </c>
       <c r="D32" s="30">
         <v>1852</v>
@@ -4117,21 +4835,27 @@
         <v>1911</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>644</v>
+        <v>938</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>639</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2">
         <v>1860</v>
@@ -4140,22 +4864,28 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G33" t="s">
-        <v>312</v>
+        <v>900</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2">
         <v>1866</v>
@@ -4164,24 +4894,30 @@
         <v>1936</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>313</v>
+        <v>675</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2">
         <v>1859</v>
@@ -4192,22 +4928,28 @@
       <c r="F35" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G35" t="s">
-        <v>314</v>
+      <c r="G35" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2">
         <v>1852</v>
@@ -4216,71 +4958,85 @@
         <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="G36" t="s">
-        <v>315</v>
+        <v>669</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="2">
+        <v>796</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="38">
         <v>1866</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="38">
         <v>1929</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
+      <c r="F37" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" s="38">
+        <v>1857</v>
+      </c>
+      <c r="E38" s="38">
         <v>1907</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2">
         <v>1848</v>
@@ -4291,22 +5047,28 @@
       <c r="F39" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G39" t="s">
-        <v>317</v>
+      <c r="G39" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2">
         <v>1864</v>
@@ -4317,22 +5079,28 @@
       <c r="F40" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G40" t="s">
-        <v>318</v>
+      <c r="G40" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2">
         <v>1861</v>
@@ -4343,40 +5111,48 @@
       <c r="F41" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="G41" t="s">
-        <v>319</v>
+      <c r="G41" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D43" s="12">
         <v>1829</v>
@@ -4385,24 +5161,30 @@
         <v>1899</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="G43" t="s">
-        <v>320</v>
+        <v>639</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+      <c r="I43" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D44" s="12">
         <v>1833</v>
@@ -4411,24 +5193,30 @@
         <v>1914</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s">
-        <v>321</v>
+        <v>682</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D45" s="12">
         <v>1852</v>
@@ -4437,24 +5225,30 @@
         <v>1921</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G45" t="s">
-        <v>322</v>
+        <v>683</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>684</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
       <c r="D46" s="14">
         <v>1863</v>
@@ -4463,24 +5257,30 @@
         <v>1941</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="G46" t="s">
-        <v>324</v>
+        <v>902</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>685</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+      <c r="I46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2">
         <v>1851</v>
@@ -4489,61 +5289,79 @@
         <v>1918</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G47" t="s">
-        <v>325</v>
+        <v>686</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+      <c r="I47" t="s">
+        <v>293</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>602</v>
-      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" t="s">
-        <v>326</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="40">
+        <v>1846</v>
+      </c>
+      <c r="E49" s="40">
+        <v>1908</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
         <v>1852</v>
@@ -4551,25 +5369,31 @@
       <c r="E50" s="2">
         <v>1920</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="G50" t="s">
-        <v>600</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="I50" t="s">
+        <v>564</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2">
         <v>1849</v>
@@ -4578,24 +5402,30 @@
         <v>1921</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="G51" t="s">
-        <v>327</v>
+        <v>637</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+      <c r="I51" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>1848</v>
@@ -4604,24 +5434,30 @@
         <v>1923</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G52" t="s">
-        <v>328</v>
+        <v>688</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2">
         <v>1856</v>
@@ -4630,24 +5466,30 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G53" t="s">
-        <v>329</v>
+        <v>922</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+      <c r="I53" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D54" s="2">
         <v>1848</v>
@@ -4656,20 +5498,26 @@
         <v>1927</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
       <c r="D55" s="2">
         <v>1768</v>
@@ -4678,48 +5526,60 @@
         <v>1835</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="D56" s="2">
-        <v>1930</v>
+        <v>1830</v>
       </c>
       <c r="E56" s="2">
         <v>1916</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G56" t="s">
-        <v>495</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>692</v>
+        <v>623</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D57" s="2">
         <v>1839</v>
@@ -4728,24 +5588,30 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D58" s="2">
         <v>1864</v>
@@ -4754,24 +5620,30 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G58" t="s">
-        <v>606</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I58" t="s">
+        <v>570</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2">
         <v>1850</v>
@@ -4780,24 +5652,30 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G59" t="s">
-        <v>331</v>
+        <v>937</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+      <c r="I59" t="s">
+        <v>299</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2">
         <v>1845</v>
@@ -4806,24 +5684,30 @@
         <v>1924</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" t="s">
-        <v>332</v>
+        <v>692</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+      <c r="I60" t="s">
+        <v>300</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D61" s="2">
         <v>1836</v>
@@ -4832,22 +5716,28 @@
         <v>1911</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" t="s">
-        <v>333</v>
+        <v>694</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+      <c r="I61" t="s">
+        <v>301</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2">
         <v>1849</v>
@@ -4856,24 +5746,30 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="G62" t="s">
-        <v>335</v>
+        <v>905</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="D63" s="2">
         <v>1824</v>
@@ -4882,24 +5778,30 @@
         <v>1899</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G63" t="s">
-        <v>566</v>
+        <v>639</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+      <c r="I63" t="s">
+        <v>531</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D64" s="2">
         <v>1859</v>
@@ -4908,24 +5810,30 @@
         <v>1941</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G64" t="s">
-        <v>575</v>
+        <v>695</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="I64" t="s">
+        <v>540</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D65" s="2">
         <v>1863</v>
@@ -4934,22 +5842,28 @@
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G65" t="s">
-        <v>336</v>
+        <v>639</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+      <c r="I65" t="s">
+        <v>304</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="D66" s="2">
         <v>1859</v>
@@ -4958,24 +5872,30 @@
         <v>1918</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" t="s">
-        <v>338</v>
+        <v>906</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D67" s="12">
         <v>1801</v>
@@ -4984,22 +5904,28 @@
         <v>1859</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="G67" t="s">
-        <v>339</v>
+        <v>698</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>641</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="I67" t="s">
+        <v>307</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D68" s="12">
         <v>1869</v>
@@ -5008,22 +5934,28 @@
         <v>1954</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="G68" t="s">
-        <v>340</v>
+        <v>699</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="I68" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D69" s="14">
         <v>1850</v>
@@ -5031,49 +5963,61 @@
       <c r="E69" s="14">
         <v>1917</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G69" t="s">
-        <v>341</v>
+      <c r="F69" s="37" t="s">
+        <v>907</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>642</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="D70" s="40">
+        <v>822</v>
+      </c>
+      <c r="I69" t="s">
+        <v>309</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D70" s="2">
         <v>1877</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="2">
         <v>1905</v>
       </c>
-      <c r="F70" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="G70" t="s">
-        <v>760</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F70" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I70" t="s">
+        <v>628</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="D71" s="2">
         <v>1842</v>
@@ -5082,24 +6026,30 @@
         <v>1916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="G71" t="s">
-        <v>550</v>
+        <v>703</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+      <c r="I71" t="s">
+        <v>516</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2">
         <v>1856</v>
@@ -5108,24 +6058,30 @@
         <v>1945</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G72" t="s">
-        <v>551</v>
+        <v>704</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="I72" t="s">
+        <v>517</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D73" s="2">
         <v>1852</v>
@@ -5134,22 +6090,28 @@
         <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>706</v>
+      </c>
       <c r="H73" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="D74" s="2">
         <v>1847</v>
@@ -5158,22 +6120,28 @@
         <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G74" t="s">
-        <v>552</v>
+        <v>707</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="I74" t="s">
+        <v>518</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="D75" s="2">
         <v>1854</v>
@@ -5182,24 +6150,30 @@
         <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G75" t="s">
-        <v>553</v>
+        <v>708</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="I75" t="s">
+        <v>519</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2">
         <v>1850</v>
@@ -5208,24 +6182,30 @@
         <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>653</v>
+        <v>710</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="D77" s="2">
         <v>1852</v>
@@ -5234,24 +6214,30 @@
         <v>1910</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G77" t="s">
-        <v>554</v>
+        <v>711</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="I77" t="s">
+        <v>520</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D78" s="2">
         <v>1837</v>
@@ -5260,24 +6246,30 @@
         <v>1914</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="G78" t="s">
-        <v>555</v>
+        <v>712</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="I78" t="s">
+        <v>521</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D79" s="12">
         <v>1852</v>
@@ -5286,24 +6278,30 @@
         <v>1909</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G79" t="s">
-        <v>342</v>
+        <v>909</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="I79" t="s">
+        <v>310</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>123</v>
+        <v>713</v>
       </c>
       <c r="D80" s="12">
         <v>1856</v>
@@ -5312,22 +6310,28 @@
         <v>1919</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G80" t="s">
-        <v>343</v>
+        <v>714</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="I80" t="s">
+        <v>311</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D81" s="12">
         <v>1841</v>
@@ -5336,22 +6340,28 @@
         <v>1914</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G81" t="s">
-        <v>344</v>
+        <v>692</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+      <c r="I81" t="s">
+        <v>312</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D82" s="12">
         <v>1802</v>
@@ -5360,24 +6370,30 @@
         <v>1894</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" t="s">
-        <v>345</v>
+        <v>715</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>313</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D83" s="12">
         <v>1860</v>
@@ -5386,24 +6402,30 @@
         <v>1937</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="G83" t="s">
-        <v>346</v>
+        <v>910</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>638</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="I83" t="s">
+        <v>314</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D84" s="12">
         <v>1857</v>
@@ -5412,24 +6434,30 @@
         <v>1928</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" t="s">
-        <v>348</v>
+        <v>911</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="I84" t="s">
+        <v>316</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D85" s="12">
         <v>1841</v>
@@ -5438,22 +6466,28 @@
         <v>1921</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="G85" t="s">
-        <v>347</v>
+        <v>717</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="I85" t="s">
+        <v>315</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D86" s="14">
         <v>1821</v>
@@ -5462,24 +6496,30 @@
         <v>1879</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" t="s">
-        <v>349</v>
+        <v>639</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="I86" t="s">
+        <v>317</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D87" s="10">
         <v>1851</v>
@@ -5488,24 +6528,30 @@
         <v>1921</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G87" t="s">
-        <v>351</v>
+        <v>912</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>642</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="I87" t="s">
+        <v>319</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D88" s="12">
         <v>1850</v>
@@ -5514,24 +6560,30 @@
         <v>1918</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="G88" t="s">
-        <v>352</v>
+        <v>720</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="I88" t="s">
+        <v>320</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D89" s="12">
         <v>1872</v>
@@ -5540,50 +6592,62 @@
         <v>1962</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="G89" t="s">
-        <v>353</v>
+        <v>913</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="I89" t="s">
+        <v>321</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D90" s="12">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E90" s="12">
         <v>1939</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="G90" t="s">
-        <v>354</v>
+        <v>639</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>653</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="I90" t="s">
+        <v>322</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D91" s="12">
         <v>1846</v>
@@ -5592,24 +6656,30 @@
         <v>1920</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="G91" t="s">
-        <v>355</v>
+        <v>638</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="I91" t="s">
+        <v>323</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D92" s="12">
         <v>1872</v>
@@ -5618,24 +6688,30 @@
         <v>1951</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G92" t="s">
-        <v>356</v>
+        <v>723</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+      <c r="I92" t="s">
+        <v>324</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D93" s="12">
         <v>1829</v>
@@ -5644,24 +6720,30 @@
         <v>1910</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G93" t="s">
-        <v>357</v>
+        <v>725</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>655</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="I93" t="s">
+        <v>325</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D94" s="12">
         <v>1835</v>
@@ -5670,24 +6752,30 @@
         <v>1908</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="G94" t="s">
-        <v>358</v>
+        <v>639</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>638</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="I94" t="s">
+        <v>326</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D95" s="12">
         <v>1850</v>
@@ -5696,24 +6784,30 @@
         <v>1926</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="G95" t="s">
-        <v>359</v>
+        <v>914</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>726</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="I95" t="s">
+        <v>327</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D96" s="12">
         <v>1860</v>
@@ -5722,24 +6816,30 @@
         <v>1945</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="G96" t="s">
-        <v>360</v>
+        <v>727</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+      <c r="I96" t="s">
+        <v>328</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D97" s="12">
         <v>1845</v>
@@ -5748,24 +6848,30 @@
         <v>1929</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="G97" t="s">
-        <v>361</v>
+        <v>728</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>729</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+      <c r="I97" t="s">
+        <v>329</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D98" s="14">
         <v>1844</v>
@@ -5774,24 +6880,30 @@
         <v>1910</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="G98" t="s">
-        <v>362</v>
+        <v>639</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>639</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+      <c r="I98" t="s">
+        <v>330</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D99" s="12">
         <v>1846</v>
@@ -5800,22 +6912,28 @@
         <v>1916</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="G99" t="s">
-        <v>363</v>
+        <v>730</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>915</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="I99" t="s">
+        <v>331</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D100" s="12">
         <v>1838</v>
@@ -5824,44 +6942,58 @@
         <v>1925</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G100" t="s">
-        <v>364</v>
+        <v>916</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>655</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14">
+        <v>849</v>
+      </c>
+      <c r="I100" t="s">
+        <v>332</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="43">
+        <v>1843</v>
+      </c>
+      <c r="E101" s="42">
         <v>1916</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" s="42" t="s">
+        <v>917</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>917</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D102" s="14">
         <v>1863</v>
@@ -5870,24 +7002,30 @@
         <v>1931</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="G102" t="s">
-        <v>365</v>
+        <v>918</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>639</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="I102" t="s">
+        <v>333</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D103" s="12">
         <v>1846</v>
@@ -5896,18 +7034,24 @@
         <v>1914</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>719</v>
+        <v>919</v>
       </c>
       <c r="G103" t="s">
-        <v>366</v>
+        <v>920</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="I103" t="s">
+        <v>334</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -5915,19 +7059,21 @@
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
-      <c r="H104" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D105" s="17">
         <v>1855</v>
@@ -5936,24 +7082,30 @@
         <v>1928</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G105" t="s">
-        <v>367</v>
+        <v>921</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>639</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="I105" t="s">
+        <v>335</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D106" s="12">
         <v>1853</v>
@@ -5962,22 +7114,28 @@
         <v>1910</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="G106" t="s">
-        <v>368</v>
+        <v>731</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="I106" t="s">
+        <v>336</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D107" s="12">
         <v>1850</v>
@@ -5986,22 +7144,28 @@
         <v>1918</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="G107" t="s">
-        <v>369</v>
+        <v>639</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="I107" t="s">
+        <v>337</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D108" s="12">
         <v>1856</v>
@@ -6010,24 +7174,30 @@
         <v>1908</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="G108" t="s">
-        <v>370</v>
+        <v>732</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="I108" t="s">
+        <v>338</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D109" s="12">
         <v>1847</v>
@@ -6035,37 +7205,45 @@
       <c r="E109" s="12">
         <v>1907</v>
       </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-      <c r="H110" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D111" s="12">
         <v>1858</v>
@@ -6074,38 +7252,46 @@
         <v>1917</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="G111" t="s">
-        <v>371</v>
+        <v>639</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+      <c r="I111" t="s">
+        <v>339</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D113" s="12">
         <v>1853</v>
@@ -6114,22 +7300,28 @@
         <v>1927</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="G113" t="s">
-        <v>372</v>
+        <v>922</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="I113" t="s">
+        <v>340</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D114" s="14">
         <v>1868</v>
@@ -6138,24 +7330,30 @@
         <v>1932</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="G114" t="s">
-        <v>373</v>
+        <v>923</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>925</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="I114" t="s">
+        <v>341</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>726</v>
+        <v>624</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D115" s="12">
         <v>1834</v>
@@ -6164,24 +7362,30 @@
         <v>1914</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="G115" t="s">
-        <v>374</v>
+        <v>924</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>735</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="I115" t="s">
+        <v>342</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D116" s="12">
         <v>1797</v>
@@ -6190,24 +7394,30 @@
         <v>1875</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G116" t="s">
-        <v>375</v>
+        <v>655</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>655</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="I116" t="s">
+        <v>343</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D117" s="12">
         <v>1857</v>
@@ -6216,24 +7426,30 @@
         <v>1912</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G117" t="s">
-        <v>376</v>
+        <v>639</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D118" s="12">
         <v>1853</v>
@@ -6242,24 +7458,30 @@
         <v>1914</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="G118" t="s">
-        <v>377</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="I118" t="s">
+        <v>345</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D119" s="19">
         <v>1845</v>
@@ -6267,25 +7489,31 @@
       <c r="E119" s="19">
         <v>1933</v>
       </c>
-      <c r="F119" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="G119" t="s">
-        <v>378</v>
+      <c r="F119" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>639</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="I119" t="s">
+        <v>346</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" s="12">
         <v>1831</v>
@@ -6294,24 +7522,30 @@
         <v>1903</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G120" t="s">
-        <v>379</v>
+        <v>736</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>737</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+      <c r="I120" t="s">
+        <v>347</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D121" s="12">
         <v>1869</v>
@@ -6320,22 +7554,28 @@
         <v>1951</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="G121" s="12"/>
+        <v>738</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>739</v>
+      </c>
       <c r="H121" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D122" s="12">
         <v>1838</v>
@@ -6344,24 +7584,30 @@
         <v>1917</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G122" t="s">
-        <v>380</v>
+        <v>740</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>741</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="I122" t="s">
+        <v>348</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D123" s="12">
         <v>1841</v>
@@ -6370,24 +7616,30 @@
         <v>1907</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="G123" t="s">
-        <v>381</v>
+        <v>638</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="I123" t="s">
+        <v>349</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D124" s="12">
         <v>1842</v>
@@ -6396,24 +7648,30 @@
         <v>1921</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="G124" t="s">
-        <v>382</v>
+        <v>639</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>742</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="I124" t="s">
+        <v>350</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D125" s="12">
         <v>1858</v>
@@ -6422,24 +7680,30 @@
         <v>1926</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="G125" t="s">
-        <v>383</v>
+        <v>639</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="I125" t="s">
+        <v>351</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D126" s="12">
         <v>1859</v>
@@ -6448,24 +7712,30 @@
         <v>1913</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G126" t="s">
-        <v>384</v>
+        <v>935</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="I126" t="s">
+        <v>352</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D127" s="12">
         <v>1836</v>
@@ -6474,24 +7744,30 @@
         <v>1914</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="G127" t="s">
-        <v>385</v>
+        <v>926</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>744</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="I127" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D128" s="12">
         <v>1866</v>
@@ -6500,24 +7776,30 @@
         <v>1934</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="G128" t="s">
-        <v>386</v>
+        <v>646</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>745</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="I128" t="s">
+        <v>354</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D129" s="12">
         <v>1860</v>
@@ -6526,22 +7808,28 @@
         <v>1936</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="G129" t="s">
-        <v>387</v>
+        <v>927</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>746</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+      <c r="I129" t="s">
+        <v>355</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D130" s="12">
         <v>1847</v>
@@ -6550,24 +7838,30 @@
         <v>1917</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G130" t="s">
-        <v>388</v>
+        <v>747</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="I130" t="s">
+        <v>356</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D131" s="12">
         <v>1849</v>
@@ -6576,22 +7870,28 @@
         <v>1917</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="G131" t="s">
-        <v>389</v>
+        <v>928</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+      <c r="I131" t="s">
+        <v>357</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D132" s="12">
         <v>1823</v>
@@ -6600,22 +7900,28 @@
         <v>1896</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G132" t="s">
-        <v>390</v>
+        <v>748</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>641</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="I132" t="s">
+        <v>358</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D133" s="10">
         <v>1869</v>
@@ -6623,25 +7929,31 @@
       <c r="E133" s="10">
         <v>1943</v>
       </c>
-      <c r="F133" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="G133" t="s">
-        <v>392</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="F133" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I133" t="s">
+        <v>360</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D134" s="12">
         <v>1846</v>
@@ -6650,24 +7962,30 @@
         <v>1907</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="G134" t="s">
-        <v>394</v>
+        <v>750</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>753</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="I134" t="s">
+        <v>362</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D135" s="12">
         <v>1847</v>
@@ -6675,23 +7993,29 @@
       <c r="E135" s="12">
         <v>1921</v>
       </c>
-      <c r="F135" s="36" t="s">
-        <v>741</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>658</v>
+      <c r="F135" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>752</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="I135" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D136" s="12">
         <v>1815</v>
@@ -6700,48 +8024,60 @@
         <v>1905</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G136" t="s">
-        <v>395</v>
+        <v>929</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>754</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+      <c r="I136" t="s">
+        <v>363</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D137" s="12">
         <v>1859</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="G137" t="s">
-        <v>396</v>
+        <v>755</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+      <c r="I137" t="s">
+        <v>364</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D138" s="12">
         <v>1843</v>
@@ -6750,44 +8086,52 @@
         <v>1915</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="G138" t="s">
-        <v>397</v>
+        <v>930</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>931</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+      <c r="I138" t="s">
+        <v>365</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="D140" s="12">
         <v>1861</v>
@@ -6796,24 +8140,30 @@
         <v>1941</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G140" t="s">
-        <v>398</v>
+        <v>756</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+      <c r="I140" t="s">
+        <v>366</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D141" s="12">
         <v>1833</v>
@@ -6822,24 +8172,30 @@
         <v>1895</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="G141" t="s">
-        <v>400</v>
+        <v>639</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>932</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="I141" t="s">
+        <v>368</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D142" s="12">
         <v>1842</v>
@@ -6848,24 +8204,30 @@
         <v>1927</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="G142" t="s">
-        <v>401</v>
+        <v>223</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+      <c r="I142" t="s">
+        <v>369</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D143" s="12">
         <v>1847</v>
@@ -6873,25 +8235,31 @@
       <c r="E143" s="12">
         <v>1916</v>
       </c>
-      <c r="F143" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="G143" t="s">
-        <v>402</v>
+      <c r="F143" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>757</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+      <c r="I143" t="s">
+        <v>370</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D144" s="12">
         <v>1849</v>
@@ -6900,50 +8268,62 @@
         <v>1913</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="G144" t="s">
-        <v>403</v>
+        <v>758</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>639</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="I144" t="s">
+        <v>371</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D145" s="12">
         <v>1861</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G145" t="s">
-        <v>404</v>
+        <v>642</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+      <c r="I145" t="s">
+        <v>372</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D146" s="12">
         <v>1847</v>
@@ -6952,24 +8332,30 @@
         <v>1926</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="G146" t="s">
-        <v>405</v>
+        <v>759</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>681</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="I146" t="s">
+        <v>373</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D147" s="14">
         <v>1845</v>
@@ -6978,22 +8364,28 @@
         <v>1921</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="G147" s="14"/>
+        <v>760</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>933</v>
+      </c>
       <c r="H147" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D148" s="21">
         <v>1855</v>
@@ -7002,22 +8394,28 @@
         <v>1940</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>750</v>
-      </c>
-      <c r="G148" t="s">
-        <v>406</v>
-      </c>
-      <c r="H148" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="I148" t="s">
+        <v>374</v>
+      </c>
+      <c r="J148" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="24" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B149" s="25"/>
       <c r="C149" s="25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D149" s="25">
         <v>1846</v>
@@ -7026,22 +8424,28 @@
         <v>1907</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="G149" t="s">
-        <v>407</v>
-      </c>
-      <c r="H149" s="26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="H149" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I149" t="s">
+        <v>375</v>
+      </c>
+      <c r="J149" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B150" s="25"/>
       <c r="C150" s="25" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D150" s="25">
         <v>1858</v>
@@ -7050,24 +8454,30 @@
         <v>1940</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="G150" t="s">
-        <v>408</v>
-      </c>
-      <c r="H150" s="26" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I150" t="s">
+        <v>376</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D151" s="25">
         <v>1856</v>
@@ -7076,24 +8486,30 @@
         <v>1945</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="G151" t="s">
-        <v>409</v>
-      </c>
-      <c r="H151" s="26" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="I151" t="s">
+        <v>377</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="D152" s="22">
         <v>1849</v>
@@ -7101,23 +8517,29 @@
       <c r="E152" s="22">
         <v>1925</v>
       </c>
-      <c r="F152" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="G152" t="s">
-        <v>412</v>
-      </c>
-      <c r="H152" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F152" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="I152" t="s">
+        <v>380</v>
+      </c>
+      <c r="J152" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D153" s="12">
         <v>1848</v>
@@ -7126,24 +8548,30 @@
         <v>1921</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="G153" t="s">
-        <v>413</v>
+        <v>764</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="I153" t="s">
+        <v>381</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D154" s="12">
         <v>1851</v>
@@ -7152,22 +8580,28 @@
         <v>1927</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="G154" t="s">
-        <v>414</v>
+        <v>638</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="I154" t="s">
+        <v>382</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D155" s="12">
         <v>1862</v>
@@ -7176,24 +8610,30 @@
         <v>1941</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="G155" t="s">
-        <v>415</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="I155" t="s">
+        <v>383</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D156" s="12">
         <v>1849</v>
@@ -7202,24 +8642,30 @@
         <v>1934</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="G156" t="s">
-        <v>416</v>
+        <v>934</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>653</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+      <c r="I156" t="s">
+        <v>384</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D157" s="12">
         <v>1864</v>
@@ -7228,26 +8674,32 @@
         <v>1937</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G157" t="s">
-        <v>417</v>
+        <v>767</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>533</v>
+        <v>892</v>
+      </c>
+      <c r="I157" t="s">
+        <v>385</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1"/>
-    <hyperlink ref="G19" r:id="rId2"/>
-    <hyperlink ref="G18" r:id="rId3"/>
-    <hyperlink ref="G20" r:id="rId4"/>
-    <hyperlink ref="G57" r:id="rId5"/>
-    <hyperlink ref="G55" r:id="rId6"/>
-    <hyperlink ref="G76" r:id="rId7"/>
-    <hyperlink ref="G135" r:id="rId8"/>
-    <hyperlink ref="G29" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I19" r:id="rId2"/>
+    <hyperlink ref="I18" r:id="rId3"/>
+    <hyperlink ref="I20" r:id="rId4"/>
+    <hyperlink ref="I57" r:id="rId5"/>
+    <hyperlink ref="I55" r:id="rId6"/>
+    <hyperlink ref="I76" r:id="rId7"/>
+    <hyperlink ref="I135" r:id="rId8"/>
+    <hyperlink ref="I33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -842,6 +850,12 @@
     <t>Bezeichnung</t>
   </si>
   <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Keywert</t>
+  </si>
+  <si>
     <t>AbrahamowiczDawid</t>
   </si>
   <si>
@@ -2907,12 +2921,6 @@
   </si>
   <si>
     <t>KaiserFranzJoseph</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
 </sst>
 </file>
@@ -3226,33 +3234,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -3537,6 +3521,39 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3555,18 +3572,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J156" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="Standard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nachname" dataDxfId="10"/>
-    <tableColumn id="2" name="Namenszusatz" dataDxfId="9"/>
-    <tableColumn id="3" name="Vorname" dataDxfId="8"/>
-    <tableColumn id="4" name="Geburtsjahr" dataDxfId="7"/>
-    <tableColumn id="5" name="Sterbejahr" dataDxfId="6"/>
-    <tableColumn id="10" name="Geburtsort" dataDxfId="5"/>
-    <tableColumn id="9" name="Sterbeort" dataDxfId="4"/>
-    <tableColumn id="6" name="Bezeichnung" dataDxfId="3"/>
-    <tableColumn id="7" name="PID" dataDxfId="2"/>
-    <tableColumn id="8" name="key" dataDxfId="1"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="9"/>
+    <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
+    <tableColumn id="3" name="Vorname" dataDxfId="7"/>
+    <tableColumn id="4" name="Geburtsjahr" dataDxfId="6"/>
+    <tableColumn id="5" name="Sterbejahr" dataDxfId="5"/>
+    <tableColumn id="10" name="Geburtsort" dataDxfId="4"/>
+    <tableColumn id="9" name="Sterbeort" dataDxfId="3"/>
+    <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
+    <tableColumn id="7" name="GND" dataDxfId="1"/>
+    <tableColumn id="8" name="Keywert" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3827,7 +3844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3835,529 +3852,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="G134" zoomScale="150" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I1" t="s">
-        <v>937</v>
-      </c>
-      <c r="J1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>1839</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>1926</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="I2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1852</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1918</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>635</v>
+        <v>896</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>636</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="E4" s="2">
-        <v>1919</v>
-      </c>
-      <c r="F4" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>637</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>638</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1848</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1919</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1860</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1929</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1860</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1929</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I6" t="s">
+        <v>534</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>1846</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>1933</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="I6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1813</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1893</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>642</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I7" t="s">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="D8" s="2">
-        <v>1847</v>
+        <v>1813</v>
       </c>
       <c r="E8" s="2">
-        <v>1917</v>
+        <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>643</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I8" t="s">
+        <v>592</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1847</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1917</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I9" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1846</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1909</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I10" t="s">
+        <v>554</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1925</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1911</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1823</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1906</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1831</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1911</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1854</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1943</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="I15" t="s">
+        <v>542</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1846</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1909</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I9" t="s">
-        <v>552</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1845</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1925</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1843</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1911</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1823</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1906</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1831</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1911</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1854</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1943</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I14" t="s">
-        <v>540</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>1815</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>1898</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="I16" t="s">
-        <v>533</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1851</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1914</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>650</v>
@@ -4365,29 +4362,31 @@
       <c r="G17" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>596</v>
+      <c r="H17" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="I17" t="s">
+        <v>535</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>557</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2">
-        <v>1808</v>
+        <v>1851</v>
       </c>
       <c r="E18" s="2">
-        <v>1873</v>
+        <v>1914</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>652</v>
@@ -4395,92 +4394,90 @@
       <c r="G18" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>615</v>
+      <c r="H18" s="30" t="s">
+        <v>781</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2">
+        <v>1808</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1873</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C20" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" s="2">
         <v>1798</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>1860</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1848</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1929</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>654</v>
+      <c r="F20" s="30" t="s">
+        <v>767</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>269</v>
+        <v>782</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E21" s="2">
         <v>1929</v>
@@ -4492,30 +4489,30 @@
         <v>657</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>781</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="E22" s="2">
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>658</v>
@@ -4524,377 +4521,377 @@
         <v>659</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1856</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1909</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>1854</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>1915</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="I23" t="s">
-        <v>272</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>1849</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>1927</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="I24" t="s">
-        <v>273</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="F25" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I25" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>1831</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>1899</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I25" t="s">
-        <v>274</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="I26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>1849</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>1912</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="I26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1834</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1924</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>667</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1834</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1924</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="I28" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1863</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1932</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="I28" t="s">
-        <v>277</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="E29" s="2">
-        <v>1913</v>
+        <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1855</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1913</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>1872</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>1932</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="I30" t="s">
-        <v>279</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="B31" s="30" t="s">
+      <c r="F31" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="D31" s="30">
+      <c r="C32" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="D32" s="30">
         <v>1852</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E32" s="30">
         <v>1911</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>935</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="F32" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>1860</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>1917</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1866</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1936</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>672</v>
+        <v>899</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>673</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="I33" t="s">
-        <v>281</v>
+        <v>792</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="E34" s="2">
-        <v>1904</v>
+        <v>1936</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>674</v>
@@ -4903,1746 +4900,1746 @@
         <v>675</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1904</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>1852</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>1924</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="38">
+        <v>1866</v>
+      </c>
+      <c r="E37" s="38">
+        <v>1929</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>900</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>796</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="D38" s="38">
+        <v>1857</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1907</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1848</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1909</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1864</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1940</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1861</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1949</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1829</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1899</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="I43" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1833</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1852</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1863</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1941</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="I46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1851</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1918</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="I47" t="s">
+        <v>293</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="40">
+        <v>1846</v>
+      </c>
+      <c r="E49" s="40">
+        <v>1908</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1852</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1920</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="I50" t="s">
+        <v>563</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1849</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1921</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="I35" t="s">
-        <v>283</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="38">
-        <v>1866</v>
-      </c>
-      <c r="E36" s="38">
-        <v>1929</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>898</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>794</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="D37" s="38">
-        <v>1857</v>
-      </c>
-      <c r="E37" s="38">
-        <v>1907</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="G51" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="I51" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2">
         <v>1848</v>
       </c>
-      <c r="E38" s="2">
-        <v>1909</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="I38" t="s">
-        <v>284</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1864</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1940</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="I39" t="s">
-        <v>285</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1861</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1949</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="I40" t="s">
-        <v>286</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1829</v>
-      </c>
-      <c r="E42" s="12">
-        <v>1899</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I42" t="s">
-        <v>287</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1833</v>
-      </c>
-      <c r="E43" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="I43" t="s">
-        <v>288</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1852</v>
-      </c>
-      <c r="E44" s="12">
-        <v>1921</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="I44" t="s">
-        <v>289</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D45" s="14">
-        <v>1863</v>
-      </c>
-      <c r="E45" s="14">
-        <v>1941</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>899</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="I45" t="s">
-        <v>290</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1851</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1918</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="I46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="40">
-        <v>1846</v>
-      </c>
-      <c r="E48" s="40">
-        <v>1908</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>900</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1852</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1920</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="I49" t="s">
-        <v>561</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1849</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1921</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="I50" t="s">
-        <v>293</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="E52" s="2">
+        <v>1923</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1856</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1935</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I53" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="2">
         <v>1848</v>
       </c>
-      <c r="E51" s="2">
-        <v>1923</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="I51" t="s">
-        <v>294</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1856</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1935</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="I52" t="s">
-        <v>295</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1848</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="E54" s="2">
         <v>1927</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1768</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1835</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>606</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1768</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1835</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D55" s="2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D56" s="2">
         <v>1830</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="2">
         <v>1916</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="I55" t="s">
-        <v>459</v>
-      </c>
-      <c r="J55" s="15" t="s">
+      <c r="F56" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1839</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1907</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1864</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1944</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="I58" t="s">
+        <v>569</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1850</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1908</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1839</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1907</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1864</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1944</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="I57" t="s">
-        <v>567</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1850</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1908</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="I58" t="s">
-        <v>297</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I59" t="s">
+        <v>299</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>1845</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <v>1924</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="I59" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1836</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1911</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>691</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="D61" s="2">
-        <v>1849</v>
+        <v>1836</v>
       </c>
       <c r="E61" s="2">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>902</v>
+        <v>693</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I61" t="s">
         <v>301</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="B62" s="33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1849</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1907</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1824</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1899</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="I63" t="s">
         <v>530</v>
       </c>
-      <c r="D62" s="2">
-        <v>1824</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1899</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="I62" t="s">
-        <v>528</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="J63" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>1859</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
         <v>1941</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="I63" t="s">
-        <v>537</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="I64" t="s">
+        <v>539</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D65" s="2">
         <v>1863</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1918</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="I64" t="s">
-        <v>302</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1859</v>
       </c>
       <c r="E65" s="2">
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>903</v>
+        <v>638</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>97</v>
+        <v>893</v>
       </c>
       <c r="I65" t="s">
         <v>304</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1918</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <v>1801</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>1859</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="I66" t="s">
-        <v>305</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="F67" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="I67" t="s">
+        <v>307</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>1869</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>1954</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="I67" t="s">
-        <v>306</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="F68" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="I68" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>1850</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>1917</v>
       </c>
-      <c r="F68" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="I68" t="s">
-        <v>307</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="F69" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="I69" t="s">
+        <v>309</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D70" s="2">
         <v>1877</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="2">
         <v>1905</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I69" t="s">
-        <v>625</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1842</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1916</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>700</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>820</v>
+        <v>626</v>
       </c>
       <c r="I70" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1842</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1916</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I71" t="s">
+        <v>515</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>1856</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>1945</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="I71" t="s">
-        <v>514</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1852</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1911</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="I72" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="I72" t="s">
+        <v>516</v>
+      </c>
       <c r="J72" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>504</v>
+        <v>205</v>
       </c>
       <c r="D73" s="2">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="E73" s="2">
-        <v>1923</v>
+        <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="I73" t="s">
-        <v>515</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>506</v>
       </c>
       <c r="D74" s="2">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="E74" s="2">
-        <v>1912</v>
+        <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
         <v>508</v>
       </c>
       <c r="D75" s="2">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="E75" s="2">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>707</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>608</v>
+        <v>826</v>
+      </c>
+      <c r="I75" t="s">
+        <v>518</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>509</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>510</v>
       </c>
       <c r="D76" s="2">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E76" s="2">
-        <v>1910</v>
+        <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="I76" t="s">
-        <v>517</v>
+        <v>827</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>511</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2">
+        <v>1852</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1910</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I77" t="s">
+        <v>519</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D78" s="2">
         <v>1837</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="2">
         <v>1914</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="I77" t="s">
-        <v>518</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="F78" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="I78" t="s">
+        <v>520</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>1852</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>1909</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>906</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="I78" t="s">
-        <v>308</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="F79" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="I79" t="s">
+        <v>310</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="D79" s="12">
+      <c r="C80" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="D80" s="12">
         <v>1856</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>1919</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="I79" t="s">
-        <v>309</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1841</v>
-      </c>
-      <c r="E80" s="12">
-        <v>1914</v>
-      </c>
       <c r="F80" s="12" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I80" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1841</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="I81" t="s">
+        <v>312</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>1802</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>1894</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="H81" s="12" t="s">
+      <c r="F82" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="H82" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I81" t="s">
-        <v>311</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="I82" t="s">
+        <v>313</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B83" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>1860</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>1937</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>907</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="I82" t="s">
-        <v>312</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="12">
-        <v>1857</v>
-      </c>
-      <c r="E83" s="12">
-        <v>1928</v>
-      </c>
       <c r="F83" s="12" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I83" t="s">
         <v>314</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1857</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1928</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="I84" t="s">
+        <v>316</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>1841</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>1921</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="I84" t="s">
-        <v>313</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="14">
-        <v>1821</v>
-      </c>
-      <c r="E85" s="14">
-        <v>1879</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G85" s="14" t="s">
+      <c r="F85" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>119</v>
+      <c r="G85" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="I85" t="s">
         <v>315</v>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D86" s="10">
-        <v>1851</v>
-      </c>
-      <c r="E86" s="10">
-        <v>1921</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>834</v>
+      <c r="J85" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1821</v>
+      </c>
+      <c r="E86" s="14">
+        <v>1879</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="I86" t="s">
         <v>317</v>
       </c>
-      <c r="J86" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="12">
-        <v>1850</v>
-      </c>
-      <c r="E87" s="12">
-        <v>1918</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>835</v>
+      <c r="J86" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1851</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1921</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>836</v>
       </c>
       <c r="I87" t="s">
-        <v>318</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E88" s="12">
+        <v>1918</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="I88" t="s">
+        <v>320</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>1872</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>1962</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I88" t="s">
-        <v>319</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="F89" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="I89" t="s">
+        <v>321</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>1860</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>1939</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="I89" t="s">
-        <v>320</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E90" s="12">
-        <v>1920</v>
-      </c>
       <c r="F90" s="12" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>127</v>
       </c>
@@ -6650,879 +6647,879 @@
         <v>128</v>
       </c>
       <c r="C91" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E91" s="12">
+        <v>1920</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="I91" t="s">
+        <v>323</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <v>1872</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>1951</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="I91" t="s">
-        <v>322</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="12">
-        <v>1829</v>
-      </c>
-      <c r="E92" s="12">
-        <v>1910</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>722</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>652</v>
+        <v>723</v>
       </c>
       <c r="H92" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="I92" t="s">
+        <v>324</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="12">
+        <v>1829</v>
+      </c>
+      <c r="E93" s="12">
+        <v>1910</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I92" t="s">
-        <v>323</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="12">
-        <v>1835</v>
-      </c>
-      <c r="E93" s="12">
-        <v>1908</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>840</v>
-      </c>
       <c r="I93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B94" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1835</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1908</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="I94" t="s">
+        <v>326</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <v>1850</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>1926</v>
       </c>
-      <c r="F94" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="I94" t="s">
-        <v>325</v>
-      </c>
-      <c r="J94" s="12" t="s">
+      <c r="F95" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="I95" t="s">
+        <v>327</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="12">
+        <v>1860</v>
+      </c>
+      <c r="E96" s="12">
+        <v>1945</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="I96" t="s">
+        <v>328</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1845</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1929</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="I97" t="s">
+        <v>329</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="14">
+        <v>1844</v>
+      </c>
+      <c r="E98" s="14">
+        <v>1910</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="I98" t="s">
+        <v>330</v>
+      </c>
+      <c r="J98" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="12" t="s">
+    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" s="12">
-        <v>1860</v>
-      </c>
-      <c r="E95" s="12">
-        <v>1945</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="I95" t="s">
-        <v>326</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="C99" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1916</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="I99" t="s">
+        <v>331</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1925</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="I100" t="s">
+        <v>332</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="43">
+        <v>1843</v>
+      </c>
+      <c r="E101" s="42">
+        <v>1916</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>916</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>916</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1863</v>
+      </c>
+      <c r="E102" s="14">
+        <v>1931</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="I102" t="s">
+        <v>333</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E103" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="G103" t="s">
+        <v>919</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="I103" t="s">
+        <v>334</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="17">
+        <v>1855</v>
+      </c>
+      <c r="E105" s="17">
+        <v>1928</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="I105" t="s">
+        <v>335</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="12">
-        <v>1845</v>
-      </c>
-      <c r="E96" s="12">
-        <v>1929</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="I96" t="s">
-        <v>327</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="14">
-        <v>1844</v>
-      </c>
-      <c r="E97" s="14">
+      <c r="D106" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E106" s="12">
         <v>1910</v>
       </c>
-      <c r="F97" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>844</v>
-      </c>
-      <c r="I97" t="s">
-        <v>328</v>
-      </c>
-      <c r="J97" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E98" s="12">
-        <v>1916</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="I98" t="s">
-        <v>329</v>
-      </c>
-      <c r="J98" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="12">
-        <v>1838</v>
-      </c>
-      <c r="E99" s="12">
-        <v>1925</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>913</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="I99" t="s">
-        <v>330</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="B100" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="43">
-        <v>1843</v>
-      </c>
-      <c r="E100" s="42">
-        <v>1916</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>914</v>
-      </c>
-      <c r="G100" s="42" t="s">
-        <v>914</v>
-      </c>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42" t="s">
+      <c r="F106" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="I106" t="s">
+        <v>336</v>
+      </c>
+      <c r="J106" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="14">
-        <v>1863</v>
-      </c>
-      <c r="E101" s="14">
-        <v>1931</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>847</v>
-      </c>
-      <c r="I101" t="s">
-        <v>331</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E102" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="G102" t="s">
-        <v>917</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="I102" t="s">
-        <v>332</v>
-      </c>
-      <c r="J102" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="17">
-        <v>1855</v>
-      </c>
-      <c r="E104" s="17">
-        <v>1928</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="I104" t="s">
-        <v>333</v>
-      </c>
-      <c r="J104" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D105" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E105" s="12">
-        <v>1910</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="I105" t="s">
-        <v>334</v>
-      </c>
-      <c r="J105" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106" s="12">
-        <v>1850</v>
-      </c>
-      <c r="E106" s="12">
-        <v>1918</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="I106" t="s">
-        <v>335</v>
-      </c>
-      <c r="J106" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1918</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="I107" t="s">
+        <v>337</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D108" s="12">
         <v>1856</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E108" s="12">
         <v>1908</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>851</v>
-      </c>
-      <c r="I107" t="s">
-        <v>336</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" s="12">
-        <v>1847</v>
-      </c>
-      <c r="E108" s="12">
-        <v>1907</v>
-      </c>
       <c r="F108" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
+        <v>638</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="I108" t="s">
+        <v>338</v>
+      </c>
       <c r="J108" s="12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E109" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>733</v>
+      </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="B110" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B111" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C111" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D111" s="12">
         <v>1858</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E111" s="12">
         <v>1917</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="I110" t="s">
-        <v>337</v>
-      </c>
-      <c r="J110" s="12" t="s">
+      <c r="F111" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="I111" t="s">
+        <v>339</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="I113" t="s">
+        <v>340</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" s="14">
+        <v>1868</v>
+      </c>
+      <c r="E114" s="14">
+        <v>1932</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="I114" t="s">
+        <v>341</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1834</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="I115" t="s">
+        <v>342</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="12">
+        <v>1797</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1875</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I116" t="s">
+        <v>343</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1857</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1912</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="I118" t="s">
+        <v>345</v>
+      </c>
+      <c r="J118" s="10" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E112" s="12">
-        <v>1927</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>919</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="I112" t="s">
-        <v>338</v>
-      </c>
-      <c r="J112" s="12" t="s">
+    <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="19">
+        <v>1845</v>
+      </c>
+      <c r="E119" s="19">
+        <v>1933</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="I119" t="s">
+        <v>346</v>
+      </c>
+      <c r="J119" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D113" s="14">
-        <v>1868</v>
-      </c>
-      <c r="E113" s="14">
-        <v>1932</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="I113" t="s">
-        <v>339</v>
-      </c>
-      <c r="J113" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="12">
-        <v>1834</v>
-      </c>
-      <c r="E114" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="I114" t="s">
-        <v>340</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115" s="12">
-        <v>1797</v>
-      </c>
-      <c r="E115" s="12">
-        <v>1875</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I115" t="s">
-        <v>341</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="12">
-        <v>1857</v>
-      </c>
-      <c r="E116" s="12">
-        <v>1912</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="I116" t="s">
-        <v>342</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D117" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E117" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="I117" t="s">
-        <v>343</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" s="19">
-        <v>1845</v>
-      </c>
-      <c r="E118" s="19">
-        <v>1933</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>857</v>
-      </c>
-      <c r="I118" t="s">
-        <v>344</v>
-      </c>
-      <c r="J118" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B120" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D120" s="12">
         <v>1831</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E120" s="12">
         <v>1903</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="I119" t="s">
-        <v>345</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D120" s="12">
-        <v>1869</v>
-      </c>
-      <c r="E120" s="12">
-        <v>1951</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>735</v>
@@ -7531,28 +7528,30 @@
         <v>736</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>859</v>
-      </c>
-      <c r="I120" s="12"/>
+        <v>860</v>
+      </c>
+      <c r="I120" t="s">
+        <v>347</v>
+      </c>
       <c r="J120" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="D121" s="12">
-        <v>1838</v>
+        <v>1869</v>
       </c>
       <c r="E121" s="12">
-        <v>1917</v>
+        <v>1951</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>737</v>
@@ -7561,1116 +7560,1146 @@
         <v>738</v>
       </c>
       <c r="H121" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H122" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I121" t="s">
-        <v>346</v>
-      </c>
-      <c r="J121" s="12" t="s">
+      <c r="I122" t="s">
+        <v>348</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1841</v>
+      </c>
+      <c r="E123" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="I123" t="s">
+        <v>349</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1842</v>
+      </c>
+      <c r="E124" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I124" t="s">
+        <v>350</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1858</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1926</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I125" t="s">
+        <v>351</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1859</v>
+      </c>
+      <c r="E126" s="12">
+        <v>1913</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="G126" t="s">
+        <v>934</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="I126" t="s">
+        <v>352</v>
+      </c>
+      <c r="J126" s="12" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D122" s="12">
-        <v>1841</v>
-      </c>
-      <c r="E122" s="12">
-        <v>1907</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="I122" t="s">
-        <v>347</v>
-      </c>
-      <c r="J122" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="12">
-        <v>1842</v>
-      </c>
-      <c r="E123" s="12">
-        <v>1921</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="I123" t="s">
-        <v>348</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D124" s="12">
-        <v>1858</v>
-      </c>
-      <c r="E124" s="12">
-        <v>1926</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="I124" t="s">
-        <v>349</v>
-      </c>
-      <c r="J124" s="12" t="s">
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1836</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="I127" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" s="12" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="12">
-        <v>1859</v>
-      </c>
-      <c r="E125" s="12">
-        <v>1913</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="G125" t="s">
-        <v>932</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="I125" t="s">
-        <v>350</v>
-      </c>
-      <c r="J125" s="12" t="s">
+    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1866</v>
+      </c>
+      <c r="E128" s="12">
+        <v>1934</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="I128" t="s">
+        <v>354</v>
+      </c>
+      <c r="J128" s="12" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D126" s="12">
-        <v>1836</v>
-      </c>
-      <c r="E126" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="I126" t="s">
-        <v>351</v>
-      </c>
-      <c r="J126" s="12" t="s">
+    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="12">
+        <v>1860</v>
+      </c>
+      <c r="E129" s="12">
+        <v>1936</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="I129" t="s">
+        <v>355</v>
+      </c>
+      <c r="J129" s="12" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D127" s="12">
-        <v>1866</v>
-      </c>
-      <c r="E127" s="12">
-        <v>1934</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="I127" t="s">
-        <v>352</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="12">
-        <v>1860</v>
-      </c>
-      <c r="E128" s="12">
-        <v>1936</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>924</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="I128" t="s">
-        <v>353</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12" t="s">
+      <c r="B130" s="12"/>
+      <c r="C130" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>1847</v>
-      </c>
-      <c r="E129" s="12">
-        <v>1917</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I129" t="s">
-        <v>354</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D130" s="12">
-        <v>1849</v>
       </c>
       <c r="E130" s="12">
         <v>1917</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>925</v>
+        <v>746</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>867</v>
+        <v>203</v>
       </c>
       <c r="I130" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B131" s="12"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C131" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D131" s="12">
-        <v>1823</v>
+        <v>1849</v>
       </c>
       <c r="E131" s="12">
-        <v>1896</v>
+        <v>1917</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>745</v>
+        <v>927</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>638</v>
       </c>
       <c r="H131" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="I131" t="s">
+        <v>357</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1823</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1896</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="I131" t="s">
-        <v>356</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D132" s="10">
-        <v>1869</v>
-      </c>
-      <c r="E132" s="10">
-        <v>1943</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>868</v>
       </c>
       <c r="I132" t="s">
         <v>358</v>
       </c>
-      <c r="J132" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D133" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E133" s="12">
-        <v>1907</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>750</v>
+      <c r="J132" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="10">
+        <v>1869</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1943</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>748</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I133" t="s">
         <v>360</v>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="J133" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>612</v>
+        <v>209</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I134" t="s">
+        <v>362</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C135" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D135" s="12">
         <v>1847</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>1921</v>
       </c>
-      <c r="F134" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="I134" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="12">
-        <v>1815</v>
-      </c>
-      <c r="E135" s="12">
-        <v>1905</v>
-      </c>
       <c r="F135" s="12" t="s">
-        <v>926</v>
+        <v>750</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>751</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="I135" t="s">
-        <v>361</v>
+        <v>872</v>
+      </c>
+      <c r="I135" s="35" t="s">
+        <v>615</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1815</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1905</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="I136" t="s">
+        <v>363</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B137" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C137" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D137" s="12">
         <v>1859</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E137" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F136" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="I136" t="s">
-        <v>362</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="F137" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="I137" t="s">
+        <v>364</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12" t="s">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D138" s="12">
         <v>1843</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E138" s="12">
         <v>1915</v>
       </c>
-      <c r="F137" s="12" t="s">
-        <v>927</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="I137" t="s">
-        <v>363</v>
-      </c>
-      <c r="J137" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="44" t="s">
+      <c r="F138" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="I138" t="s">
+        <v>365</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B139" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C138" s="45" t="s">
+      <c r="C139" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="45" t="s">
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="I139" s="45"/>
+      <c r="J139" s="45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B140" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D139" s="12">
+      <c r="C140" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D140" s="12">
         <v>1861</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E140" s="12">
         <v>1941</v>
       </c>
-      <c r="F139" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="I139" t="s">
-        <v>364</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D140" s="12">
-        <v>1833</v>
-      </c>
-      <c r="E140" s="12">
-        <v>1895</v>
-      </c>
       <c r="F140" s="12" t="s">
-        <v>636</v>
+        <v>755</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>929</v>
+        <v>641</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I140" t="s">
         <v>366</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1833</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1895</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="I141" t="s">
+        <v>368</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D142" s="12">
         <v>1842</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E142" s="12">
         <v>1927</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F142" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G142" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H141" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="I141" t="s">
-        <v>367</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="H142" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="I142" t="s">
+        <v>369</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A143" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B143" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C143" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D143" s="12">
         <v>1847</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E143" s="12">
         <v>1916</v>
       </c>
-      <c r="F142" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="G142" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="I142" t="s">
-        <v>368</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+      <c r="F143" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="I143" t="s">
+        <v>370</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" s="12">
-        <v>1849</v>
-      </c>
-      <c r="E143" s="12">
-        <v>1913</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="I143" t="s">
-        <v>369</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1913</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="I144" t="s">
+        <v>371</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D145" s="12">
         <v>1861</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="E145" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F144" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>879</v>
-      </c>
-      <c r="I144" t="s">
-        <v>370</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="F145" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I145" t="s">
+        <v>372</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A146" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B146" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D146" s="12">
         <v>1847</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E146" s="12">
         <v>1926</v>
       </c>
-      <c r="F145" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="H145" s="12" t="s">
-        <v>880</v>
-      </c>
-      <c r="I145" t="s">
-        <v>371</v>
-      </c>
-      <c r="J145" s="12" t="s">
+      <c r="F146" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="I146" t="s">
+        <v>373</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A147" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="14">
+        <v>1845</v>
+      </c>
+      <c r="E147" s="14">
+        <v>1921</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A148" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="21">
+        <v>1855</v>
+      </c>
+      <c r="E148" s="21">
+        <v>1940</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="I148" t="s">
+        <v>374</v>
+      </c>
+      <c r="J148" s="22" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D146" s="14">
-        <v>1845</v>
-      </c>
-      <c r="E146" s="14">
-        <v>1921</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="H146" s="14" t="s">
-        <v>881</v>
-      </c>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="21">
-        <v>1855</v>
-      </c>
-      <c r="E147" s="21">
-        <v>1940</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="H147" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="I147" t="s">
-        <v>372</v>
-      </c>
-      <c r="J147" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A149" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D148" s="25">
-        <v>1846</v>
-      </c>
-      <c r="E148" s="25">
-        <v>1907</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I148" t="s">
-        <v>373</v>
-      </c>
-      <c r="J148" s="26" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
-        <v>239</v>
       </c>
       <c r="B149" s="25"/>
       <c r="C149" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="25">
+        <v>1846</v>
+      </c>
+      <c r="E149" s="25">
+        <v>1907</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="H149" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I149" t="s">
+        <v>375</v>
+      </c>
+      <c r="J149" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A150" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D149" s="25">
+      <c r="D150" s="25">
         <v>1858</v>
       </c>
-      <c r="E149" s="25">
+      <c r="E150" s="25">
         <v>1940</v>
       </c>
-      <c r="F149" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="H149" s="25" t="s">
+      <c r="F150" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="H150" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="I149" t="s">
-        <v>374</v>
-      </c>
-      <c r="J149" s="26" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
+      <c r="I150" t="s">
+        <v>376</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A151" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B151" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C151" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D151" s="25">
         <v>1856</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E151" s="25">
         <v>1945</v>
       </c>
-      <c r="F150" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="I150" t="s">
-        <v>375</v>
-      </c>
-      <c r="J150" s="26" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
+      <c r="F151" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="I151" t="s">
         <v>377</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="J151" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="D151" s="22">
+      <c r="C152" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D152" s="22">
         <v>1849</v>
       </c>
-      <c r="E151" s="22">
+      <c r="E152" s="22">
         <v>1925</v>
       </c>
-      <c r="F151" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="H151" s="22" t="s">
-        <v>884</v>
-      </c>
-      <c r="I151" t="s">
-        <v>378</v>
-      </c>
-      <c r="J151" s="23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+      <c r="F152" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="I152" t="s">
+        <v>380</v>
+      </c>
+      <c r="J152" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12" t="s">
+      <c r="B153" s="12"/>
+      <c r="C153" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D153" s="12">
         <v>1848</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E153" s="12">
         <v>1921</v>
       </c>
-      <c r="F152" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="I152" t="s">
-        <v>379</v>
-      </c>
-      <c r="J152" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
+      <c r="F153" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="I153" t="s">
+        <v>381</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A154" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C154" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D154" s="12">
         <v>1851</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E154" s="12">
         <v>1927</v>
       </c>
-      <c r="F153" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I153" t="s">
-        <v>380</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+      <c r="F154" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="I154" t="s">
+        <v>382</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12" t="s">
+      <c r="B155" s="12"/>
+      <c r="C155" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D155" s="12">
         <v>1862</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E155" s="12">
         <v>1941</v>
       </c>
-      <c r="F154" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="I154" t="s">
-        <v>381</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+      <c r="F155" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="I155" t="s">
+        <v>383</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B156" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C156" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D156" s="12">
         <v>1849</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E156" s="12">
         <v>1934</v>
       </c>
-      <c r="F155" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="I155" t="s">
-        <v>382</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
+      <c r="F156" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="I156" t="s">
+        <v>384</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A157" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C157" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D157" s="12">
         <v>1864</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E157" s="12">
         <v>1937</v>
       </c>
-      <c r="F156" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="I156" t="s">
-        <v>383</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>496</v>
+      <c r="F157" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="I157" t="s">
+        <v>385</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1"/>
-    <hyperlink ref="I18" r:id="rId2"/>
-    <hyperlink ref="I17" r:id="rId3"/>
-    <hyperlink ref="I19" r:id="rId4"/>
-    <hyperlink ref="I56" r:id="rId5"/>
-    <hyperlink ref="I54" r:id="rId6"/>
-    <hyperlink ref="I75" r:id="rId7"/>
-    <hyperlink ref="I134" r:id="rId8"/>
-    <hyperlink ref="I32" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I19" r:id="rId2"/>
+    <hyperlink ref="I18" r:id="rId3"/>
+    <hyperlink ref="I20" r:id="rId4"/>
+    <hyperlink ref="I57" r:id="rId5"/>
+    <hyperlink ref="I55" r:id="rId6"/>
+    <hyperlink ref="I76" r:id="rId7"/>
+    <hyperlink ref="I135" r:id="rId8"/>
+    <hyperlink ref="I33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -14,10 +14,10 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="944">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -850,12 +850,6 @@
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>Keywert</t>
-  </si>
-  <si>
     <t>AbrahamowiczDawid</t>
   </si>
   <si>
@@ -1559,9 +1553,6 @@
   </si>
   <si>
     <t>ZichyAladar</t>
-  </si>
-  <si>
-    <t>FuerstenbergMax Egon</t>
   </si>
   <si>
     <t>GoluchowskiAgenor</t>
@@ -1875,9 +1866,6 @@
     <t xml:space="preserve">  https://d-nb.info/gnd/1157617565</t>
   </si>
   <si>
-    <t>Bezerdy</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/118660691</t>
   </si>
   <si>
@@ -2921,6 +2909,33 @@
   </si>
   <si>
     <t>KaiserFranzJoseph</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>FuerstenbergMaxEgon</t>
+  </si>
+  <si>
+    <t>Marffy</t>
+  </si>
+  <si>
+    <t>Albin</t>
+  </si>
+  <si>
+    <t>Staatssekretär im Ministerpräsidium</t>
+  </si>
+  <si>
+    <t>MarffyAlbin</t>
+  </si>
+  <si>
+    <t>MschlesLt, Kameraldirektor der Besitzungen des Bistums Breslau</t>
+  </si>
+  <si>
+    <t>PohlFerdinand</t>
   </si>
 </sst>
 </file>
@@ -3572,7 +3587,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" name="Nachname" dataDxfId="9"/>
     <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
@@ -3582,8 +3597,8 @@
     <tableColumn id="10" name="Geburtsort" dataDxfId="4"/>
     <tableColumn id="9" name="Sterbeort" dataDxfId="3"/>
     <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
-    <tableColumn id="7" name="GND" dataDxfId="1"/>
-    <tableColumn id="8" name="Keywert" dataDxfId="0"/>
+    <tableColumn id="7" name="PID" dataDxfId="1"/>
+    <tableColumn id="8" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3852,10 +3867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G134" zoomScale="150" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="147" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3890,19 +3905,19 @@
         <v>260</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>935</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>263</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3934,19 +3949,19 @@
         <v>1926</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -3966,19 +3981,19 @@
         <v>1918</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3998,19 +4013,19 @@
         <v>1919</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,19 +4045,19 @@
         <v>1929</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -4062,30 +4077,30 @@
         <v>1933</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D8" s="2">
         <v>1813</v>
@@ -4094,30 +4109,30 @@
         <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="I8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D9" s="2">
         <v>1847</v>
@@ -4126,30 +4141,30 @@
         <v>1917</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="I9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D10" s="2">
         <v>1846</v>
@@ -4158,28 +4173,28 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D11" s="5">
         <v>1845</v>
@@ -4188,30 +4203,30 @@
         <v>1925</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D12" s="7">
         <v>1843</v>
@@ -4220,28 +4235,28 @@
         <v>1911</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D13" s="7">
         <v>1823</v>
@@ -4250,27 +4265,27 @@
         <v>1906</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>124</v>
@@ -4284,24 +4299,24 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="29" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D15" s="2">
         <v>1854</v>
@@ -4310,24 +4325,24 @@
         <v>1943</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4337,12 +4352,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -4357,24 +4372,24 @@
         <v>1898</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I17" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -4389,28 +4404,28 @@
         <v>1914</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D19" s="2">
         <v>1808</v>
@@ -4419,30 +4434,30 @@
         <v>1873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D20" s="2">
         <v>1798</v>
@@ -4451,19 +4466,19 @@
         <v>1860</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -4483,19 +4498,19 @@
         <v>1929</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -4515,19 +4530,19 @@
         <v>1929</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -4547,19 +4562,19 @@
         <v>1909</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -4579,19 +4594,19 @@
         <v>1915</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -4611,19 +4626,19 @@
         <v>1927</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -4643,19 +4658,19 @@
         <v>1899</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -4675,19 +4690,19 @@
         <v>1912</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -4707,19 +4722,19 @@
         <v>1924</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -4739,19 +4754,19 @@
         <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -4771,19 +4786,19 @@
         <v>1913</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -4803,30 +4818,30 @@
         <v>1932</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D32" s="30">
         <v>1852</v>
@@ -4835,16 +4850,16 @@
         <v>1911</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -4864,19 +4879,19 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -4894,19 +4909,19 @@
         <v>1936</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4926,19 +4941,19 @@
         <v>1904</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -4958,19 +4973,19 @@
         <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -4990,28 +5005,28 @@
         <v>1929</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D38" s="38">
         <v>1857</v>
@@ -5022,10 +5037,10 @@
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -5045,19 +5060,19 @@
         <v>1909</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5077,19 +5092,19 @@
         <v>1940</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -5109,19 +5124,19 @@
         <v>1949</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5130,7 +5145,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -5141,7 +5156,7 @@
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5161,19 +5176,19 @@
         <v>1899</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5193,19 +5208,19 @@
         <v>1914</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5225,19 +5240,19 @@
         <v>1921</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5248,7 +5263,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D46" s="14">
         <v>1863</v>
@@ -5257,19 +5272,19 @@
         <v>1941</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="I46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>499</v>
+        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
@@ -5289,19 +5304,19 @@
         <v>1918</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5315,7 +5330,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>135</v>
@@ -5338,24 +5353,24 @@
         <v>1908</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>76</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -5370,19 +5385,19 @@
         <v>1920</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="I50" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5402,19 +5417,19 @@
         <v>1921</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -5422,7 +5437,7 @@
         <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>32</v>
@@ -5434,19 +5449,19 @@
         <v>1923</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -5466,19 +5481,19 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -5489,7 +5504,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D54" s="2">
         <v>1848</v>
@@ -5498,26 +5513,26 @@
         <v>1927</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D55" s="2">
         <v>1768</v>
@@ -5526,28 +5541,28 @@
         <v>1835</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D56" s="2">
         <v>1830</v>
@@ -5556,27 +5571,27 @@
         <v>1916</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I56" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>202</v>
@@ -5588,30 +5603,30 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D58" s="2">
         <v>1864</v>
@@ -5620,19 +5635,19 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -5652,19 +5667,19 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5684,19 +5699,19 @@
         <v>1924</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -5707,7 +5722,7 @@
         <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D61" s="2">
         <v>1836</v>
@@ -5716,19 +5731,19 @@
         <v>1911</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -5746,30 +5761,30 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D63" s="2">
         <v>1824</v>
@@ -5778,27 +5793,27 @@
         <v>1899</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I63" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>202</v>
@@ -5810,19 +5825,19 @@
         <v>1941</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I64" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
@@ -5842,19 +5857,19 @@
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -5863,7 +5878,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D66" s="2">
         <v>1859</v>
@@ -5872,19 +5887,19 @@
         <v>1918</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -5904,19 +5919,19 @@
         <v>1859</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5934,19 +5949,19 @@
         <v>1954</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -5964,28 +5979,28 @@
         <v>1917</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="I69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D70" s="2">
         <v>1877</v>
@@ -5994,30 +6009,30 @@
         <v>1905</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I70" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D71" s="2">
         <v>1842</v>
@@ -6026,24 +6041,24 @@
         <v>1916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="I71" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -6058,24 +6073,24 @@
         <v>1945</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -6090,28 +6105,28 @@
         <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D74" s="2">
         <v>1847</v>
@@ -6120,28 +6135,28 @@
         <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I74" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D75" s="2">
         <v>1854</v>
@@ -6150,30 +6165,30 @@
         <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I75" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D76" s="2">
         <v>1850</v>
@@ -6182,30 +6197,30 @@
         <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D77" s="2">
         <v>1852</v>
@@ -6214,27 +6229,27 @@
         <v>1910</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="I77" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>135</v>
@@ -6246,19 +6261,19 @@
         <v>1914</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I78" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6278,19 +6293,19 @@
         <v>1909</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I79" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6301,7 +6316,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D80" s="12">
         <v>1856</v>
@@ -6310,19 +6325,19 @@
         <v>1919</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6340,19 +6355,19 @@
         <v>1914</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6370,19 +6385,19 @@
         <v>1894</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>110</v>
       </c>
       <c r="I82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -6402,19 +6417,19 @@
         <v>1937</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -6434,19 +6449,19 @@
         <v>1928</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="I84" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -6466,19 +6481,19 @@
         <v>1921</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -6496,19 +6511,19 @@
         <v>1879</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6519,7 +6534,7 @@
         <v>121</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D87" s="10">
         <v>1851</v>
@@ -6528,19 +6543,19 @@
         <v>1921</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="I87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6560,19 +6575,19 @@
         <v>1918</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6592,19 +6607,19 @@
         <v>1962</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6624,19 +6639,19 @@
         <v>1939</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -6656,19 +6671,19 @@
         <v>1920</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6688,19 +6703,19 @@
         <v>1951</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="I92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -6720,19 +6735,19 @@
         <v>1910</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>132</v>
       </c>
       <c r="I93" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6752,19 +6767,19 @@
         <v>1908</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="I94" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -6784,19 +6799,19 @@
         <v>1926</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6816,19 +6831,19 @@
         <v>1945</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I96" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -6848,19 +6863,19 @@
         <v>1929</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I97" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -6880,19 +6895,19 @@
         <v>1910</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
@@ -6912,1781 +6927,1808 @@
         <v>1916</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G99" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="I99" t="s">
+        <v>329</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1925</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="I101" t="s">
+        <v>330</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="43">
+        <v>1843</v>
+      </c>
+      <c r="E102" s="42">
+        <v>1916</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>912</v>
+      </c>
+      <c r="G102" s="42" t="s">
+        <v>912</v>
+      </c>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="14">
+        <v>1863</v>
+      </c>
+      <c r="E103" s="14">
+        <v>1931</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="I103" t="s">
+        <v>331</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E104" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>914</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="G104" t="s">
+        <v>915</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="I104" t="s">
+        <v>332</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="17">
+        <v>1855</v>
+      </c>
+      <c r="E106" s="17">
+        <v>1928</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="H106" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="I99" t="s">
-        <v>331</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D100" s="12">
-        <v>1838</v>
-      </c>
-      <c r="E100" s="12">
-        <v>1925</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="I100" t="s">
-        <v>332</v>
-      </c>
-      <c r="J100" s="12" t="s">
+      <c r="I106" t="s">
+        <v>333</v>
+      </c>
+      <c r="J106" s="17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A101" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="B101" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="43">
-        <v>1843</v>
-      </c>
-      <c r="E101" s="42">
-        <v>1916</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>916</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>916</v>
-      </c>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D102" s="14">
-        <v>1863</v>
-      </c>
-      <c r="E102" s="14">
-        <v>1931</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>917</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="I102" t="s">
-        <v>333</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D103" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E103" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>918</v>
-      </c>
-      <c r="G103" t="s">
-        <v>919</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="I103" t="s">
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1910</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="I107" t="s">
         <v>334</v>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" s="17">
-        <v>1855</v>
-      </c>
-      <c r="E105" s="17">
-        <v>1928</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="I105" t="s">
-        <v>335</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E106" s="12">
-        <v>1910</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="I106" t="s">
-        <v>336</v>
-      </c>
-      <c r="J106" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D107" s="12">
-        <v>1850</v>
-      </c>
-      <c r="E107" s="12">
-        <v>1918</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="I107" t="s">
-        <v>337</v>
-      </c>
       <c r="J107" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E108" s="12">
+        <v>1918</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="I108" t="s">
+        <v>335</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D109" s="12">
         <v>1856</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E109" s="12">
         <v>1908</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="I108" t="s">
-        <v>338</v>
-      </c>
-      <c r="J108" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="12">
-        <v>1847</v>
-      </c>
-      <c r="E109" s="12">
-        <v>1907</v>
-      </c>
       <c r="F109" s="12" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
+        <v>634</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="I109" t="s">
+        <v>336</v>
+      </c>
       <c r="J109" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E110" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>729</v>
+      </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
+      <c r="B111" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B112" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D112" s="12">
         <v>1858</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E112" s="12">
         <v>1917</v>
       </c>
-      <c r="F111" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H111" s="12" t="s">
+      <c r="F112" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="I112" t="s">
+        <v>337</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1823</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E114" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="I114" t="s">
+        <v>338</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" s="14">
+        <v>1868</v>
+      </c>
+      <c r="E115" s="14">
+        <v>1932</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="I115" t="s">
+        <v>339</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="12">
+        <v>1834</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="I116" t="s">
+        <v>340</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1797</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1875</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I117" t="s">
+        <v>341</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1857</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1912</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="I118" t="s">
+        <v>342</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="12">
+        <v>1853</v>
+      </c>
+      <c r="E119" s="12">
+        <v>1914</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="H119" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="I111" t="s">
-        <v>339</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E113" s="12">
-        <v>1927</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H113" s="12" t="s">
+      <c r="I119" t="s">
+        <v>343</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D120" s="19">
+        <v>1845</v>
+      </c>
+      <c r="E120" s="19">
+        <v>1933</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="H120" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="I113" t="s">
-        <v>340</v>
-      </c>
-      <c r="J113" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D114" s="14">
-        <v>1868</v>
-      </c>
-      <c r="E114" s="14">
-        <v>1932</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>924</v>
-      </c>
-      <c r="H114" s="14" t="s">
+      <c r="I120" t="s">
+        <v>344</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="12">
+        <v>1831</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1903</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H121" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="I114" t="s">
-        <v>341</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="12">
-        <v>1834</v>
-      </c>
-      <c r="E115" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="G115" s="12" t="s">
+      <c r="I121" t="s">
+        <v>345</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1869</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1951</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G122" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="H122" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="I115" t="s">
-        <v>342</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="12">
-        <v>1797</v>
-      </c>
-      <c r="E116" s="12">
-        <v>1875</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I116" t="s">
-        <v>343</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D117" s="12">
-        <v>1857</v>
-      </c>
-      <c r="E117" s="12">
-        <v>1912</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I117" t="s">
-        <v>344</v>
-      </c>
-      <c r="J117" s="12" t="s">
+      <c r="I122" s="12"/>
+      <c r="J122" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1838</v>
+      </c>
+      <c r="E123" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I123" t="s">
+        <v>346</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1841</v>
+      </c>
+      <c r="E124" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="I124" t="s">
+        <v>347</v>
+      </c>
+      <c r="J124" s="12" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="12">
-        <v>1853</v>
-      </c>
-      <c r="E118" s="12">
-        <v>1914</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="I118" t="s">
-        <v>345</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D119" s="19">
-        <v>1845</v>
-      </c>
-      <c r="E119" s="19">
-        <v>1933</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="I119" t="s">
-        <v>346</v>
-      </c>
-      <c r="J119" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="12">
-        <v>1831</v>
-      </c>
-      <c r="E120" s="12">
-        <v>1903</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="I120" t="s">
-        <v>347</v>
-      </c>
-      <c r="J120" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="12">
-        <v>1869</v>
-      </c>
-      <c r="E121" s="12">
-        <v>1951</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D122" s="12">
-        <v>1838</v>
-      </c>
-      <c r="E122" s="12">
-        <v>1917</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="I122" t="s">
-        <v>348</v>
-      </c>
-      <c r="J122" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="12">
-        <v>1841</v>
-      </c>
-      <c r="E123" s="12">
-        <v>1907</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="I123" t="s">
-        <v>349</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" s="12">
-        <v>1842</v>
-      </c>
-      <c r="E124" s="12">
-        <v>1921</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="I124" t="s">
-        <v>350</v>
-      </c>
-      <c r="J124" s="12" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1842</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="I125" t="s">
+        <v>348</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>1858</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>1926</v>
       </c>
-      <c r="F125" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="I125" t="s">
-        <v>351</v>
-      </c>
-      <c r="J125" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126" s="12">
-        <v>1859</v>
-      </c>
-      <c r="E126" s="12">
-        <v>1913</v>
-      </c>
       <c r="F126" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="G126" t="s">
-        <v>934</v>
+        <v>634</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>634</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="I126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1859</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1913</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="G127" t="s">
+        <v>930</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="I127" t="s">
+        <v>350</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B128" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C128" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>1836</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>1914</v>
       </c>
-      <c r="F127" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="I127" t="s">
-        <v>353</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D128" s="12">
-        <v>1866</v>
-      </c>
-      <c r="E128" s="12">
-        <v>1934</v>
-      </c>
       <c r="F128" s="12" t="s">
-        <v>645</v>
+        <v>921</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="I128" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="12">
+        <v>1866</v>
+      </c>
+      <c r="E129" s="12">
+        <v>1934</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I129" t="s">
+        <v>352</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B130" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>1860</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>1936</v>
       </c>
-      <c r="F129" s="12" t="s">
-        <v>926</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="I129" t="s">
-        <v>355</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
+      <c r="F130" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I130" t="s">
+        <v>353</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12" t="s">
+      <c r="B131" s="12"/>
+      <c r="C131" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>1847</v>
-      </c>
-      <c r="E130" s="12">
-        <v>1917</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I130" t="s">
-        <v>356</v>
-      </c>
-      <c r="J130" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="12">
-        <v>1849</v>
       </c>
       <c r="E131" s="12">
         <v>1917</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>927</v>
+        <v>742</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H131" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I131" t="s">
+        <v>354</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1917</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="I132" t="s">
+        <v>355</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" s="12">
+        <v>1823</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1896</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I133" t="s">
+        <v>356</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D134" s="10">
+        <v>1869</v>
+      </c>
+      <c r="E134" s="10">
+        <v>1943</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="I134" t="s">
+        <v>358</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1846</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="I135" t="s">
+        <v>360</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1847</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="I136" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D137" s="12">
+        <v>1815</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1905</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="H137" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="I131" t="s">
-        <v>357</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D132" s="12">
-        <v>1823</v>
-      </c>
-      <c r="E132" s="12">
-        <v>1896</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I132" t="s">
-        <v>358</v>
-      </c>
-      <c r="J132" s="12" t="s">
+      <c r="I137" t="s">
+        <v>361</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1859</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="I138" t="s">
+        <v>362</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A139" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1843</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1915</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I139" t="s">
+        <v>363</v>
+      </c>
+      <c r="J139" s="12" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D133" s="10">
-        <v>1869</v>
-      </c>
-      <c r="E133" s="10">
-        <v>1943</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="I133" t="s">
-        <v>360</v>
-      </c>
-      <c r="J133" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" s="12">
-        <v>1846</v>
-      </c>
-      <c r="E134" s="12">
-        <v>1907</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="I134" t="s">
-        <v>362</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D135" s="12">
-        <v>1847</v>
-      </c>
-      <c r="E135" s="12">
-        <v>1921</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="G135" s="12" t="s">
+    <row r="140" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A140" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1861</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1941</v>
+      </c>
+      <c r="F141" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="H135" s="12" t="s">
+      <c r="G141" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H141" s="12" t="s">
         <v>872</v>
       </c>
-      <c r="I135" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D136" s="12">
-        <v>1815</v>
-      </c>
-      <c r="E136" s="12">
-        <v>1905</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="I136" t="s">
-        <v>363</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" s="12">
-        <v>1859</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="I141" t="s">
         <v>364</v>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="12">
-        <v>1843</v>
-      </c>
-      <c r="E138" s="12">
-        <v>1915</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="I138" t="s">
-        <v>365</v>
-      </c>
-      <c r="J138" s="12" t="s">
+      <c r="J141" s="12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A139" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B139" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D139" s="46"/>
-      <c r="E139" s="46"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="I139" s="45"/>
-      <c r="J139" s="45" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D140" s="12">
-        <v>1861</v>
-      </c>
-      <c r="E140" s="12">
-        <v>1941</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>876</v>
-      </c>
-      <c r="I140" t="s">
-        <v>366</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+    <row r="142" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="12">
-        <v>1833</v>
-      </c>
-      <c r="E141" s="12">
-        <v>1895</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G141" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="I141" t="s">
-        <v>368</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1833</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1895</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="I142" t="s">
+        <v>366</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A143" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D143" s="12">
         <v>1842</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E143" s="12">
         <v>1927</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F143" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G142" s="12" t="s">
+      <c r="G143" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H142" s="12" t="s">
-        <v>878</v>
-      </c>
-      <c r="I142" t="s">
-        <v>369</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+      <c r="H143" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="I143" t="s">
+        <v>367</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B144" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D144" s="12">
         <v>1847</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E144" s="12">
         <v>1916</v>
       </c>
-      <c r="F143" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>879</v>
-      </c>
-      <c r="I143" t="s">
-        <v>370</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
+      <c r="F144" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="I144" t="s">
+        <v>368</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D144" s="12">
-        <v>1849</v>
-      </c>
-      <c r="E144" s="12">
-        <v>1913</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>880</v>
-      </c>
-      <c r="I144" t="s">
-        <v>371</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D145" s="12">
-        <v>1861</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>231</v>
+        <v>1849</v>
+      </c>
+      <c r="E145" s="12">
+        <v>1913</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>641</v>
+        <v>753</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="I145" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>492</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1861</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="I146" t="s">
+        <v>370</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B147" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C147" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D147" s="12">
         <v>1847</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E147" s="12">
         <v>1926</v>
       </c>
-      <c r="F146" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="H146" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I146" t="s">
-        <v>373</v>
-      </c>
-      <c r="J146" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+      <c r="F147" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="I147" t="s">
+        <v>371</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A148" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B148" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D147" s="14">
+      <c r="D148" s="14">
         <v>1845</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E148" s="14">
         <v>1921</v>
       </c>
-      <c r="F147" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>932</v>
-      </c>
-      <c r="H147" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A148" s="20" t="s">
+      <c r="F148" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A149" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B149" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C149" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D148" s="21">
+      <c r="D149" s="21">
         <v>1855</v>
       </c>
-      <c r="E148" s="21">
+      <c r="E149" s="21">
         <v>1940</v>
       </c>
-      <c r="F148" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="G148" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="H148" s="21" t="s">
-        <v>884</v>
-      </c>
-      <c r="I148" t="s">
-        <v>374</v>
-      </c>
-      <c r="J148" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A149" s="24" t="s">
+      <c r="F149" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="H149" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="I149" t="s">
+        <v>372</v>
+      </c>
+      <c r="J149" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A150" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D149" s="25">
-        <v>1846</v>
-      </c>
-      <c r="E149" s="25">
-        <v>1907</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>768</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I149" t="s">
-        <v>375</v>
-      </c>
-      <c r="J149" s="26" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A150" s="27" t="s">
-        <v>239</v>
       </c>
       <c r="B150" s="25"/>
       <c r="C150" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="25">
+        <v>1846</v>
+      </c>
+      <c r="E150" s="25">
+        <v>1907</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I150" t="s">
+        <v>373</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A151" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D151" s="25">
         <v>1858</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E151" s="25">
         <v>1940</v>
       </c>
-      <c r="F150" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="G150" s="25" t="s">
+      <c r="F151" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I151" t="s">
+        <v>374</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A152" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="25">
+        <v>1856</v>
+      </c>
+      <c r="E152" s="25">
+        <v>1945</v>
+      </c>
+      <c r="F152" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="H150" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="G152" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="I152" t="s">
+        <v>375</v>
+      </c>
+      <c r="J152" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="J150" s="26" t="s">
+      <c r="D153" s="22">
+        <v>1849</v>
+      </c>
+      <c r="E153" s="22">
+        <v>1925</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="H153" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="I153" t="s">
+        <v>378</v>
+      </c>
+      <c r="J153" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A154" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D154" s="12">
+        <v>1848</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1921</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I154" t="s">
+        <v>379</v>
+      </c>
+      <c r="J154" s="12" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A151" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D151" s="25">
-        <v>1856</v>
-      </c>
-      <c r="E151" s="25">
-        <v>1945</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="G151" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="I151" t="s">
-        <v>377</v>
-      </c>
-      <c r="J151" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D152" s="22">
-        <v>1849</v>
-      </c>
-      <c r="E152" s="22">
-        <v>1925</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="I152" t="s">
-        <v>380</v>
-      </c>
-      <c r="J152" s="23" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D153" s="12">
-        <v>1848</v>
-      </c>
-      <c r="E153" s="12">
-        <v>1921</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="I153" t="s">
-        <v>381</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D154" s="12">
-        <v>1851</v>
-      </c>
-      <c r="E154" s="12">
-        <v>1927</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="G154" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="I154" t="s">
-        <v>382</v>
-      </c>
-      <c r="J154" s="12" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" s="12">
+        <v>1851</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1927</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="I155" t="s">
+        <v>380</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12" t="s">
+      <c r="B156" s="12"/>
+      <c r="C156" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D156" s="12">
         <v>1862</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E156" s="12">
         <v>1941</v>
       </c>
-      <c r="F155" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="F156" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I156" t="s">
+        <v>381</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A157" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D157" s="12">
+        <v>1849</v>
+      </c>
+      <c r="E157" s="12">
+        <v>1934</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="I157" t="s">
+        <v>382</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D158" s="12">
+        <v>1864</v>
+      </c>
+      <c r="E158" s="12">
+        <v>1937</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="I158" t="s">
         <v>383</v>
       </c>
-      <c r="J155" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D156" s="12">
-        <v>1849</v>
-      </c>
-      <c r="E156" s="12">
-        <v>1934</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="H156" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="I156" t="s">
-        <v>384</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="12">
-        <v>1864</v>
-      </c>
-      <c r="E157" s="12">
-        <v>1937</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>891</v>
-      </c>
-      <c r="I157" t="s">
-        <v>385</v>
-      </c>
-      <c r="J157" s="12" t="s">
-        <v>498</v>
+      <c r="J158" s="12" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8740,7 @@
     <hyperlink ref="I57" r:id="rId5"/>
     <hyperlink ref="I55" r:id="rId6"/>
     <hyperlink ref="I76" r:id="rId7"/>
-    <hyperlink ref="I135" r:id="rId8"/>
+    <hyperlink ref="I136" r:id="rId8"/>
     <hyperlink ref="I33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794AAFC-139E-F84C-98B4-80D3D06EAAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="943">
   <si>
     <t>Abrahamowicz</t>
   </si>
@@ -373,9 +374,6 @@
     <t>Lajos</t>
   </si>
   <si>
-    <t>Rechtsanwalt, 1848 ungar. Finanzminister,  Anführer der ungar. Unabhängigkeitsbewegung, 1849 ungar. Reichsverweser</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kramář </t>
   </si>
   <si>
@@ -515,9 +513,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pestalozza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graf von  </t>
   </si>
   <si>
     <t>Hugo</t>
@@ -1839,6 +1834,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>ant</t>
@@ -1861,9 +1857,6 @@
   </si>
   <si>
     <t>Ritter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  https://d-nb.info/gnd/1157617565</t>
   </si>
   <si>
     <t>https://d-nb.info/gnd/118660691</t>
@@ -2408,9 +2401,6 @@
     <t>1872 MuAH, 8.4.1906–17.1.1910 u. 15.6.1917–8.5.1918 ungar. Unterrichtsminister</t>
   </si>
   <si>
-    <t>1848–49 österr. Justizminister,  1849–1859 Innenminister, 1859–1865 Botschafter am Hl. Stuhl</t>
-  </si>
-  <si>
     <t>1882 Landespräsident von Schlesien, 1886–1893 österr. Handelsminister, 1893–1895 Innenminister, ab 1895 MöHH (Mittelpartei), 1895–1898 Statthalter der Steiermark, 1908–1917 Präsident des Verwaltungsgerichtshofs</t>
   </si>
   <si>
@@ -2492,21 +2482,12 @@
     <t xml:space="preserve">1881–1893 Chefred. "Münchener Neueste Nachrichten", ab 1896 Hg. "Soziale Praxis", Sozialpolitiker </t>
   </si>
   <si>
-    <t xml:space="preserve">1886–1918 MöHH (Verfassungspartei) u. 1907–1918 Vizepräs. öHH, ab 1897 MpreußHH, 1901–1907 MböhmLt  </t>
-  </si>
-  <si>
     <t>5.11.1885–11.11.1893 u. 30.9.1895–28.11.1897 österr. Unterrichtsminister, 28.11.1897–5.3.1898 Ministerpräs. und Leiter des Innenministeriums, 31.12.1904–2.5.1906 und 28.6.–3.11.1911 österr. Ministerpräs., 1899–1904 u. 1906–1911 Präs. d. Obersten Rechnungshofes, 1895–1918 MöHH (Mittelpartei)</t>
   </si>
   <si>
-    <t>1891–1911 MöAH (u.a. Christlich–soziale Vereinigung), 1893–1911 Gemeinderat von Wien, 1896–1911 MnöLt,  9.11.1907–21.3.1908 Minister o.P. (deutscher Landsmannminister), 21.3.–15.11.1908 Minister für öffentliche Arbeiten</t>
-  </si>
-  <si>
     <t>1892–1912 MtirLt, 1897–1907 MöAH (Verfassungstreuer Großgrundbesitz), 1907–1918 MöHH (Verfassungspartei), 19131918 Präs. d. Reichsgerichts, 1919–1920 Präs. des Verwaltungsgerichtshofs</t>
   </si>
   <si>
-    <t>1889–1918 MöAH (u.a. deutsch–fortschrittliche Vereinigung) u. 1917–1918 Präs. öAH,  1902–1912 MmährLt, 1905–1925 Obmann des Deutschen Schulvereins</t>
-  </si>
-  <si>
     <t>18.6.–18.10.1905 ungar. Ackerbauminister</t>
   </si>
   <si>
@@ -2543,9 +2524,6 @@
     <t xml:space="preserve">Feldherr, 1848–1859 Banus von Kroatien, Feldzeugmeister </t>
   </si>
   <si>
-    <t>Journalist, 1911–1919 Hg. "Deutsche soziale Rundschau",  1907–1918 MöAH (u.a. Deutsche Agrarpartei u. Deutsche Volkspartei)</t>
-  </si>
-  <si>
     <t>1884–1917 MuAH (Führer der Unabhängigkeitspartei), 1905–1909 Präs. d. ungar. AH</t>
   </si>
   <si>
@@ -2582,9 +2560,6 @@
     <t>Eisenbahningenieur, 1895 MuAH (1897 Führer der Unabhängigkeitspartei), 8.4.1906–17.1.1910 ungar. Handelsminister</t>
   </si>
   <si>
-    <t xml:space="preserve">1891–1916 MöAH (u.a. Böhm. Klub) u. 1897 1. Vizepräs. öAH, 1894–1913 MböhmLt,  Zeitungsherausgeber, 1908 Mitbesitzer der "Národní listy", 1916 von österr. Militärgericht zum Tod verurteilt, 1917 begnadigt, 1918–1919 tschech. Ministerpräs. </t>
-  </si>
-  <si>
     <t>18.6.1905–8.4.1906 ungar. Innenminister</t>
   </si>
   <si>
@@ -2645,9 +2620,6 @@
     <t>1891–1908 MöAH (u.a. Vereinigte deutsche Linke, Deutsche Agrarpartei), 1895–1908 MböhmLt, 9.11.1907–1.5.1908 M. o. P. (dt. Landmannminister)</t>
   </si>
   <si>
-    <t xml:space="preserve">1888 o. Prof. f. Nationalökonomie Univ. Freiburg i.B., 1893–1917 o. Prof. f. politische Ökonomie Univ. Wien, 1896–1902 u. 1905–1906 MnöLt (Obmann Sozialpolit. Partei),  1909–1917 MöHH (Verfassungspartei) </t>
-  </si>
-  <si>
     <t>1885–1911 MöAH (u.a. Deutscher Klub, Deutsche Volkspartei), 1885–1910 MböhmLt (mit Unterbrechungen), 2.6.1906–9.11.1907 österr. Minister o. P. (Dt. Landsmannminister)</t>
   </si>
   <si>
@@ -2684,9 +2656,6 @@
     <t>1879–1907 MöAH (u.a. Vereinigte Deutsche Linke, Verfassungstreuer Großgrundbesitz), ab 1884 MkrainLt, 1907–1914 MöHH (Verfassungspartei)</t>
   </si>
   <si>
-    <t>1902–1910 Vorstand der Präsidialkanzlei des Ministerpräsidiums,  1910–1916 Gouverneur u. 1919–1929 Präs. d. Bodenkreditanstalt, 1912–1918 MöHH (Verfassungspartei)</t>
-  </si>
-  <si>
     <t>1892–1913 MböhmLt, 1891–1907 MöAH (böhm. Konservativer Großgrundbesitz), 1907–1918 MöHH (Gruppe der Rechten), 30.8.1917–11.11.1918 österr. Ackerbauminister</t>
   </si>
   <si>
@@ -2745,9 +2714,6 @@
   </si>
   <si>
     <t>17.11.1892–14.1.1895, 8.4.1906–17.1.1910 u. 20.8.1917–31.10.1918 ungar. Ministerpräs., u.a. 1889–1895 u. 1906–1910 ungar. Finanzminister</t>
-  </si>
-  <si>
-    <t>1883–1893 MböhmLt, 1876–1885 MuMH,  1879–1918 MöHH (Gruppe der Rechten), 11.11.1893–19.6.1895 österr. Ministerpräsident, 1897–1918 Präs. öHH</t>
   </si>
   <si>
     <t>Redakteur u. Hg. u.a. "Ostdeutsche Rundschau", 1897–1913 MböhmLt (mit Unterbrechungen), 1897–1901 u. 1902–1918 MöAH (u.a. Deutschradikale Vereinigung)</t>
@@ -2937,11 +2903,44 @@
   <si>
     <t>PohlFerdinand</t>
   </si>
+  <si>
+    <t>1883–1893 MböhmLt, 1876–1885 MuMH, 1879–1918 MöHH (Gruppe der Rechten), 11.11.1893–19.6.1895 österr. Ministerpräsident, 1897–1918 Präs. öHH</t>
+  </si>
+  <si>
+    <t>1848–49 österr. Justizminister, 1849–1859 Innenminister, 1859–1865 Botschafter am Hl. Stuhl</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/1157617565</t>
+  </si>
+  <si>
+    <t>1886–1918 MöHH (Verfassungspartei) u. 1907–1918 Vizepräs. öHH, ab 1897 MpreußHH, 1901–1907 MböhmLt</t>
+  </si>
+  <si>
+    <t>1889–1918 MöAH (u.a. deutsch–fortschrittliche Vereinigung) u. 1917–1918 Präs. öAH, 1902–1912 MmährLt, 1905–1925 Obmann des Deutschen Schulvereins</t>
+  </si>
+  <si>
+    <t>Journalist, 1911–1919 Hg. "Deutsche soziale Rundschau", 1907–1918 MöAH (u.a. Deutsche Agrarpartei u. Deutsche Volkspartei)</t>
+  </si>
+  <si>
+    <t>Rechtsanwalt, 1848 ungar. Finanzminister, Anführer der ungar. Unabhängigkeitsbewegung, 1849 ungar. Reichsverweser</t>
+  </si>
+  <si>
+    <t>1891–1916 MöAH (u.a. Böhm. Klub) u. 1897 1. Vizepräs. öAH, 1894–1913 MböhmLt, Zeitungsherausgeber, 1908 Mitbesitzer der "Národní listy", 1916 von österr. Militärgericht zum Tod verurteilt, 1917 begnadigt, 1918–1919 tschech. Ministerpräs.</t>
+  </si>
+  <si>
+    <t>1902–1910 Vorstand der Präsidialkanzlei des Ministerpräsidiums, 1910–1916 Gouverneur u. 1919–1929 Präs. d. Bodenkreditanstalt, 1912–1918 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1888 o. Prof. f. Nationalökonomie Univ. Freiburg i.B., 1893–1917 o. Prof. f. politische Ökonomie Univ. Wien, 1896–1902 u. 1905–1906 MnöLt (Obmann Sozialpolit. Partei), 1909–1917 MöHH (Verfassungspartei)</t>
+  </si>
+  <si>
+    <t>1891–1911 MöAH (u.a. Christlich–soziale Vereinigung), 1893–1911 Gemeinderat von Wien, 1896–1911 MnöLt, 9.11.1907–21.3.1908 Minister o.P. (deutscher Landsmannminister), 21.3.–15.11.1908 Minister für öffentliche Arbeiten</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2986,6 +2985,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3120,7 +3120,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3221,35 +3221,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -3587,18 +3562,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nachname" dataDxfId="9"/>
-    <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
-    <tableColumn id="3" name="Vorname" dataDxfId="7"/>
-    <tableColumn id="4" name="Geburtsjahr" dataDxfId="6"/>
-    <tableColumn id="5" name="Sterbejahr" dataDxfId="5"/>
-    <tableColumn id="10" name="Geburtsort" dataDxfId="4"/>
-    <tableColumn id="9" name="Sterbeort" dataDxfId="3"/>
-    <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
-    <tableColumn id="7" name="PID" dataDxfId="1"/>
-    <tableColumn id="8" name="key" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Namenszusatz" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vorname" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Geburtsjahr" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sterbejahr" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Geburtsort" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sterbeort" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bezeichnung" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PID" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3866,11 +3841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="147" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="E47" zoomScale="147" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3888,36 +3863,36 @@
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3932,7 +3907,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3949,22 +3924,22 @@
         <v>1926</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3981,22 +3956,22 @@
         <v>1918</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4013,19 +3988,19 @@
         <v>1919</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -4045,22 +4020,22 @@
         <v>1929</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4077,30 +4052,30 @@
         <v>1933</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D8" s="2">
         <v>1813</v>
@@ -4109,30 +4084,30 @@
         <v>1893</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>771</v>
+        <v>933</v>
       </c>
       <c r="I8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D9" s="2">
         <v>1847</v>
@@ -4141,30 +4116,30 @@
         <v>1917</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D10" s="2">
         <v>1846</v>
@@ -4173,28 +4148,28 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D11" s="5">
         <v>1845</v>
@@ -4203,30 +4178,30 @@
         <v>1925</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D12" s="7">
         <v>1843</v>
@@ -4235,28 +4210,28 @@
         <v>1911</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D13" s="7">
         <v>1823</v>
@@ -4265,30 +4240,30 @@
         <v>1906</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
         <v>1831</v>
@@ -4299,24 +4274,24 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>593</v>
+        <v>770</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D15" s="2">
         <v>1854</v>
@@ -4325,24 +4300,24 @@
         <v>1943</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="I15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4352,18 +4327,18 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2">
         <v>1815</v>
@@ -4372,30 +4347,30 @@
         <v>1898</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="I17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2">
         <v>1851</v>
@@ -4404,28 +4379,28 @@
         <v>1914</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D19" s="2">
         <v>1808</v>
@@ -4434,30 +4409,30 @@
         <v>1873</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D20" s="2">
         <v>1798</v>
@@ -4466,22 +4441,22 @@
         <v>1860</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -4498,22 +4473,22 @@
         <v>1929</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4530,22 +4505,22 @@
         <v>1929</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -4562,22 +4537,22 @@
         <v>1909</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4594,22 +4569,22 @@
         <v>1915</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4626,22 +4601,22 @@
         <v>1927</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -4658,22 +4633,22 @@
         <v>1899</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -4690,22 +4665,22 @@
         <v>1912</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -4722,22 +4697,22 @@
         <v>1924</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -4754,22 +4729,22 @@
         <v>1932</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -4786,22 +4761,22 @@
         <v>1913</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -4818,30 +4793,30 @@
         <v>1932</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D32" s="30">
         <v>1852</v>
@@ -4850,19 +4825,19 @@
         <v>1911</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -4879,22 +4854,22 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -4909,22 +4884,22 @@
         <v>1936</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4941,22 +4916,22 @@
         <v>1904</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -4973,77 +4948,77 @@
         <v>1924</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="2">
         <v>1866</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="2">
         <v>1929</v>
       </c>
-      <c r="F37" s="38" t="s">
-        <v>896</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>792</v>
+      <c r="F37" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
+      <c r="J37" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1857</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1907</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="J38" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D38" s="38">
-        <v>1857</v>
-      </c>
-      <c r="E38" s="38">
-        <v>1907</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -5060,22 +5035,22 @@
         <v>1909</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5092,22 +5067,22 @@
         <v>1940</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -5124,19 +5099,19 @@
         <v>1949</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5145,7 +5120,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -5156,10 +5131,10 @@
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>63</v>
       </c>
@@ -5176,22 +5151,22 @@
         <v>1899</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>64</v>
       </c>
@@ -5208,22 +5183,22 @@
         <v>1914</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>67</v>
       </c>
@@ -5240,22 +5215,22 @@
         <v>1921</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>69</v>
       </c>
@@ -5263,7 +5238,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D46" s="14">
         <v>1863</v>
@@ -5272,22 +5247,22 @@
         <v>1941</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>799</v>
+        <v>935</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -5304,73 +5279,73 @@
         <v>1918</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="30">
         <v>1846</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="30">
         <v>1908</v>
       </c>
-      <c r="F49" s="38" t="s">
-        <v>898</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="H49" s="38" t="s">
+      <c r="F49" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -5385,27 +5360,27 @@
         <v>1920</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>801</v>
+        <v>942</v>
       </c>
       <c r="I50" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
@@ -5417,27 +5392,27 @@
         <v>1921</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="I51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>32</v>
@@ -5449,22 +5424,22 @@
         <v>1923</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="I52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -5481,22 +5456,22 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>803</v>
+        <v>936</v>
       </c>
       <c r="I53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
@@ -5504,7 +5479,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D54" s="2">
         <v>1848</v>
@@ -5513,26 +5488,26 @@
         <v>1927</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D55" s="2">
         <v>1768</v>
@@ -5541,28 +5516,28 @@
         <v>1835</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D56" s="2">
         <v>1830</v>
@@ -5571,30 +5546,30 @@
         <v>1916</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="I56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" s="2">
         <v>1839</v>
@@ -5603,30 +5578,30 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D58" s="2">
         <v>1864</v>
@@ -5635,22 +5610,22 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="I58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -5667,22 +5642,22 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="I59" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -5699,22 +5674,22 @@
         <v>1924</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="I60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -5722,7 +5697,7 @@
         <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D61" s="2">
         <v>1836</v>
@@ -5731,22 +5706,22 @@
         <v>1911</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="I61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -5761,30 +5736,30 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="I62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D63" s="2">
         <v>1824</v>
@@ -5793,30 +5768,30 @@
         <v>1899</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D64" s="2">
         <v>1859</v>
@@ -5825,22 +5800,22 @@
         <v>1941</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="I64" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
@@ -5857,28 +5832,28 @@
         <v>1918</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="I65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D66" s="2">
         <v>1859</v>
@@ -5887,22 +5862,22 @@
         <v>1918</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>98</v>
       </c>
@@ -5919,22 +5894,22 @@
         <v>1859</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>100</v>
       </c>
@@ -5949,22 +5924,22 @@
         <v>1954</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>816</v>
+        <v>937</v>
       </c>
       <c r="I68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>101</v>
       </c>
@@ -5979,28 +5954,28 @@
         <v>1917</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="I69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D70" s="2">
         <v>1877</v>
@@ -6009,30 +5984,30 @@
         <v>1905</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I70" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D71" s="2">
         <v>1842</v>
@@ -6041,24 +6016,24 @@
         <v>1916</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="I71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -6073,30 +6048,30 @@
         <v>1945</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="I72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="2">
         <v>1852</v>
@@ -6105,28 +6080,28 @@
         <v>1911</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D74" s="2">
         <v>1847</v>
@@ -6135,28 +6110,28 @@
         <v>1923</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="I74" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D75" s="2">
         <v>1854</v>
@@ -6165,30 +6140,30 @@
         <v>1912</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="I75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D76" s="2">
         <v>1850</v>
@@ -6197,30 +6172,30 @@
         <v>1919</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D77" s="2">
         <v>1852</v>
@@ -6229,30 +6204,30 @@
         <v>1910</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="I77" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" s="2">
         <v>1837</v>
@@ -6261,22 +6236,22 @@
         <v>1914</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="I78" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>103</v>
       </c>
@@ -6293,22 +6268,22 @@
         <v>1909</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>106</v>
       </c>
@@ -6316,7 +6291,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D80" s="12">
         <v>1856</v>
@@ -6325,22 +6300,22 @@
         <v>1919</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="I80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>107</v>
       </c>
@@ -6355,22 +6330,22 @@
         <v>1914</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="I81" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>107</v>
       </c>
@@ -6385,30 +6360,30 @@
         <v>1894</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H82" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="I82" t="s">
+        <v>309</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="I82" t="s">
-        <v>311</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="12">
         <v>1860</v>
@@ -6417,30 +6392,30 @@
         <v>1937</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C84" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="12">
         <v>1857</v>
@@ -6449,30 +6424,30 @@
         <v>1928</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="I84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="D85" s="12">
         <v>1841</v>
@@ -6481,24 +6456,24 @@
         <v>1921</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="I85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
@@ -6511,30 +6486,30 @@
         <v>1879</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="C87" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D87" s="10">
         <v>1851</v>
@@ -6543,24 +6518,24 @@
         <v>1921</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="I87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>9</v>
@@ -6575,30 +6550,30 @@
         <v>1918</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="I88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D89" s="12">
         <v>1872</v>
@@ -6607,30 +6582,30 @@
         <v>1962</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="I89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D90" s="12">
         <v>1860</v>
@@ -6639,30 +6614,30 @@
         <v>1939</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="I90" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="D91" s="12">
         <v>1846</v>
@@ -6671,27 +6646,27 @@
         <v>1920</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>60</v>
@@ -6703,30 +6678,30 @@
         <v>1951</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="I92" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D93" s="12">
         <v>1829</v>
@@ -6735,30 +6710,30 @@
         <v>1910</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H93" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I93" t="s">
+        <v>321</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I93" t="s">
-        <v>323</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="D94" s="12">
         <v>1835</v>
@@ -6767,27 +6742,27 @@
         <v>1908</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="I94" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>21</v>
@@ -6799,24 +6774,24 @@
         <v>1926</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="I95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>41</v>
@@ -6831,30 +6806,30 @@
         <v>1945</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="I96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D97" s="12">
         <v>1845</v>
@@ -6863,24 +6838,24 @@
         <v>1929</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="I97" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>31</v>
@@ -6895,24 +6870,24 @@
         <v>1910</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="I98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>41</v>
@@ -6927,49 +6902,49 @@
         <v>1916</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="I99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="12">
         <v>1838</v>
@@ -6978,58 +6953,58 @@
         <v>1925</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="I101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A102" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="B102" s="42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="37">
+        <v>1843</v>
+      </c>
+      <c r="E102" s="14">
+        <v>1916</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="D102" s="43">
-        <v>1843</v>
-      </c>
-      <c r="E102" s="42">
-        <v>1916</v>
-      </c>
-      <c r="F102" s="42" t="s">
-        <v>912</v>
-      </c>
-      <c r="G102" s="42" t="s">
-        <v>912</v>
-      </c>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103" s="14">
         <v>1863</v>
@@ -7038,30 +7013,30 @@
         <v>1931</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="I103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D104" s="12">
         <v>1846</v>
@@ -7070,24 +7045,24 @@
         <v>1914</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G104" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="I104" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -7098,18 +7073,18 @@
       <c r="H105" s="34"/>
       <c r="I105" s="34"/>
       <c r="J105" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
+      <c r="B106" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="C106" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="D106" s="17">
         <v>1855</v>
@@ -7118,30 +7093,30 @@
         <v>1928</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="I106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="12">
         <v>1853</v>
@@ -7150,28 +7125,28 @@
         <v>1910</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I107" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D108" s="12">
         <v>1850</v>
@@ -7180,24 +7155,24 @@
         <v>1918</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="I108" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12" t="s">
@@ -7210,30 +7185,30 @@
         <v>1908</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="I109" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="D110" s="12">
         <v>1847</v>
@@ -7242,23 +7217,23 @@
         <v>1907</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -7268,18 +7243,18 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
+      <c r="B112" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D112" s="12">
         <v>1858</v>
@@ -7288,27 +7263,27 @@
         <v>1917</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>850</v>
+        <v>941</v>
       </c>
       <c r="I112" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>21</v>
@@ -7320,16 +7295,16 @@
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12" t="s">
@@ -7342,28 +7317,28 @@
         <v>1927</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="I114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D115" s="14">
         <v>1868</v>
@@ -7372,30 +7347,30 @@
         <v>1932</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="I115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D116" s="12">
         <v>1834</v>
@@ -7404,30 +7379,30 @@
         <v>1914</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="I116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="D117" s="12">
         <v>1797</v>
@@ -7436,30 +7411,30 @@
         <v>1875</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H117" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I117" t="s">
+        <v>339</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I117" t="s">
-        <v>341</v>
-      </c>
-      <c r="J117" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+      <c r="C118" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="D118" s="12">
         <v>1857</v>
@@ -7468,30 +7443,30 @@
         <v>1912</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="I118" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="D119" s="12">
         <v>1853</v>
@@ -7500,30 +7475,30 @@
         <v>1914</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="I119" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="D120" s="19">
         <v>1845</v>
@@ -7532,24 +7507,24 @@
         <v>1933</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="I120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>4</v>
@@ -7564,30 +7539,30 @@
         <v>1903</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="I121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D122" s="12">
         <v>1869</v>
@@ -7596,25 +7571,25 @@
         <v>1951</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>81</v>
@@ -7626,30 +7601,30 @@
         <v>1917</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I123" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D124" s="12">
         <v>1841</v>
@@ -7658,30 +7633,30 @@
         <v>1907</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="I124" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D125" s="12">
         <v>1842</v>
@@ -7690,30 +7665,30 @@
         <v>1921</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="I125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="D126" s="12">
         <v>1858</v>
@@ -7722,27 +7697,27 @@
         <v>1926</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="I126" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>32</v>
@@ -7754,30 +7729,30 @@
         <v>1913</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G127" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="I127" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D128" s="12">
         <v>1836</v>
@@ -7786,30 +7761,30 @@
         <v>1914</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="I128" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129" s="12">
         <v>1866</v>
@@ -7818,24 +7793,24 @@
         <v>1934</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>863</v>
+        <v>940</v>
       </c>
       <c r="I129" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>9</v>
@@ -7850,28 +7825,28 @@
         <v>1936</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="I130" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D131" s="12">
         <v>1847</v>
@@ -7880,30 +7855,30 @@
         <v>1917</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I131" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D132" s="12">
         <v>1849</v>
@@ -7912,28 +7887,28 @@
         <v>1917</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="I132" t="s">
+        <v>353</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="J132" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D133" s="12">
         <v>1823</v>
@@ -7942,28 +7917,28 @@
         <v>1896</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I133" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="10">
         <v>1869</v>
@@ -7972,30 +7947,30 @@
         <v>1943</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="I134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D135" s="12">
         <v>1846</v>
@@ -8004,30 +7979,30 @@
         <v>1907</v>
       </c>
       <c r="F135" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="G135" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="G135" s="12" t="s">
-        <v>748</v>
-      </c>
       <c r="H135" s="12" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="I135" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" s="12">
         <v>1847</v>
@@ -8036,28 +8011,28 @@
         <v>1921</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="I136" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D137" s="12">
         <v>1815</v>
@@ -8066,24 +8041,24 @@
         <v>1905</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="I137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>52</v>
@@ -8095,31 +8070,31 @@
         <v>1859</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="I138" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D139" s="12">
         <v>1843</v>
@@ -8128,52 +8103,52 @@
         <v>1915</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="I139" t="s">
+        <v>361</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A140" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B140" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="D141" s="12">
         <v>1861</v>
@@ -8182,24 +8157,24 @@
         <v>1941</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="I141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>9</v>
@@ -8214,30 +8189,30 @@
         <v>1895</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="I142" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D143" s="12">
         <v>1842</v>
@@ -8246,27 +8221,27 @@
         <v>1927</v>
       </c>
       <c r="F143" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I143" t="s">
+        <v>365</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G143" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="I143" t="s">
-        <v>367</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="B144" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>92</v>
@@ -8278,30 +8253,30 @@
         <v>1916</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="I144" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D145" s="12">
         <v>1849</v>
@@ -8310,62 +8285,62 @@
         <v>1913</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="I145" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D146" s="12">
         <v>1861</v>
       </c>
       <c r="E146" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="I146" t="s">
+        <v>368</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F146" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="H146" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="I146" t="s">
-        <v>370</v>
-      </c>
-      <c r="J146" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="C147" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D147" s="12">
         <v>1847</v>
@@ -8374,27 +8349,27 @@
         <v>1926</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="I147" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>32</v>
@@ -8406,22 +8381,22 @@
         <v>1921</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="I148" s="14"/>
       <c r="J148" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>4</v>
@@ -8436,24 +8411,24 @@
         <v>1940</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="I149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J149" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B150" s="25"/>
       <c r="C150" s="25" t="s">
@@ -8466,28 +8441,28 @@
         <v>1907</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I150" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J150" s="26" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B151" s="25"/>
       <c r="C151" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D151" s="25">
         <v>1858</v>
@@ -8496,30 +8471,30 @@
         <v>1940</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H151" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I151" t="s">
+        <v>372</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A152" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="I151" t="s">
-        <v>374</v>
-      </c>
-      <c r="J151" s="26" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="C152" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="B152" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>244</v>
       </c>
       <c r="D152" s="25">
         <v>1856</v>
@@ -8528,30 +8503,30 @@
         <v>1945</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="I152" t="s">
+        <v>373</v>
+      </c>
+      <c r="J152" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J152" s="26" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="20" t="s">
-        <v>377</v>
-      </c>
       <c r="B153" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D153" s="22">
         <v>1849</v>
@@ -8560,28 +8535,28 @@
         <v>1925</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H153" s="22" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="I153" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J153" s="23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D154" s="12">
         <v>1848</v>
@@ -8590,30 +8565,30 @@
         <v>1921</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="I154" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D155" s="12">
         <v>1851</v>
@@ -8622,28 +8597,28 @@
         <v>1927</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="I155" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D156" s="12">
         <v>1862</v>
@@ -8652,30 +8627,30 @@
         <v>1941</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="I156" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D157" s="12">
         <v>1849</v>
@@ -8684,30 +8659,30 @@
         <v>1934</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="I157" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D158" s="12">
         <v>1864</v>
@@ -8716,37 +8691,38 @@
         <v>1937</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="I158" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1"/>
-    <hyperlink ref="I19" r:id="rId2"/>
-    <hyperlink ref="I18" r:id="rId3"/>
-    <hyperlink ref="I20" r:id="rId4"/>
-    <hyperlink ref="I57" r:id="rId5"/>
-    <hyperlink ref="I55" r:id="rId6"/>
-    <hyperlink ref="I76" r:id="rId7"/>
-    <hyperlink ref="I136" r:id="rId8"/>
-    <hyperlink ref="I33" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I57" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I55" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I76" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I136" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{363CFDE4-9942-694C-B878-2DF90868A3D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/xlsx/Baernreither_Personenregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\dev-baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA99F7D-477A-424A-AEF3-8EB34FC17A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13620"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2393,9 +2394,6 @@
     <t>Advokat in Wien, 1892–1910 MöAH (u.a. deutsche Fortschrittspartei), 1895–1910 MböhmLt</t>
   </si>
   <si>
-    <t>1875–1914 MgalLt, 1881–1909 u. 1911–1918 MöAH (Polenklub), 20.11.1907–3.3.1909 M. o. P. (Galizien)</t>
-  </si>
-  <si>
     <t>1889 Gründer d. "Arbeiter–Zeitung", 1901 MnöLt, 1905–1918 MöAH (soz.dem.), 30.X.1918–11.XI.1918 österr. Staatssekr. d. Äußern</t>
   </si>
   <si>
@@ -2937,11 +2935,14 @@
   <si>
     <t>PohlFerdinand</t>
   </si>
+  <si>
+    <t xml:space="preserve">1875–1914 MgalLt, 1881–1909 u. 1911–1918 MöAH (Polenklub), 20.11.1907–3.3.1909 M. o. P. (Galizien) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3248,8 +3249,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -3587,18 +3588,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nachname" dataDxfId="9"/>
-    <tableColumn id="2" name="Namenszusatz" dataDxfId="8"/>
-    <tableColumn id="3" name="Vorname" dataDxfId="7"/>
-    <tableColumn id="4" name="Geburtsjahr" dataDxfId="6"/>
-    <tableColumn id="5" name="Sterbejahr" dataDxfId="5"/>
-    <tableColumn id="10" name="Geburtsort" dataDxfId="4"/>
-    <tableColumn id="9" name="Sterbeort" dataDxfId="3"/>
-    <tableColumn id="6" name="Bezeichnung" dataDxfId="2"/>
-    <tableColumn id="7" name="PID" dataDxfId="1"/>
-    <tableColumn id="8" name="key" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Namenszusatz" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vorname" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Geburtsjahr" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sterbejahr" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Geburtsort" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sterbeort" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Bezeichnung" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PID" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3866,29 +3867,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="147" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="34.5" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>256</v>
       </c>
@@ -3914,13 +3915,13 @@
         <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3932,7 +3933,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3949,13 +3950,13 @@
         <v>1926</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>632</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>766</v>
+        <v>943</v>
       </c>
       <c r="I3" t="s">
         <v>265</v>
@@ -3964,7 +3965,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>634</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I4" t="s">
         <v>266</v>
@@ -3996,7 +3997,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>636</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I5" t="s">
         <v>267</v>
@@ -4028,7 +4029,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4045,13 +4046,13 @@
         <v>1929</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>637</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I6" t="s">
         <v>531</v>
@@ -4060,7 +4061,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>638</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I7" t="s">
         <v>268</v>
@@ -4092,7 +4093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>583</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I8" t="s">
         <v>589</v>
@@ -4124,7 +4125,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>541</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>634</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I9" t="s">
         <v>542</v>
@@ -4156,7 +4157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>549</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>1909</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>642</v>
@@ -4188,7 +4189,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>545</v>
       </c>
@@ -4206,10 +4207,10 @@
         <v>633</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>547</v>
@@ -4218,7 +4219,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>577</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>572</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>586</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>593</v>
@@ -4308,7 +4309,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>537</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>634</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I15" t="s">
         <v>539</v>
@@ -4340,7 +4341,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>585</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>530</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>647</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I17" t="s">
         <v>532</v>
@@ -4387,7 +4388,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>581</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>649</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>594</v>
@@ -4419,7 +4420,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>518</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>584</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>634</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>596</v>
@@ -4481,7 +4482,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>655</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I22" t="s">
         <v>270</v>
@@ -4545,7 +4546,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>657</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I23" t="s">
         <v>271</v>
@@ -4577,7 +4578,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>658</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I24" t="s">
         <v>272</v>
@@ -4609,7 +4610,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I25" t="s">
         <v>273</v>
@@ -4641,7 +4642,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>662</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I26" t="s">
         <v>274</v>
@@ -4673,7 +4674,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>663</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I27" t="s">
         <v>275</v>
@@ -4705,7 +4706,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>665</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I28" t="s">
         <v>276</v>
@@ -4737,7 +4738,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>666</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I29" t="s">
         <v>277</v>
@@ -4769,7 +4770,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>667</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I30" t="s">
         <v>278</v>
@@ -4801,7 +4802,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>634</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I31" t="s">
         <v>279</v>
@@ -4833,7 +4834,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>598</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>1911</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>634</v>
@@ -4862,7 +4863,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -4879,13 +4880,13 @@
         <v>1917</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>669</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>280</v>
@@ -4894,7 +4895,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>671</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I34" t="s">
         <v>281</v>
@@ -4924,7 +4925,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>673</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I35" t="s">
         <v>282</v>
@@ -4956,7 +4957,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>634</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I36" t="s">
         <v>283</v>
@@ -4988,7 +4989,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
@@ -5005,20 +5006,20 @@
         <v>1929</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>633</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="38" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>568</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>634</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I39" t="s">
         <v>284</v>
@@ -5075,7 +5076,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>634</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I40" t="s">
         <v>285</v>
@@ -5107,7 +5108,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>676</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I41" t="s">
         <v>286</v>
@@ -5139,7 +5140,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>63</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>634</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I43" t="s">
         <v>287</v>
@@ -5191,7 +5192,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>64</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>634</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I44" t="s">
         <v>288</v>
@@ -5223,7 +5224,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>67</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>679</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I45" t="s">
         <v>289</v>
@@ -5255,7 +5256,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>69</v>
       </c>
@@ -5272,22 +5273,22 @@
         <v>1941</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>680</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I46" t="s">
         <v>290</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>634</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I47" t="s">
         <v>291</v>
@@ -5319,7 +5320,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -5336,7 +5337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>74</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>1908</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>659</v>
@@ -5368,7 +5369,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>559</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>682</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I50" t="s">
         <v>560</v>
@@ -5400,7 +5401,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>632</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I51" t="s">
         <v>293</v>
@@ -5432,7 +5433,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>667</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I52" t="s">
         <v>294</v>
@@ -5464,7 +5465,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
@@ -5481,13 +5482,13 @@
         <v>1935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>634</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I53" t="s">
         <v>295</v>
@@ -5496,7 +5497,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
@@ -5519,14 +5520,14 @@
         <v>637</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>456</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>634</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>604</v>
@@ -5556,7 +5557,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>456</v>
       </c>
@@ -5577,16 +5578,16 @@
         <v>634</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I56" t="s">
         <v>459</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>582</v>
       </c>
@@ -5603,13 +5604,13 @@
         <v>1907</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>634</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>602</v>
@@ -5618,7 +5619,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>563</v>
       </c>
@@ -5635,13 +5636,13 @@
         <v>1944</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>686</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I58" t="s">
         <v>566</v>
@@ -5650,7 +5651,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -5667,13 +5668,13 @@
         <v>1908</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>633</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I59" t="s">
         <v>297</v>
@@ -5682,7 +5683,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>688</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I60" t="s">
         <v>298</v>
@@ -5714,7 +5715,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>637</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I61" t="s">
         <v>299</v>
@@ -5746,7 +5747,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -5761,13 +5762,13 @@
         <v>1907</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>634</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I62" t="s">
         <v>301</v>
@@ -5776,7 +5777,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>526</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>634</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I63" t="s">
         <v>527</v>
@@ -5808,7 +5809,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>534</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>691</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I64" t="s">
         <v>536</v>
@@ -5840,7 +5841,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>692</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I65" t="s">
         <v>302</v>
@@ -5872,7 +5873,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>1918</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>637</v>
@@ -5902,7 +5903,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>98</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>636</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I67" t="s">
         <v>305</v>
@@ -5934,7 +5935,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>100</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>695</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I68" t="s">
         <v>306</v>
@@ -5964,7 +5965,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>101</v>
       </c>
@@ -5979,13 +5980,13 @@
         <v>1917</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>637</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I69" t="s">
         <v>307</v>
@@ -5994,7 +5995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>620</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>498</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>676</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I71" t="s">
         <v>512</v>
@@ -6056,7 +6057,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>500</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>700</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I72" t="s">
         <v>513</v>
@@ -6088,7 +6089,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>501</v>
       </c>
@@ -6111,14 +6112,14 @@
         <v>701</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>502</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>634</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I74" t="s">
         <v>514</v>
@@ -6150,7 +6151,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>504</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>704</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I75" t="s">
         <v>515</v>
@@ -6180,7 +6181,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>506</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>658</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>606</v>
@@ -6212,7 +6213,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>508</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>634</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I77" t="s">
         <v>516</v>
@@ -6244,7 +6245,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>510</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>641</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I78" t="s">
         <v>517</v>
@@ -6276,7 +6277,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>103</v>
       </c>
@@ -6293,13 +6294,13 @@
         <v>1909</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>637</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I79" t="s">
         <v>308</v>
@@ -6308,7 +6309,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>106</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>634</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I80" t="s">
         <v>309</v>
@@ -6340,7 +6341,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>107</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>637</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I81" t="s">
         <v>310</v>
@@ -6370,7 +6371,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>107</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>111</v>
       </c>
@@ -6417,13 +6418,13 @@
         <v>1937</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>633</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I83" t="s">
         <v>312</v>
@@ -6432,7 +6433,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>113</v>
       </c>
@@ -6449,13 +6450,13 @@
         <v>1928</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>637</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I84" t="s">
         <v>314</v>
@@ -6464,7 +6465,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>115</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>713</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I85" t="s">
         <v>313</v>
@@ -6496,7 +6497,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>118</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>120</v>
       </c>
@@ -6543,13 +6544,13 @@
         <v>1921</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>637</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I87" t="s">
         <v>317</v>
@@ -6558,7 +6559,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>122</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>716</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I88" t="s">
         <v>318</v>
@@ -6590,7 +6591,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>122</v>
       </c>
@@ -6607,13 +6608,13 @@
         <v>1962</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>717</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I89" t="s">
         <v>319</v>
@@ -6622,7 +6623,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>125</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>648</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I90" t="s">
         <v>320</v>
@@ -6654,7 +6655,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>127</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>634</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I91" t="s">
         <v>321</v>
@@ -6686,7 +6687,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>127</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>719</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I92" t="s">
         <v>322</v>
@@ -6718,7 +6719,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>130</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>133</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>633</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I94" t="s">
         <v>324</v>
@@ -6782,7 +6783,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>133</v>
       </c>
@@ -6799,13 +6800,13 @@
         <v>1926</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>721</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I95" t="s">
         <v>325</v>
@@ -6814,7 +6815,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>136</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>634</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I96" t="s">
         <v>326</v>
@@ -6846,7 +6847,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>137</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>724</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I97" t="s">
         <v>327</v>
@@ -6878,7 +6879,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>140</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>634</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I98" t="s">
         <v>328</v>
@@ -6910,7 +6911,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>141</v>
       </c>
@@ -6930,10 +6931,10 @@
         <v>725</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I99" t="s">
         <v>329</v>
@@ -6942,28 +6943,28 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="J100" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>142</v>
       </c>
@@ -6978,13 +6979,13 @@
         <v>1925</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>650</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I101" t="s">
         <v>330</v>
@@ -6993,7 +6994,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>607</v>
       </c>
@@ -7010,10 +7011,10 @@
         <v>1916</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H102" s="42"/>
       <c r="I102" s="42"/>
@@ -7021,7 +7022,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>145</v>
       </c>
@@ -7038,13 +7039,13 @@
         <v>1931</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>634</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I103" t="s">
         <v>331</v>
@@ -7053,7 +7054,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>147</v>
       </c>
@@ -7070,13 +7071,13 @@
         <v>1914</v>
       </c>
       <c r="F104" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="G104" t="s">
         <v>914</v>
       </c>
-      <c r="G104" t="s">
-        <v>915</v>
-      </c>
       <c r="H104" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I104" t="s">
         <v>332</v>
@@ -7085,7 +7086,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>149</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>150</v>
       </c>
@@ -7118,13 +7119,13 @@
         <v>1928</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>634</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I106" t="s">
         <v>333</v>
@@ -7133,7 +7134,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>153</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>154</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>634</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I108" t="s">
         <v>335</v>
@@ -7195,7 +7196,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>156</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>634</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I109" t="s">
         <v>336</v>
@@ -7225,7 +7226,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>157</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>160</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>162</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>634</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I112" t="s">
         <v>337</v>
@@ -7303,7 +7304,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>165</v>
       </c>
@@ -7320,14 +7321,14 @@
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>166</v>
       </c>
@@ -7342,13 +7343,13 @@
         <v>1927</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>634</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I114" t="s">
         <v>338</v>
@@ -7357,7 +7358,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>167</v>
       </c>
@@ -7372,13 +7373,13 @@
         <v>1932</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I115" t="s">
         <v>339</v>
@@ -7387,7 +7388,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>169</v>
       </c>
@@ -7404,13 +7405,13 @@
         <v>1914</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>730</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I116" t="s">
         <v>340</v>
@@ -7419,7 +7420,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>171</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>175</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>634</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I118" t="s">
         <v>342</v>
@@ -7483,7 +7484,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>178</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>633</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I119" t="s">
         <v>343</v>
@@ -7515,7 +7516,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>181</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>634</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I120" t="s">
         <v>344</v>
@@ -7547,7 +7548,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>184</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>732</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I121" t="s">
         <v>345</v>
@@ -7579,7 +7580,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>185</v>
       </c>
@@ -7602,14 +7603,14 @@
         <v>734</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>187</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>190</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>634</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I124" t="s">
         <v>347</v>
@@ -7673,7 +7674,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>192</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>737</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I125" t="s">
         <v>348</v>
@@ -7705,7 +7706,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>193</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>634</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I126" t="s">
         <v>349</v>
@@ -7737,7 +7738,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>196</v>
       </c>
@@ -7757,10 +7758,10 @@
         <v>738</v>
       </c>
       <c r="G127" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I127" t="s">
         <v>350</v>
@@ -7769,7 +7770,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>197</v>
       </c>
@@ -7786,13 +7787,13 @@
         <v>1914</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>739</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I128" t="s">
         <v>351</v>
@@ -7801,7 +7802,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>199</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>740</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I129" t="s">
         <v>352</v>
@@ -7833,7 +7834,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>200</v>
       </c>
@@ -7850,13 +7851,13 @@
         <v>1936</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>741</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I130" t="s">
         <v>353</v>
@@ -7865,7 +7866,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>201</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>204</v>
       </c>
@@ -7912,13 +7913,13 @@
         <v>1917</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>634</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I132" t="s">
         <v>355</v>
@@ -7927,7 +7928,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>357</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>208</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>744</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I134" t="s">
         <v>358</v>
@@ -7987,7 +7988,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>209</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>748</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I135" t="s">
         <v>360</v>
@@ -8019,7 +8020,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>610</v>
       </c>
@@ -8042,7 +8043,7 @@
         <v>747</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I136" s="35" t="s">
         <v>611</v>
@@ -8051,7 +8052,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>211</v>
       </c>
@@ -8066,13 +8067,13 @@
         <v>1905</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>749</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I137" t="s">
         <v>361</v>
@@ -8081,7 +8082,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>213</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>634</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I138" t="s">
         <v>362</v>
@@ -8113,7 +8114,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>215</v>
       </c>
@@ -8128,13 +8129,13 @@
         <v>1915</v>
       </c>
       <c r="F139" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="G139" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="G139" s="12" t="s">
-        <v>926</v>
-      </c>
       <c r="H139" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I139" t="s">
         <v>363</v>
@@ -8143,7 +8144,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
         <v>217</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>220</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>637</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I141" t="s">
         <v>364</v>
@@ -8197,7 +8198,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>222</v>
       </c>
@@ -8217,10 +8218,10 @@
         <v>634</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I142" t="s">
         <v>366</v>
@@ -8229,7 +8230,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>223</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>223</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I143" t="s">
         <v>367</v>
@@ -8261,7 +8262,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>225</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>752</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I144" t="s">
         <v>368</v>
@@ -8293,7 +8294,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>227</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>634</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I145" t="s">
         <v>369</v>
@@ -8325,7 +8326,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>229</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>637</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I146" t="s">
         <v>370</v>
@@ -8357,7 +8358,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>232</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>676</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I147" t="s">
         <v>371</v>
@@ -8389,7 +8390,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>234</v>
       </c>
@@ -8409,17 +8410,17 @@
         <v>755</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I148" s="14"/>
       <c r="J148" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>236</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>633</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I149" t="s">
         <v>372</v>
@@ -8451,7 +8452,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>237</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>239</v>
       </c>
@@ -8511,7 +8512,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>242</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>757</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I152" t="s">
         <v>375</v>
@@ -8543,7 +8544,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
         <v>377</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>637</v>
       </c>
       <c r="H153" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I153" t="s">
         <v>378</v>
@@ -8575,7 +8576,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>246</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>637</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I154" t="s">
         <v>379</v>
@@ -8605,7 +8606,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>248</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>760</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I155" t="s">
         <v>380</v>
@@ -8637,7 +8638,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>250</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>634</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I156" t="s">
         <v>381</v>
@@ -8667,7 +8668,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>252</v>
       </c>
@@ -8684,13 +8685,13 @@
         <v>1934</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>648</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I157" t="s">
         <v>382</v>
@@ -8699,7 +8700,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>254</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>637</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I158" t="s">
         <v>383</v>
@@ -8733,15 +8734,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1"/>
-    <hyperlink ref="I19" r:id="rId2"/>
-    <hyperlink ref="I18" r:id="rId3"/>
-    <hyperlink ref="I20" r:id="rId4"/>
-    <hyperlink ref="I57" r:id="rId5"/>
-    <hyperlink ref="I55" r:id="rId6"/>
-    <hyperlink ref="I76" r:id="rId7"/>
-    <hyperlink ref="I136" r:id="rId8"/>
-    <hyperlink ref="I33" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I57" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I55" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I76" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I136" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
